--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.425</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.452</v>
+        <v>20.168</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-931687733.544</v>
+        <v>-0.444</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>817374.3689999999</v>
+        <v>32.182</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.716</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.63</v>
+        <v>17.266</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-395395.3095566072</v>
+        <v>15.99201525007952</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>344366.9759215423</v>
+        <v>16.06887424281559</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>695470.1227831464</v>
+        <v>16.09353711407257</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-610208.4568375071</v>
+        <v>15.97416754118857</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>330554.4999495554</v>
+        <v>16.05319035106541</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>677723.5676487797</v>
+        <v>16.08088445682911</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-73679.03889554075</v>
+        <v>16.02800082788531</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>973191.5627799595</v>
+        <v>16.09173639158237</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1346393.386624913</v>
+        <v>16.11391832039016</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>548578.032560261</v>
+        <v>16.09214296792746</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>792783.4853487492</v>
+        <v>16.15496166251146</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>975095.882591189</v>
+        <v>16.18132558701227</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-352794.0462620811</v>
+        <v>15.98245465754847</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>413490.9365234331</v>
+        <v>16.12094932618619</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>735215.4275465972</v>
+        <v>16.16678291360005</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-268937.9463401844</v>
+        <v>15.97774319611255</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>323190.4748360642</v>
+        <v>16.08650643450048</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>540901.1893927427</v>
+        <v>16.12161250206121</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-574150.4750097353</v>
+        <v>15.94291756526878</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>137853.8496987798</v>
+        <v>16.05563689896034</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>370602.2273614481</v>
+        <v>16.09492638195778</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-265148.1831409276</v>
+        <v>16.01932076634768</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>523987.9711571384</v>
+        <v>16.11025037369388</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-191890.6031109068</v>
+        <v>16.02710790915806</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>663530.522764476</v>
+        <v>16.11510214633164</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>900853.6475517767</v>
+        <v>16.14038024975342</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-269168.6686983707</v>
+        <v>16.02121519602159</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>787785.2884460628</v>
+        <v>16.11209487238729</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1020126.107264096</v>
+        <v>16.14045043035513</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>347486.9512966977</v>
+        <v>16.07803496241036</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1500989.81510101</v>
+        <v>16.15138247685839</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1754989.942175645</v>
+        <v>16.1740757238719</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>951799.0349731861</v>
+        <v>16.16954563850169</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1283559.626317852</v>
+        <v>16.24278900803058</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1382586.038136201</v>
+        <v>16.26955932333942</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29284.66781702022</v>
+        <v>16.05223889523149</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>937537.5242396592</v>
+        <v>16.21077293470334</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1142851.70222713</v>
+        <v>16.2577881648707</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-59647.24332061855</v>
+        <v>16.03290194156865</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>596158.2968695058</v>
+        <v>16.15691354416583</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>749462.4027071728</v>
+        <v>16.19308679144303</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-241250.754400432</v>
+        <v>16.01382844881974</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>536734.2690891292</v>
+        <v>16.1428320667381</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>702865.062154659</v>
+        <v>16.1832712790505</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>143912.6237930448</v>
+        <v>16.09405024777537</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>991802.6376807957</v>
+        <v>16.19817988185572</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-372367.1176476207</v>
+        <v>16.02960752416067</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>571023.6327705676</v>
+        <v>16.11626671080879</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>825517.814438942</v>
+        <v>16.14094478952414</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-375364.9404099458</v>
+        <v>16.02669195963293</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>782418.6494505585</v>
+        <v>16.11629088710037</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1033624.737737932</v>
+        <v>16.14396716184405</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>262366.1665056162</v>
+        <v>16.08189152469192</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1521106.213285861</v>
+        <v>16.15421542434435</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1795004.238971259</v>
+        <v>16.17636622165839</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>954809.3385825771</v>
+        <v>16.17357332329354</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1331234.646706785</v>
+        <v>16.24596416505959</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1444332.252660688</v>
+        <v>16.27220856635577</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-32643.36299890779</v>
+        <v>16.05951210520211</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>972624.0730355307</v>
+        <v>16.21564841048918</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1194174.328623041</v>
+        <v>16.26154302336624</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-162721.749846487</v>
+        <v>16.03754786346506</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>555662.8729567413</v>
+        <v>16.15956780962361</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>722476.5083494819</v>
+        <v>16.19488441570196</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-304864.8380825675</v>
+        <v>16.02287898771003</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>543851.1078394159</v>
+        <v>16.14992845432436</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>725510.2829291335</v>
+        <v>16.18940213533265</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>94990.15924626286</v>
+        <v>16.10070014950403</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1016789.555633047</v>
+        <v>16.20326553218236</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-396879.8884010396</v>
+        <v>16.01769605272989</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>689376.1445603166</v>
+        <v>16.08751472454713</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1156930.562386932</v>
+        <v>16.10959612319258</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-456933.1895232252</v>
+        <v>16.00673307303336</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>902032.119994897</v>
+        <v>16.07864095501064</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1368095.657811707</v>
+        <v>16.10342832327566</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>310234.3953825253</v>
+        <v>16.05347680057988</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1808187.802608573</v>
+        <v>16.11148690762869</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2308277.786657813</v>
+        <v>16.13134226011901</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1058265.029002101</v>
+        <v>16.11803604919882</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1452137.197893302</v>
+        <v>16.17544180113845</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1706909.815635416</v>
+        <v>16.19917243292301</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-185174.4049190102</v>
+        <v>16.02038943199059</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>950866.1685481111</v>
+        <v>16.14620463775064</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1380957.146996363</v>
+        <v>16.18723434913046</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-218020.4262074935</v>
+        <v>16.01334794499665</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>635944.9327104505</v>
+        <v>16.11201146891806</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>930955.6983739084</v>
+        <v>16.14344468173923</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-477570.5512640434</v>
+        <v>15.98905850512477</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>540073.8884158131</v>
+        <v>16.0914585913185</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>857513.2700054988</v>
+        <v>16.12662741280765</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-21001.19119154805</v>
+        <v>16.05536861212896</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1097635.592671073</v>
+        <v>16.13799078197795</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>773684.9719362814</v>
+        <v>16.14177525500195</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>302828.3179851222</v>
+        <v>16.11506128009849</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>557936.1343801685</v>
+        <v>16.20767041499104</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>685367.7520736764</v>
+        <v>16.24681620982479</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-271637.3868529884</v>
+        <v>15.97319471233678</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>368355.5779830425</v>
+        <v>16.16880251491516</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>559565.8525338867</v>
+        <v>16.23422768495825</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-199503.3795292425</v>
+        <v>16.00945833882449</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>441246.2896386515</v>
+        <v>16.13168362595608</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>677833.5054673686</v>
+        <v>16.17145355404779</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-535613.2829568748</v>
+        <v>15.97933574076207</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>220824.340303116</v>
+        <v>16.10692903622197</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>473464.0642536029</v>
+        <v>16.15143801061377</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-114069.4886677942</v>
+        <v>16.06540144265866</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>708446.4163874298</v>
+        <v>16.16838565457017</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>979105.3941708595</v>
+        <v>16.20413260880725</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>507770.2627181967</v>
+        <v>16.19369875469118</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>794647.5445508701</v>
+        <v>16.30202572221994</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>946381.3596938419</v>
+        <v>16.34740868179736</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-124515.5721235612</v>
+        <v>16.04588233189761</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>578223.3128556836</v>
+        <v>16.26551923120786</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>794092.0278155466</v>
+        <v>16.33973583564112</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1171991.790205357</v>
+        <v>16.23060676486022</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>652375.8647441772</v>
+        <v>16.22888485239027</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>947293.2266930774</v>
+        <v>16.33593664079083</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1026260.230998972</v>
+        <v>16.37602646162766</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>69075.13468041956</v>
+        <v>16.07728564039466</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>785554.017887352</v>
+        <v>16.30031020307781</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>911980.9406006442</v>
+        <v>16.36778533220861</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>76840.18610298398</v>
+        <v>16.08595068558404</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>764248.6771567938</v>
+        <v>16.22468189694716</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>917436.2111802631</v>
+        <v>16.26574334177937</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-117307.6743758089</v>
+        <v>16.07418848944662</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>688332.4554191866</v>
+        <v>16.21945452153705</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>852103.8109411785</v>
+        <v>16.26536374955144</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>374613.3767235448</v>
+        <v>16.16369431983245</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1239568.326555337</v>
+        <v>16.28100621167703</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1418058.59961222</v>
+        <v>16.31785745908618</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>889619.9431513326</v>
+        <v>16.33881302584344</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1201830.247443649</v>
+        <v>16.46298761164903</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1291727.356464275</v>
+        <v>16.50962918894255</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>267274.08529627</v>
+        <v>16.18085358621744</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1024305.525578925</v>
+        <v>16.43016270422383</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1154114.372253525</v>
+        <v>16.50685861247045</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1213158.261901343</v>
+        <v>16.23491980441842</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>662072.5103030909</v>
+        <v>16.23578443733215</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>988950.748039695</v>
+        <v>16.34139736405173</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1079878.514290901</v>
+        <v>16.38067693543375</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>41142.85129507282</v>
+        <v>16.08840922681472</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>827096.9924037703</v>
+        <v>16.30786738821122</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>966370.145876632</v>
+        <v>16.37373750134708</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36944.58127181171</v>
+        <v>16.09380475416216</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>787418.4114652374</v>
+        <v>16.23018389861718</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>947851.4749690541</v>
+        <v>16.27024050186716</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-119263.256055911</v>
+        <v>16.08680741274382</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>757545.0551383812</v>
+        <v>16.22972217769836</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>929568.7886182964</v>
+        <v>16.27449965968918</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>401517.2692710533</v>
+        <v>16.1733599669851</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1340285.880256563</v>
+        <v>16.28878608592324</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1527597.969680593</v>
+        <v>16.3247303402535</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>954219.0410256183</v>
+        <v>16.34885569539983</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1298691.100856513</v>
+        <v>16.47115754885381</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1395790.717671331</v>
+        <v>16.51679477421606</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>293128.8602515427</v>
+        <v>16.19529035263173</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1119874.179150703</v>
+        <v>16.44039286963226</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1255997.307579768</v>
+        <v>16.51520376919507</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1437198.060081434</v>
+        <v>16.16621154170262</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>655545.5223055369</v>
+        <v>16.15097699608145</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1036459.544017412</v>
+        <v>16.23535864832384</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1218196.099855372</v>
+        <v>16.27056977070415</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-132195.7830176958</v>
+        <v>16.02471356668761</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>793782.8768152109</v>
+        <v>16.20217336815063</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1055309.239686528</v>
+        <v>16.26074415308461</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-3758.977459401419</v>
+        <v>16.04833150707993</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>910045.928794286</v>
+        <v>16.15904969647361</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1218626.287163886</v>
+        <v>16.19462297926023</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-307492.8095655288</v>
+        <v>16.02900577333187</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>764607.3591735734</v>
+        <v>16.14472598264501</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1095202.20727179</v>
+        <v>16.18452778070292</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>318030.7689438085</v>
+        <v>16.10349766510894</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1476568.269029403</v>
+        <v>16.19691564917452</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1830486.263373239</v>
+        <v>16.2288841581735</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1016646.371308315</v>
+        <v>16.22987112585393</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1437124.350279072</v>
+        <v>16.32831117510268</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1641359.976565368</v>
+        <v>16.36906457882547</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>152408.2552390197</v>
+        <v>16.09829642365224</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1155322.398423981</v>
+        <v>16.29727753017241</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1437215.130357378</v>
+        <v>16.36365179396129</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-219932.5364902144</v>
+        <v>15.95966368338721</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>156078.4613510461</v>
+        <v>16.0597053880394</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>369406.2300163063</v>
+        <v>16.09351654761826</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-405549.0089063765</v>
+        <v>15.93377073514311</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>86020.6483870548</v>
+        <v>16.03647935035022</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>298624.7051712431</v>
+        <v>16.07448479096209</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-127932.0472628261</v>
+        <v>16.0054630098926</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>423479.2245627773</v>
+        <v>16.08829378735715</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>650848.3464976462</v>
+        <v>16.11874290627764</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>254228.0274633005</v>
+        <v>16.08743798663744</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>363786.9997661969</v>
+        <v>16.16855263131734</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>486578.8452700246</v>
+        <v>16.20525704911995</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-210535.3507965364</v>
+        <v>15.94483853147613</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>174807.2026646194</v>
+        <v>16.12504531869259</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>377723.6280968325</v>
+        <v>16.18776950776589</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-272814.793713737</v>
+        <v>15.93015963310313</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30550.42956323881</v>
+        <v>16.07183512686474</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>170378.4727219025</v>
+        <v>16.11987726427141</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-506901.4893774182</v>
+        <v>15.8804310779007</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-135100.9071346543</v>
+        <v>16.02707772098381</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14296.1336690127</v>
+        <v>16.08090015326514</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-375508.9104203468</v>
+        <v>15.98245255884781</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>39954.02280145204</v>
+        <v>16.10073935278096</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-65126.83518169099</v>
+        <v>16.00882331839835</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>383094.2463301504</v>
+        <v>16.12344383460029</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>531266.5665131435</v>
+        <v>16.15819494047718</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-157080.6283261011</v>
+        <v>15.99893827954703</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>406821.094577208</v>
+        <v>16.11716251320683</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>553735.4089851961</v>
+        <v>16.15618802080969</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>179384.6466791188</v>
+        <v>16.07436985077877</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>797844.9481836767</v>
+        <v>16.16977815578932</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>957008.4363690831</v>
+        <v>16.20102119533523</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>539138.9228806659</v>
+        <v>16.19326274927776</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>703388.266653466</v>
+        <v>16.28798920217799</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>777121.1697961885</v>
+        <v>16.32541037272227</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>58851.18671092529</v>
+        <v>16.04078913572904</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>531823.7240733377</v>
+        <v>16.24722772586498</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>667416.1850576533</v>
+        <v>16.31174406587</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-113133.5997883936</v>
+        <v>16.00620053719563</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>231545.121693789</v>
+        <v>16.16784612303257</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>333864.5373726056</v>
+        <v>16.21746800431449</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-265237.1398365074</v>
+        <v>15.97750818558202</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>149143.1846432412</v>
+        <v>16.14547174013905</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>259896.7223244636</v>
+        <v>16.20100814589697</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-78692.29196199692</v>
+        <v>16.08432779355336</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>375337.5044696566</v>
+        <v>16.21989343052068</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-159779.5580961456</v>
+        <v>16.01334119864072</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>338366.3602673224</v>
+        <v>16.12624387495159</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>497608.7473922962</v>
+        <v>16.16017241666263</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-207650.2888501342</v>
+        <v>16.00753784929258</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>413558.1899019855</v>
+        <v>16.12412191592965</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>572748.90931089</v>
+        <v>16.16221521854064</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>142569.7892378286</v>
+        <v>16.08076080398069</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>820878.1717519423</v>
+        <v>16.17485884113405</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>992890.271690218</v>
+        <v>16.20535723640688</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>550158.0356953711</v>
+        <v>16.20015795334738</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>739999.5916990846</v>
+        <v>16.2938164247213</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>823167.1255253875</v>
+        <v>16.33049588541761</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>34746.06144760532</v>
+        <v>16.05189924722635</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>562624.9849774754</v>
+        <v>16.25525490610713</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>709105.4456720321</v>
+        <v>16.31823842903515</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-169679.0055476993</v>
+        <v>16.01412782391839</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>210356.0405769832</v>
+        <v>16.17320390859861</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>321628.1800439578</v>
+        <v>16.22165337106222</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-299366.496426818</v>
+        <v>15.99146867235895</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>155038.7478814052</v>
+        <v>16.15692015843517</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>276078.0591384307</v>
+        <v>16.21113366784205</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-104094.813487205</v>
+        <v>16.09501758837931</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>391792.3853358875</v>
+        <v>16.22857311868152</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-197959.5664344985</v>
+        <v>15.99612874320714</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>364157.1632835693</v>
+        <v>16.0870328506921</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>649741.4750487718</v>
+        <v>16.11730816326546</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-306171.7135197292</v>
+        <v>15.97968757034607</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>412675.1931043513</v>
+        <v>16.07318104821772</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>699775.964561324</v>
+        <v>16.10720111500376</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>100809.4303537697</v>
+        <v>16.04188456902288</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>898135.2640639163</v>
+        <v>16.11730103431398</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1204507.94313439</v>
+        <v>16.14455940530481</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>553232.5310527461</v>
+        <v>16.12497661903034</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>741187.2749721258</v>
+        <v>16.19914585854967</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>912548.5145263691</v>
+        <v>16.23217786338429</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-92390.95432007097</v>
+        <v>15.99802764768621</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>490628.1463419073</v>
+        <v>16.16178495283602</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>763355.4170331364</v>
+        <v>16.21794138899108</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-261087.3104233161</v>
+        <v>15.98125478382245</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>182818.2363203664</v>
+        <v>16.10980720646529</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>372930.4603616048</v>
+        <v>16.15282695466642</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-482559.7082522718</v>
+        <v>15.94598746621732</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>54798.96982278847</v>
+        <v>16.07924899399963</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>259289.7927844301</v>
+        <v>16.12743091241468</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-275557.6598766126</v>
+        <v>16.03446830626524</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>319024.6679292393</v>
+        <v>16.14198110805065</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>199117.9360873294</v>
+        <v>16.14393459203871</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18682.56244119604</v>
+        <v>16.1035783052169</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>142244.580538316</v>
+        <v>16.22342137251396</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>233552.1115146066</v>
+        <v>16.27766605504506</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-272908.0094679904</v>
+        <v>15.91910705417986</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>54774.39236663796</v>
+        <v>16.17381756822544</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>183146.0450776458</v>
+        <v>16.26319437442361</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-197631.2198957688</v>
+        <v>15.96909864395611</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>131961.3173198699</v>
+        <v>16.12842288848272</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>281900.7205308891</v>
+        <v>16.18260279256553</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-429884.4266510236</v>
+        <v>15.92559702730362</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-34370.9616329928</v>
+        <v>16.09173760675047</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>125795.9941247224</v>
+        <v>16.15243076161142</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-227258.9502682282</v>
+        <v>16.04037494160449</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>205671.586774298</v>
+        <v>16.17446070365487</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>376338.984088655</v>
+        <v>16.22321369117212</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>171536.5756549086</v>
+        <v>16.2038879555767</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>311273.3986192857</v>
+        <v>16.34427901795349</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>417605.8592522158</v>
+        <v>16.40675278609108</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-162911.3882074996</v>
+        <v>16.01164757364525</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>199712.2801634615</v>
+        <v>16.29784725634979</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>341771.0129717925</v>
+        <v>16.39879112820823</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>494160.0523562133</v>
+        <v>16.2644383474098</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>267164.1802414299</v>
+        <v>16.25795883887082</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>417261.4755418777</v>
+        <v>16.39667267702234</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>479137.3715276688</v>
+        <v>16.45240392672068</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-32088.34357659219</v>
+        <v>16.0608708374135</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>344417.6185384397</v>
+        <v>16.35148130447351</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>434748.6005828163</v>
+        <v>16.44387481069112</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-6193.828400695699</v>
+        <v>16.07311770702705</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>354779.321961918</v>
+        <v>16.2540636517611</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>456585.3140879881</v>
+        <v>16.31011744705451</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-148508.4688352229</v>
+        <v>16.05409622142493</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>279810.0501711499</v>
+        <v>16.24337667898602</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>388850.345682194</v>
+        <v>16.30611253472786</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>104552.5100639726</v>
+        <v>16.17317012120477</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>566517.0871790188</v>
+        <v>16.32601531676203</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>684127.1276291431</v>
+        <v>16.37638338830926</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>431012.5605793419</v>
+        <v>16.39935191012643</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>588836.0133125109</v>
+        <v>16.56045448654488</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>658100.113641794</v>
+        <v>16.62482766648892</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>100047.718780551</v>
+        <v>16.1939574834512</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>498572.6667691653</v>
+        <v>16.51901824646541</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>590684.2674790828</v>
+        <v>16.6235419609811</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>521263.6417622869</v>
+        <v>16.27205920456658</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>275001.3810960314</v>
+        <v>16.26939334885815</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>443336.3663090284</v>
+        <v>16.40628425840061</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>513258.1984135426</v>
+        <v>16.46088139800128</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-44311.10361036327</v>
+        <v>16.07779219041247</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>371401.6246173754</v>
+        <v>16.36380491106073</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>470530.6556156561</v>
+        <v>16.45400654191748</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-26912.02912837522</v>
+        <v>16.08538115894602</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>369432.0140301189</v>
+        <v>16.26328556300523</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>476591.8775993536</v>
+        <v>16.31797207575695</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-147446.3257214414</v>
+        <v>16.07286811671002</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>320868.5064669197</v>
+        <v>16.2591165674009</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>436013.187415337</v>
+        <v>16.32031093545043</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>122348.3665867026</v>
+        <v>16.18794116744873</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>625835.7141202119</v>
+        <v>16.33835529357286</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>749872.8298673038</v>
+        <v>16.38748780144437</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>469771.4550519101</v>
+        <v>16.41505558169536</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>645726.0619393061</v>
+        <v>16.57376862706851</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>720398.3261088943</v>
+        <v>16.63675177705126</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>117674.1758468705</v>
+        <v>16.21536880617762</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>555285.8226647861</v>
+        <v>16.53499376758175</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>652455.9481790807</v>
+        <v>16.63695754517</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>536239.8731332279</v>
+        <v>16.18065258618836</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>193287.2578974671</v>
+        <v>16.15635184129045</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>383347.4001514275</v>
+        <v>16.2656003364123</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>512381.6971027227</v>
+        <v>16.31438530043271</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-209659.3927338995</v>
+        <v>15.9921638503744</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>271471.3245735235</v>
+        <v>16.22330417077145</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>447430.8320893103</v>
+        <v>16.30332513648936</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-95736.84420557057</v>
+        <v>16.02485120033487</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>379971.555362833</v>
+        <v>16.16920781623233</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>576998.4281709041</v>
+        <v>16.21767629404649</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-318365.7431077218</v>
+        <v>15.99615289409765</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>247542.3955936326</v>
+        <v>16.14687248913085</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>458802.7091512043</v>
+        <v>16.20115340472485</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-6516.317910124551</v>
+        <v>16.09543435254407</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>608387.2033640058</v>
+        <v>16.21709682204609</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>833220.2743561178</v>
+        <v>16.26070193779574</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>442382.8001489252</v>
+        <v>16.25740822518434</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>652094.4196312585</v>
+        <v>16.3850360746643</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>795599.3719953109</v>
+        <v>16.44113367409996</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-17097.7501535701</v>
+        <v>16.08628325472522</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>506413.156293156</v>
+        <v>16.34562742199115</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>693528.3360590999</v>
+        <v>16.43591612299559</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-422980.9329348197</v>
+        <v>15.94875566204218</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22832.15809112397</v>
+        <v>16.03171659260238</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>269087.0215750151</v>
+        <v>16.05910737862634</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-694886.7423271328</v>
+        <v>15.92239692125798</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-114255.9351237131</v>
+        <v>16.00752611170267</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>130829.3629247618</v>
+        <v>16.03828186299296</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-384807.8985775444</v>
+        <v>15.98396652328909</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>270380.755995828</v>
+        <v>16.05260376522579</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>534789.235992317</v>
+        <v>16.07723837562499</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>191122.3256778998</v>
+        <v>16.0449969198606</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>301687.5397967003</v>
+        <v>16.11198701116887</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>439394.9205695302</v>
+        <v>16.14133142632156</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-387738.3000608856</v>
+        <v>15.92542689888633</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>77831.86071218862</v>
+        <v>16.07478359705734</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>304881.660985858</v>
+        <v>16.12572432852266</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-435545.6064754691</v>
+        <v>15.91590597026324</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-75360.13561782984</v>
+        <v>16.03349879391951</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>89685.13470321367</v>
+        <v>16.07257426593246</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-709878.5715972101</v>
+        <v>15.86849650060935</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-269976.1434358244</v>
+        <v>15.99016646210948</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-93155.2834478669</v>
+        <v>16.03390147143169</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-571395.2133179887</v>
+        <v>15.95593415858223</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-77488.87279028031</v>
+        <v>16.05405419578207</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-253789.6392718067</v>
+        <v>15.98580867928931</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>286367.2930239728</v>
+        <v>16.08092815039571</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>454249.1644063289</v>
+        <v>16.10902578527116</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-399580.6214806093</v>
+        <v>15.97228080213362</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>276549.5307312206</v>
+        <v>16.07034946839294</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>442661.8477831446</v>
+        <v>16.10186723225559</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-20008.6337145586</v>
+        <v>16.03724320106348</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>724129.7265760708</v>
+        <v>16.11636880007512</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>906306.4071000229</v>
+        <v>16.14159348345967</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>518533.9406473511</v>
+        <v>16.12804476619654</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>700226.9885929121</v>
+        <v>16.20637300271552</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>779354.5819876803</v>
+        <v>16.23620465813405</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-84927.55858583243</v>
+        <v>16.00017597101044</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>493351.7985412656</v>
+        <v>16.17140321518567</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>640315.575326228</v>
+        <v>16.22370408833461</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-247733.7976056752</v>
+        <v>15.97424153473596</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>166874.2767025698</v>
+        <v>16.1084931389795</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>286203.5284125421</v>
+        <v>16.14879019917478</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-420445.6243695507</v>
+        <v>15.94372125812139</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>76028.89942117492</v>
+        <v>16.0831731781868</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>205707.9772699829</v>
+        <v>16.12822752061627</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-214566.2481606615</v>
+        <v>16.0355192917903</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>330973.0303754333</v>
+        <v>16.14805176118011</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-384065.953604377</v>
+        <v>15.98988675847558</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>216478.1193334665</v>
+        <v>16.08359002813347</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>397222.627749714</v>
+        <v>16.11102662429708</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-479470.9071541668</v>
+        <v>15.97987086599625</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>265849.2527013473</v>
+        <v>16.07659002112448</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>446254.7907489987</v>
+        <v>16.10735941480706</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-86154.06666880391</v>
+        <v>16.04296837508012</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>730307.6664119839</v>
+        <v>16.12101656677</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>927528.9114711739</v>
+        <v>16.1456437081236</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>517213.6061789149</v>
+        <v>16.13430172736395</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>728794.9201340416</v>
+        <v>16.21176038144368</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>818935.1164998474</v>
+        <v>16.24101278524039</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-130248.949054055</v>
+        <v>16.00996818355426</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>514788.4519428068</v>
+        <v>16.17865646135618</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>674133.5722523017</v>
+        <v>16.22972136855077</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-326789.3121679084</v>
+        <v>15.98126941348978</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>130598.6168972335</v>
+        <v>16.11339804801602</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>260494.2546032334</v>
+        <v>16.15274810913341</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-472762.9798952022</v>
+        <v>15.95591322166234</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>72047.17805932264</v>
+        <v>16.09329247696729</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>213899.1412005524</v>
+        <v>16.13727932591592</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-258257.3122181976</v>
+        <v>16.04495279744945</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>337868.6363514662</v>
+        <v>16.15582755874374</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-461646.7295541561</v>
+        <v>15.9815004350199</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>208065.5784379154</v>
+        <v>16.05689775187096</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>537459.0877014339</v>
+        <v>16.0814282961244</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-654908.2139055391</v>
+        <v>15.96351486798446</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>198121.5558788804</v>
+        <v>16.04102244767506</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>528879.4306137082</v>
+        <v>16.068557748021</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-199693.8965033451</v>
+        <v>16.01700289910585</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>751064.556458403</v>
+        <v>16.07950992726805</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>1107054.328474033</v>
+        <v>16.10156691019675</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>500949.7952523919</v>
+        <v>16.07964921127975</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>700019.9528807555</v>
+        <v>16.14092392490324</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>892975.2223608955</v>
+        <v>16.16734527385459</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-302549.5127571522</v>
+        <v>15.97320465505133</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>403583.9533147013</v>
+        <v>16.10895436993853</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>708753.7602700201</v>
+        <v>16.15456817225304</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-467069.1024801556</v>
+        <v>15.96159754061177</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>62084.79643125951</v>
+        <v>16.06831458088465</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>286208.7838668451</v>
+        <v>16.10331025959895</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-724011.0375030794</v>
+        <v>15.92685821222091</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-85702.48231544606</v>
+        <v>16.03744214404063</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>156015.2116960564</v>
+        <v>16.07659967272097</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-502720.6429431425</v>
+        <v>16.00278762764126</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>206344.9661646888</v>
+        <v>16.09198669602497</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>112179.3344159934</v>
+        <v>16.08914717026273</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-40218.31776794745</v>
+        <v>16.04736664144713</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>93064.26930307904</v>
+        <v>16.1465101760522</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>197975.1300908476</v>
+        <v>16.19016903784906</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-409431.0234832898</v>
+        <v>15.89260083344783</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-15875.41292537144</v>
+        <v>16.10390639861415</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>131709.4533597523</v>
+        <v>16.17678102015538</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-343045.4739551811</v>
+        <v>15.94947312188987</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>55723.53553224348</v>
+        <v>16.08188668666032</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>236479.8046765277</v>
+        <v>16.12617559256913</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-631127.4995544128</v>
+        <v>15.90698374393492</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-155564.4275137142</v>
+        <v>16.04502963141386</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>37930.99306771098</v>
+        <v>16.09459963858141</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-407984.2018088</v>
+        <v>16.00516353552115</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>113803.8301867645</v>
+        <v>16.11655550116189</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>320830.7195733808</v>
+        <v>16.1563684713273</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>134599.9600572126</v>
+        <v>16.1321124906102</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>294246.9815511697</v>
+        <v>16.2485609161404</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>418851.9358386602</v>
+        <v>16.29919716131658</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-283481.9728338005</v>
+        <v>15.97072991993192</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>157154.6413652657</v>
+        <v>16.20849486792396</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>325423.3277928319</v>
+        <v>16.29119314886535</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>471306.7783521226</v>
+        <v>16.18418087276565</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>252156.1816815762</v>
+        <v>16.16943795806838</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>420537.8193201375</v>
+        <v>16.28430419247823</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>490253.7535032689</v>
+        <v>16.32906383469211</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-130130.0831118081</v>
+        <v>16.00406098692047</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>326827.2339395251</v>
+        <v>16.24530552354639</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>428562.2639850597</v>
+        <v>16.32053014628447</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-97132.46602213994</v>
+        <v>16.03149638332885</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>343367.8771006773</v>
+        <v>16.18195609941966</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>463708.0342646543</v>
+        <v>16.22771765256922</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-273249.9958141095</v>
+        <v>16.00877264224868</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>246383.6728285908</v>
+        <v>16.16613237714371</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>375631.2663471813</v>
+        <v>16.21730205069047</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>15032.13401970791</v>
+        <v>16.11088697894404</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>576260.955706397</v>
+        <v>16.23793554086028</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>716565.7582596032</v>
+        <v>16.27901102006058</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>456997.8876464986</v>
+        <v>16.28888022264884</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>640804.9570118395</v>
+        <v>16.42260212487794</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>719674.4662622636</v>
+        <v>16.47469070413192</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>39157.19578777548</v>
+        <v>16.11642732645755</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>526981.3564627853</v>
+        <v>16.38662014841915</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>632955.7389122283</v>
+        <v>16.47214863726442</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>490859.4473436697</v>
+        <v>16.1911025361191</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>252806.6748110192</v>
+        <v>16.17964065914331</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>442461.6191912093</v>
+        <v>16.29301248073856</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>521750.5641889062</v>
+        <v>16.33687550729715</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-155037.6869326217</v>
+        <v>16.01886843232779</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>349503.532093351</v>
+        <v>16.25631771979283</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>461490.9267866995</v>
+        <v>16.32976611432334</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-128176.1538168093</v>
+        <v>16.0421337131021</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>355500.8150082915</v>
+        <v>16.1900737712053</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>481943.231535015</v>
+        <v>16.23472296235125</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-278549.2484412548</v>
+        <v>16.02498208569731</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>289782.2363083572</v>
+        <v>16.17983205272115</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>426014.4191630693</v>
+        <v>16.22974874857446</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28796.92187780916</v>
+        <v>16.12372420988633</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>640595.9465954055</v>
+        <v>16.24876116471238</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>788310.4797781047</v>
+        <v>16.28883254911487</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>498819.5384007283</v>
+        <v>16.30264601991541</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>704158.0072446719</v>
+        <v>16.43439599325792</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>789226.4094054991</v>
+        <v>16.48537105693585</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>54191.46282078431</v>
+        <v>16.13498668302946</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>589747.7924734305</v>
+        <v>16.40067950334684</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>701349.6159163704</v>
+        <v>16.48411944047174</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>464814.7683654588</v>
+        <v>16.12340923217489</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>140126.027400608</v>
+        <v>16.0957501404337</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>349132.5645492192</v>
+        <v>16.18615247022819</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>497946.7938792846</v>
+        <v>16.22543230732207</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-369318.0581590842</v>
+        <v>15.95800476444494</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>210056.2193953321</v>
+        <v>16.14978837693284</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>412359.6078442678</v>
+        <v>16.21504326455974</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-256777.6435603608</v>
+        <v>15.99897077744864</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>319932.6746830666</v>
+        <v>16.11895932804822</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>556595.788079192</v>
+        <v>16.15858332163963</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-535147.7124677229</v>
+        <v>15.96947234109581</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>146953.9101707312</v>
+        <v>16.09472167472794</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>401215.466174746</v>
+        <v>16.13905895580092</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-187512.7934512818</v>
+        <v>16.0544987482258</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>555097.4832910878</v>
+        <v>16.15558401419185</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>826867.0496425232</v>
+        <v>16.19119663694843</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>435722.757800035</v>
+        <v>16.18105584319175</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>677560.213918083</v>
+        <v>16.28693639698739</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>845454.5091386508</v>
+        <v>16.33241657143139</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-138446.3995336603</v>
+        <v>16.03740333932588</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>498598.6242432647</v>
+        <v>16.25288527421709</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>719400.1815417786</v>
+        <v>16.32686058649969</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-553645.801813477</v>
+        <v>15.99793207984666</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>395645.9658954295</v>
+        <v>16.06543617271699</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>846456.0329192593</v>
+        <v>16.08787817746226</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-996093.1759688279</v>
+        <v>15.98061933386963</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>224409.3750607816</v>
+        <v>16.04998190461341</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>673319.4078032387</v>
+        <v>16.07518982601035</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-326023.0311483506</v>
+        <v>16.02823870188926</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>1036014.970916894</v>
+        <v>16.08417357782336</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>1520239.469229094</v>
+        <v>16.10436865347106</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>636623.287849896</v>
+        <v>16.08560707796267</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>945484.4190619421</v>
+        <v>16.1405912937224</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>1190436.751778463</v>
+        <v>16.16486346458792</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-501225.595788597</v>
+        <v>15.98976391941488</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>489802.8166602546</v>
+        <v>16.11133721030319</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>909329.9113826506</v>
+        <v>16.15302017662706</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-414096.0671573334</v>
+        <v>15.98534241954327</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>346875.6795592468</v>
+        <v>16.08092664116949</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>647437.2830012256</v>
+        <v>16.11285055230466</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-896970.2802648373</v>
+        <v>15.95266779501295</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>26638.56372079963</v>
+        <v>16.05167934219427</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>349247.1209867161</v>
+        <v>16.08742270219537</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-523213.9449222555</v>
+        <v>16.02019165843929</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>503165.0188826657</v>
+        <v>16.10005158559534</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-238298.6465548647</v>
+        <v>16.03126092348351</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>876290.5610615413</v>
+        <v>16.10858249891441</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>1177533.899954346</v>
+        <v>16.13163129112098</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-446124.5037620558</v>
+        <v>16.02465484313555</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>939273.0702287912</v>
+        <v>16.10446948863721</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>1237704.953128049</v>
+        <v>16.13033399149515</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>348826.3067389127</v>
+        <v>16.07476568976345</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>1863492.555588735</v>
+        <v>16.13917304974871</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>2191096.975136176</v>
+        <v>16.15987822695601</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>1257992.882041756</v>
+        <v>16.15698991638506</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1688910.233863099</v>
+        <v>16.22115194205974</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1822048.540735807</v>
+        <v>16.24587397642549</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>84645.89430008695</v>
+        <v>16.05448913395713</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>1274245.113420569</v>
+        <v>16.19372570363235</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>1540612.690945386</v>
+        <v>16.23657023880284</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-92794.17830652636</v>
+        <v>16.03719566529062</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>761840.2425667298</v>
+        <v>16.14622831505766</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>975086.3578600896</v>
+        <v>16.17918097239932</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-384306.7731600328</v>
+        <v>16.0186363165667</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>635229.3693596042</v>
+        <v>16.13200808321948</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>867991.7640923761</v>
+        <v>16.16886533467163</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>105550.4665933999</v>
+        <v>16.08933497853083</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>1218580.255099457</v>
+        <v>16.18083445233912</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-466986.3533041776</v>
+        <v>16.03395044934967</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>766978.71862689</v>
+        <v>16.11010664620252</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>1091201.624470347</v>
+        <v>16.13261051924026</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-572334.1850980375</v>
+        <v>16.03006955199424</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>949554.3706592324</v>
+        <v>16.10876865175072</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1273735.691189796</v>
+        <v>16.13401612726412</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>253667.0001231996</v>
+        <v>16.07871961154218</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1910859.632234287</v>
+        <v>16.14223578356338</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>2265538.603981444</v>
+        <v>16.16244812593426</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1278491.322265615</v>
+        <v>16.16118245679703</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1770734.710701137</v>
+        <v>16.2246087577376</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>1923295.861096943</v>
+        <v>16.24884323034785</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>21182.01509803655</v>
+        <v>16.0615138031576</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1342248.276697441</v>
+        <v>16.19865946071023</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>1630861.106138625</v>
+        <v>16.24048706533184</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-220939.5881364986</v>
+        <v>16.04191830926505</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>718372.270623373</v>
+        <v>16.14920937950262</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>950616.6495293399</v>
+        <v>16.18138426573096</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-457816.223542156</v>
+        <v>16.02737018978496</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>657278.3864907863</v>
+        <v>16.13903589572721</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>912093.08902401</v>
+        <v>16.17501618854231</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>53778.00882261424</v>
+        <v>16.09591149009914</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>1266702.691376784</v>
+        <v>16.18604577566137</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-519666.7907735288</v>
+        <v>16.02143880697376</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>886075.961039645</v>
+        <v>16.08276954365069</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>1489194.809992969</v>
+        <v>16.1028650297837</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-785511.3515313027</v>
+        <v>16.01045248153402</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>987746.5583516787</v>
+        <v>16.07358195814415</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1593997.261288645</v>
+        <v>16.0961470186395</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>191017.5765042107</v>
+        <v>16.05175864996223</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>2149928.410204767</v>
+        <v>16.10267878747998</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>2802223.09205889</v>
+        <v>16.12075805383506</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>1339338.799161118</v>
+        <v>16.10959083023731</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>1846720.265240875</v>
+        <v>16.1598519046742</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>2190726.58038381</v>
+        <v>16.1816980781935</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-236586.8341281246</v>
+        <v>16.02426564299198</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1243455.783168915</v>
+        <v>16.13472803591706</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1807360.915518517</v>
+        <v>16.17204700174142</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-327475.9693379601</v>
+        <v>16.0178400404814</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>777856.3061368993</v>
+        <v>16.10456066956929</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>1186235.45699647</v>
+        <v>16.13314764113689</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-762528.0686106167</v>
+        <v>15.99478011599547</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>564522.2551896812</v>
+        <v>16.08474201530944</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1005963.374871393</v>
+        <v>16.11674012545376</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-193980.4551143448</v>
+        <v>16.05332758346494</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1267799.690783213</v>
+        <v>16.12590353162939</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>849254.4952602239</v>
+        <v>16.12873624267251</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>319076.5221424244</v>
+        <v>16.10572280501561</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>645063.5286953853</v>
+        <v>16.18689081490853</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>834952.7811813737</v>
+        <v>16.22282287979743</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-417186.0246763602</v>
+        <v>15.98167612869735</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>413149.1839522592</v>
+        <v>16.15349431647994</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>683004.3420708828</v>
+        <v>16.21295814005374</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-419030.4432610623</v>
+        <v>16.00889548397287</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>394485.0510867461</v>
+        <v>16.11634375433868</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>729433.6225027277</v>
+        <v>16.15244957055676</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-894525.1956998188</v>
+        <v>15.98006787274308</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>72778.49589637131</v>
+        <v>16.092187611405</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>432601.7317916424</v>
+        <v>16.13261168475658</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-401059.8651975681</v>
+        <v>16.05633762128192</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>654366.5562137292</v>
+        <v>16.1468211379682</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>1039223.283250496</v>
+        <v>16.17929227613762</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>522381.9993032545</v>
+        <v>16.16966768213608</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>881565.112560196</v>
+        <v>16.26468460470953</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>1115541.741828792</v>
+        <v>16.3062121571282</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-292222.5107917782</v>
+        <v>16.04039898881177</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>606238.8183974004</v>
+        <v>16.23339172794344</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>920229.6254900529</v>
+        <v>16.30073526791417</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1470669.713001229</v>
+        <v>16.21039535046381</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>845972.7401656766</v>
+        <v>16.21030174773913</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1229495.340071282</v>
+        <v>16.30419205287822</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1351552.611252291</v>
+        <v>16.34107995656958</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>93048.4085294145</v>
+        <v>16.07774198657705</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>1032822.57641026</v>
+        <v>16.27373458731727</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>1214913.950507411</v>
+        <v>16.33516969010381</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>10125.86978491523</v>
+        <v>16.07936688551003</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>895859.8196707665</v>
+        <v>16.20137476903416</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1116844.003803105</v>
+        <v>16.23871110718921</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-257653.6317542796</v>
+        <v>16.06694281487127</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>784973.4099902825</v>
+        <v>16.19464962178328</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1023721.136111491</v>
+        <v>16.23641297001003</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>348353.7114926642</v>
+        <v>16.14606312713826</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1470403.768074986</v>
+        <v>16.24918261185067</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1729498.567844433</v>
+        <v>16.28271200549971</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1102524.683386014</v>
+        <v>16.30160900908199</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1500870.225405512</v>
+        <v>16.41059023169759</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1647340.803608644</v>
+        <v>16.45335516017177</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>295128.4373738316</v>
+        <v>16.16346549322352</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1275279.324128757</v>
+        <v>16.38262549817635</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1471534.116751923</v>
+        <v>16.45232635566186</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>1541693.51124598</v>
+        <v>16.21490482302923</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>869978.0178437112</v>
+        <v>16.21721156190126</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1297177.96035944</v>
+        <v>16.30985289344439</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1436340.701725642</v>
+        <v>16.34599304544622</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>67791.87948713708</v>
+        <v>16.08834032573161</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>1101515.279792449</v>
+        <v>16.28121722006835</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>1302049.279943711</v>
+        <v>16.34119607638464</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-38931.91060463106</v>
+        <v>16.08707323546738</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>931278.9686052813</v>
+        <v>16.2070219318641</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>1163392.068644135</v>
+        <v>16.24344791024444</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-253386.5422986062</v>
+        <v>16.07898905159313</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>884420.3565585217</v>
+        <v>16.20463984829648</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1136045.981186763</v>
+        <v>16.2453775173384</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>391672.7819367674</v>
+        <v>16.15545663607328</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1612519.752833665</v>
+        <v>16.25692759837549</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1885246.330856886</v>
+        <v>16.28963489560329</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1194982.654815652</v>
+        <v>16.3114804625762</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1636717.579617845</v>
+        <v>16.41883050047146</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1794499.718697025</v>
+        <v>16.46067375352575</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>336652.617043995</v>
+        <v>16.17717416161463</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1410104.735773166</v>
+        <v>16.39265438478928</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1616659.235175129</v>
+        <v>16.46064859450166</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>1739805.088747567</v>
+        <v>16.15158458360872</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>801500.034476404</v>
+        <v>16.13886470032075</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1293634.162818039</v>
+        <v>16.21283881258441</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1563218.78018381</v>
+        <v>16.24515727356024</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-211704.8757701162</v>
+        <v>16.02845603993359</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>996612.2443325953</v>
+        <v>16.18435720127948</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1366692.416889239</v>
+        <v>16.23759701258767</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-174458.3968134654</v>
+        <v>16.04479585181527</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>993957.8590435004</v>
+        <v>16.14214028191588</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1432729.550447273</v>
+        <v>16.17443991882024</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-607965.1452333186</v>
+        <v>16.02584863832179</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>770756.9804718333</v>
+        <v>16.12754943533566</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1243942.491502671</v>
+        <v>16.16370276686041</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>144928.8847184018</v>
+        <v>16.0918094894003</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1639075.250419114</v>
+        <v>16.17389973433525</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2144603.980638838</v>
+        <v>16.20294226800933</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1185030.266217706</v>
+        <v>16.20367362919254</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1717316.826973331</v>
+        <v>16.2900347143427</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2032454.30908284</v>
+        <v>16.32732560912941</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>68130.04576773744</v>
+        <v>16.08860258585524</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1358096.773542685</v>
+        <v>16.26346859188096</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1770302.317115847</v>
+        <v>16.32370341771063</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-227029.0649418134</v>
+        <v>15.99468842859053</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>459901.273967053</v>
+        <v>16.06692819792507</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>867067.6444237615</v>
+        <v>16.09218193857064</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-573556.9028745776</v>
+        <v>15.97624771507417</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>343928.8699404405</v>
+        <v>16.05034021979146</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>753807.3006994608</v>
+        <v>16.07873546244697</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-81648.34243822057</v>
+        <v>16.02723886853211</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>953646.4351975104</v>
+        <v>16.0869843221065</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>1391812.267261345</v>
+        <v>16.10973839755</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>575178.4828922952</v>
+        <v>16.08924707002153</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>764342.9580212608</v>
+        <v>16.14750735696214</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>1009182.10897822</v>
+        <v>16.17522899653185</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-307771.2113733169</v>
+        <v>15.9860450274654</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>397981.3075926765</v>
+        <v>16.11612412782405</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>792037.7982038989</v>
+        <v>16.16293425473472</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-297379.1100525641</v>
+        <v>15.98043121260235</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>268013.1669885323</v>
+        <v>16.08281540592439</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>549571.5234332221</v>
+        <v>16.11866609907178</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-733265.0260000763</v>
+        <v>15.94514435944204</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-30034.81582168772</v>
+        <v>16.05103337938323</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>272972.5713667336</v>
+        <v>16.09121332928126</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-490395.4882753258</v>
+        <v>16.01755911651005</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>298908.9063394376</v>
+        <v>16.10296082902978</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>67570.21387652284</v>
+        <v>16.0332934081578</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>905739.9989827304</v>
+        <v>16.11610497811899</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>1186867.293153568</v>
+        <v>16.1421058487789</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-79791.57241429819</v>
+        <v>16.02676185086094</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>988203.1132056178</v>
+        <v>16.11210170109239</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1271296.637301772</v>
+        <v>16.14131109148568</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>539647.9959547133</v>
+        <v>16.08024937048284</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>1715378.486187653</v>
+        <v>16.14911189361858</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2021762.968409079</v>
+        <v>16.17250185743501</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1163640.576469199</v>
+        <v>16.16984105451363</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1464709.279346425</v>
+        <v>16.23795326330495</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>1613446.898775894</v>
+        <v>16.26628752041133</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>248818.9284271406</v>
+        <v>16.05949339977855</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>1135241.84691939</v>
+        <v>16.20859097601283</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>1398865.178744281</v>
+        <v>16.2568210043721</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>1228.058245055243</v>
+        <v>16.03983444917882</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>654188.7036111067</v>
+        <v>16.15670517505906</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>861718.0025453396</v>
+        <v>16.19379051482586</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-267311.0441720179</v>
+        <v>16.02022748584974</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>525223.5235479774</v>
+        <v>16.14157540625703</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>752261.5872961731</v>
+        <v>16.18309943857777</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>90120.07218256239</v>
+        <v>16.09581540315653</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>961053.6055670062</v>
+        <v>16.19374705930979</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-97313.50567010161</v>
+        <v>16.03676560764497</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>839987.457560876</v>
+        <v>16.1183467247342</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>1142829.287962128</v>
+        <v>16.14373313157932</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-151317.6714590536</v>
+        <v>16.0332414504637</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>1030358.717295866</v>
+        <v>16.11741034721266</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>1337975.748301153</v>
+        <v>16.14592319020231</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>497521.7807129082</v>
+        <v>16.08512799135616</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>1792066.630383363</v>
+        <v>16.15305548207673</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2124020.138930147</v>
+        <v>16.17588892810329</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1205661.864650609</v>
+        <v>16.17513227129777</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>1558136.915415019</v>
+        <v>16.24249360127352</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>1726061.550640628</v>
+        <v>16.27026259350208</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>222791.6927958453</v>
+        <v>16.06783206088667</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1218052.562948074</v>
+        <v>16.21472303502944</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>1503467.297770697</v>
+        <v>16.2618092602936</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-91754.57404019347</v>
+        <v>16.04571243836793</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>631458.3848474073</v>
+        <v>16.16073831387589</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>857210.4934359562</v>
+        <v>16.19694852050701</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-312275.4035069715</v>
+        <v>16.03053208603916</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>559762.8112701112</v>
+        <v>16.15008075757768</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>807957.1124653164</v>
+        <v>16.19061696305878</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>64650.90878983791</v>
+        <v>16.10375718465608</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1018782.642921515</v>
+        <v>16.20024958998647</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-79471.07019840076</v>
+        <v>16.02085525110985</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>962140.598257916</v>
+        <v>16.08651014276992</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>1509334.709550195</v>
+        <v>16.10912418101506</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-257213.221337298</v>
+        <v>16.0093199042313</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1096723.493842828</v>
+        <v>16.07678111566289</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1652851.776920749</v>
+        <v>16.10220020759756</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>484172.9851882646</v>
+        <v>16.05348711162376</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>1992822.724526279</v>
+        <v>16.1078981117508</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2585799.763672489</v>
+        <v>16.12826898678217</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1230928.342278354</v>
+        <v>16.11622503930669</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>1569578.682019949</v>
+        <v>16.16951874163656</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>1912564.815962044</v>
+        <v>16.19446315328389</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-43.2360199900608</v>
+        <v>16.02434625421979</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1083052.211072956</v>
+        <v>16.14257664294147</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>1614894.534376883</v>
+        <v>16.18448789795004</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-172203.9045758403</v>
+        <v>16.01667559860583</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>663202.9943074138</v>
+        <v>16.10959231506028</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>1046820.194546498</v>
+        <v>16.14169655488146</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-569690.8814135488</v>
+        <v>15.99190624058924</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>453623.0885447623</v>
+        <v>16.08814991562449</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>869360.2133211162</v>
+        <v>16.12412073102852</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-174921.5431114505</v>
+        <v>16.05461085130803</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>961334.9062891655</v>
+        <v>16.13224999152364</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>620941.2465759764</v>
+        <v>16.13521232914145</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>172992.7958733579</v>
+        <v>16.10974582602998</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>402661.7350223073</v>
+        <v>16.19598144291218</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>597671.134179984</v>
+        <v>16.23682816076703</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-395806.0884670745</v>
+        <v>15.97616310004159</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>220114.5942612732</v>
+        <v>16.16016718397054</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>483253.0750511828</v>
+        <v>16.22681142977522</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-251711.8272893655</v>
+        <v>16.00617569780222</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>358023.7929836554</v>
+        <v>16.12134867067434</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>665149.0511303061</v>
+        <v>16.16170325195969</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-665479.6522231461</v>
+        <v>15.97530208824473</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>74962.76520836007</v>
+        <v>16.09531462506341</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>405604.8963700095</v>
+        <v>16.14053724076702</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-298846.7781853297</v>
+        <v>16.0570720636118</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>515393.8407538788</v>
+        <v>16.1539202399089</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>866792.2455796069</v>
+        <v>16.19025085564497</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>406365.4586694262</v>
+        <v>16.17956971415727</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>660315.5760331337</v>
+        <v>16.28067840235546</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>892481.3971697055</v>
+        <v>16.32756212495057</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-246893.6329584693</v>
+        <v>16.04036951198054</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>428808.0276355308</v>
+        <v>16.24718551372028</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>725973.0824434826</v>
+        <v>16.32231452418367</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1203682.961576068</v>
+        <v>16.2270591108756</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>670115.8536443267</v>
+        <v>16.22723192831595</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>954760.7177022715</v>
+        <v>16.327134217712</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1090403.861662915</v>
+        <v>16.36918426505565</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>86440.210043671</v>
+        <v>16.08451214917615</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>803870.8530284651</v>
+        <v>16.29455377489515</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>992005.8686906418</v>
+        <v>16.36354962307469</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>123531.4140703901</v>
+        <v>16.08577716331094</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>801975.5636099103</v>
+        <v>16.21663573534956</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>1013537.538449055</v>
+        <v>16.25844115277401</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-110272.3687834882</v>
+        <v>16.07308177468017</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>701260.6827329679</v>
+        <v>16.20987648581209</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>930618.8892449468</v>
+        <v>16.25668489111077</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>363771.6732821629</v>
+        <v>16.15766346195464</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1241880.796374127</v>
+        <v>16.26811633892445</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1488088.951624705</v>
+        <v>16.30570266290374</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>933282.2927410763</v>
+        <v>16.3267554530864</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1226414.88650934</v>
+        <v>16.44286655122102</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1382952.333240605</v>
+        <v>16.49125529685946</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>286201.7314906204</v>
+        <v>16.17802941415317</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1039040.238078613</v>
+        <v>16.41303227351721</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1236951.290203891</v>
+        <v>16.49092667049173</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1283237.566819169</v>
+        <v>16.2327708627913</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>701483.4471773048</v>
+        <v>16.2357441304676</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>1022829.602851535</v>
+        <v>16.33435331444054</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1175205.592880546</v>
+        <v>16.37554326803326</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>78347.58149749838</v>
+        <v>16.09699371328218</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>873634.9502003022</v>
+        <v>16.3037365894981</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1079958.176669139</v>
+        <v>16.37109796078684</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>94998.02642663778</v>
+        <v>16.09489507987506</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>843088.6197079124</v>
+        <v>16.22356679161117</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1066154.573808512</v>
+        <v>16.26435432127033</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-92114.9651593474</v>
+        <v>16.08697597131713</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>798149.6348331739</v>
+        <v>16.22159478692522</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1040822.352090091</v>
+        <v>16.26725520362179</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>416040.5038119456</v>
+        <v>16.16866104422861</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1375963.248374703</v>
+        <v>16.27736972429742</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1636093.495771535</v>
+        <v>16.31403577410643</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1020656.876633767</v>
+        <v>16.33847733379351</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1349706.532512518</v>
+        <v>16.45288529992159</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1518165.122198819</v>
+        <v>16.50022637187158</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>332001.3087010702</v>
+        <v>16.19387983880327</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1161763.945825274</v>
+        <v>16.42497695069265</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1370926.324026045</v>
+        <v>16.50096732876909</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1401799.662721814</v>
+        <v>16.16112519872642</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>587533.4386633132</v>
+        <v>16.14713398969771</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>946072.6446671196</v>
+        <v>16.22577129492432</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>1220964.541967276</v>
+        <v>16.26250251165978</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-200244.8243301971</v>
+        <v>16.02823462161387</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>711732.1555654235</v>
+        <v>16.19524187836653</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1073106.664635089</v>
+        <v>16.25491284203148</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14226.484856269</v>
+        <v>16.04610771222886</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>902107.1328105918</v>
+        <v>16.15047667627267</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>1307003.843261424</v>
+        <v>16.18657951893539</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-363361.2360980632</v>
+        <v>16.0260139512018</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>703185.2281131642</v>
+        <v>16.13490624255093</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1140913.400836538</v>
+        <v>16.17535370513756</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>215044.3776646336</v>
+        <v>16.09664192181176</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1378343.870123491</v>
+        <v>16.18453268089875</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>1842855.500578239</v>
+        <v>16.21702924121801</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>983909.0511926661</v>
+        <v>16.21786578440817</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1370744.234224382</v>
+        <v>16.30980664952793</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1684262.486117868</v>
+        <v>16.35190281742723</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>84855.4115051635</v>
+        <v>16.09395002375096</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>1067899.991932633</v>
+        <v>16.28138939882303</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>1460762.202954398</v>
+        <v>16.34859265285893</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.394</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.168</v>
+        <v>19.452</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.444</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.182</v>
+        <v>13.587</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.604</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.266</v>
+        <v>14.63</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.99201525007952</v>
+        <v>9.061801439350528</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.06887424281559</v>
+        <v>22.46927485903669</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.09353711407257</v>
+        <v>28.83267861930259</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.97416754118857</v>
+        <v>4.001260060986153</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.05319035106541</v>
+        <v>22.85120363678555</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.08088445682911</v>
+        <v>29.80738456438409</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.02800082788531</v>
+        <v>14.93592672302304</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.09173639158237</v>
+        <v>33.2939185271639</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16.11391832039016</v>
+        <v>39.83841028428276</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.09214296792746</v>
+        <v>30.97484374654866</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.15496166251146</v>
+        <v>37.53964308167423</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.18132558701227</v>
+        <v>42.44061597370451</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.98245465754847</v>
+        <v>6.497519586964115</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.12094932618619</v>
+        <v>27.63214771408419</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16.16678291360005</v>
+        <v>36.50551418988975</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.97774319611255</v>
+        <v>8.21128465923538</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16.08650643450048</v>
+        <v>25.86140699413803</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>16.12161250206121</v>
+        <v>32.35091266237049</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>15.94291756526878</v>
+        <v>-2.692783882520907</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.05563689896034</v>
+        <v>20.7705398236115</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.09492638195778</v>
+        <v>28.44050802136293</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.01932076634768</v>
+        <v>8.580664227370566</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.11025037369388</v>
+        <v>31.3400828065736</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.02710790915806</v>
+        <v>12.21205890569362</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>16.11510214633164</v>
+        <v>30.11416382896724</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>16.14038024975342</v>
+        <v>35.0808210135372</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16.02121519602159</v>
+        <v>10.00023313768552</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16.11209487238729</v>
+        <v>34.45453582735092</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>16.14045043035513</v>
+        <v>39.83010840753269</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.07803496241036</v>
+        <v>23.26415332841847</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16.15138247685839</v>
+        <v>46.62132285928559</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>16.1740757238719</v>
+        <v>51.76454721971603</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>16.16954563850169</v>
+        <v>45.77252577402253</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16.24278900803058</v>
+        <v>56.07070067462013</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16.26955932333942</v>
+        <v>59.14457784776724</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16.05223889523149</v>
+        <v>17.16037479945131</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.21077293470334</v>
+        <v>46.08584562183918</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>16.2577881648707</v>
+        <v>52.62456358215495</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16.03290194156865</v>
+        <v>14.17468088411646</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>16.15691354416583</v>
+        <v>36.74700420711251</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>16.19308679144303</v>
+        <v>42.02361385988748</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>16.01382844881974</v>
+        <v>7.047586325822452</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.1428320667381</v>
+        <v>36.65138934417109</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>16.1832712790505</v>
+        <v>42.97298053770712</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>16.09405024777537</v>
+        <v>21.02038084129697</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16.19817988185572</v>
+        <v>49.25735203699215</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>16.02960752416067</v>
+        <v>8.818695034362378</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>16.11626671080879</v>
+        <v>27.58996226693274</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>16.14094478952414</v>
+        <v>32.65380065109517</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>16.02669195963293</v>
+        <v>7.970733409797498</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>16.11629088710037</v>
+        <v>33.43929726037466</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.14396716184405</v>
+        <v>38.96525077641223</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.08189152469192</v>
+        <v>21.27905390193124</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>16.15421542434435</v>
+        <v>45.51251452763646</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>16.17636622165839</v>
+        <v>50.78564223806701</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>16.17357332329354</v>
+        <v>44.40705832857694</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>16.24596416505959</v>
+        <v>55.51649745494782</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.27220856635577</v>
+        <v>58.85434680132816</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16.05951210520211</v>
+        <v>15.23932927268694</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>16.21564841048918</v>
+        <v>45.67852203711929</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.26154302336624</v>
+        <v>52.38699651376306</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>16.03754786346506</v>
+        <v>10.90265907433674</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>16.15956780962361</v>
+        <v>34.41176218597919</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>16.19488441570196</v>
+        <v>39.87073058590586</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>16.02287898771003</v>
+        <v>5.198021590638493</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>16.14992845432436</v>
+        <v>35.90354345767253</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.18940213533265</v>
+        <v>42.47575386548353</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>16.10070014950403</v>
+        <v>19.23544169664236</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>16.20326553218236</v>
+        <v>48.42267045152041</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>16.01769605272989</v>
+        <v>10.57814970434076</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.08751472454713</v>
+        <v>26.04178668482315</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>16.10959612319258</v>
+        <v>32.69776056805405</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>16.00673307303336</v>
+        <v>9.036699194249818</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>16.07864095501064</v>
+        <v>30.42434103354616</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>16.10342832327566</v>
+        <v>37.7593332893202</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.05347680057988</v>
+        <v>20.50116508343226</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>16.11148690762869</v>
+        <v>41.13382209503095</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>16.13134226011901</v>
+        <v>48.02201038316439</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16.11803604919882</v>
+        <v>38.57315971807255</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>16.17544180113845</v>
+        <v>46.88976479891554</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>16.19917243292301</v>
+        <v>52.26928489331187</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>16.02038943199059</v>
+        <v>12.21637118620738</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>16.14620463775064</v>
+        <v>36.82700646935107</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>16.18723434913046</v>
+        <v>46.14429007380599</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>16.01334794499665</v>
+        <v>11.12336624529597</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>16.11201146891806</v>
+        <v>31.11723112533027</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16.14344468173923</v>
+        <v>38.02430917625371</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>15.98905850512477</v>
+        <v>3.866390011840444</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>16.0914585913185</v>
+        <v>30.20711055175999</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16.12662741280765</v>
+        <v>38.42371520539406</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.05536861212896</v>
+        <v>15.75213520654967</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>16.13799078197795</v>
+        <v>41.09309175273683</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>16.14177525500195</v>
+        <v>38.54157589208417</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>16.11506128009849</v>
+        <v>29.61627212411918</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16.20767041499104</v>
+        <v>40.89517660500191</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>16.24681620982479</v>
+        <v>46.52922210043219</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.97319471233678</v>
+        <v>3.905808166374928</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>16.16880251491516</v>
+        <v>32.93644418229334</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>16.23422768495825</v>
+        <v>41.60990809202893</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>16.00945833882449</v>
+        <v>9.659281294318358</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>16.13168362595608</v>
+        <v>30.7552813942201</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>16.17145355404779</v>
+        <v>38.54466337742071</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.97933574076207</v>
+        <v>-3.268008452345782</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>16.10692903622197</v>
+        <v>24.26539746395383</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>16.15143801061377</v>
+        <v>33.46117495599886</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.06540144265866</v>
+        <v>12.59395479896765</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>16.16838565457017</v>
+        <v>38.79589445952475</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>16.20413260880725</v>
+        <v>47.41796506130088</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>16.19369875469118</v>
+        <v>41.02395624865849</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>16.30202572221994</v>
+        <v>55.0333462606529</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>16.34740868179736</v>
+        <v>62.44312852283073</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.04588233189761</v>
+        <v>9.988870396683229</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.26551923120786</v>
+        <v>45.1979969272796</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>16.33973583564112</v>
+        <v>56.01360577073245</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>16.23060676486022</v>
+        <v>55.25812551736836</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>16.22888485239027</v>
+        <v>49.53249761719113</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>16.33593664079083</v>
+        <v>64.58861049492484</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.37602646162766</v>
+        <v>68.62003178049832</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.07728564039466</v>
+        <v>19.84543423677729</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>16.30031020307781</v>
+        <v>57.37332138098116</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.36778533220861</v>
+        <v>63.99533830119663</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>16.08595068558404</v>
+        <v>19.14889006718212</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>16.22468189694716</v>
+        <v>45.28229446133075</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.26574334177937</v>
+        <v>51.10606857363536</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>16.07418848944662</v>
+        <v>11.29716455043521</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>16.21945452153705</v>
+        <v>45.15796927090712</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>16.26536374955144</v>
+        <v>52.04122853649024</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>16.16369431983245</v>
+        <v>30.0074190717203</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>16.28100621167703</v>
+        <v>61.82388911661726</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>16.31785745908618</v>
+        <v>68.38946854606991</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>16.33881302584344</v>
+        <v>66.39188973388188</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>16.46298761164903</v>
+        <v>83.99703729293724</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.50962918894255</v>
+        <v>89.06622254301422</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>16.18085358621744</v>
+        <v>31.69008968752681</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>16.43016270422383</v>
+        <v>75.48710860308196</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>16.50685861247045</v>
+        <v>82.99702194444957</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>16.23491980441842</v>
+        <v>54.64035552770717</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>16.23578443733215</v>
+        <v>48.36376827449853</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>16.34139736405173</v>
+        <v>64.23009457507396</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.38067693543375</v>
+        <v>68.64363283664139</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.08840922681472</v>
+        <v>18.27635396829206</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>16.30786738821122</v>
+        <v>57.41680064085119</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>16.37373750134708</v>
+        <v>64.35259135853076</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>16.09380475416216</v>
+        <v>17.56306004626101</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>16.23018389861718</v>
+        <v>44.68960618195062</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16.27024050186716</v>
+        <v>50.48860239438985</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>16.08680741274382</v>
+        <v>11.46174967427007</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>16.22972217769836</v>
+        <v>46.49970013295441</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>16.27449965968918</v>
+        <v>53.3739039634094</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>16.1733599669851</v>
+        <v>30.27005987960665</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>16.28878608592324</v>
+        <v>63.10187683237159</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>16.3247303402535</v>
+        <v>69.65279487654604</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>16.34885569539983</v>
+        <v>67.38594831864623</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16.47115754885381</v>
+        <v>85.85413649295413</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16.51679477421606</v>
+        <v>91.05994040015538</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16.19529035263173</v>
+        <v>32.35114662797465</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.44039286963226</v>
+        <v>77.8269343873078</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>16.51520376919507</v>
+        <v>85.31449598102722</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>16.16621154170262</v>
+        <v>48.78534526656212</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>16.15097699608145</v>
+        <v>38.99284757064423</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>16.23535864832384</v>
+        <v>52.22086623250273</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>16.27056977070415</v>
+        <v>58.53203992299079</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.02471356668761</v>
+        <v>11.51764396129307</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>16.20217336815063</v>
+        <v>44.50952021657328</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>16.26074415308461</v>
+        <v>53.82749456697702</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.04833150707993</v>
+        <v>16.13062318616231</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>16.15904969647361</v>
+        <v>39.76204757966606</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>16.19462297926023</v>
+        <v>47.74208068982664</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.02900577333187</v>
+        <v>7.436622100781813</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>16.14472598264501</v>
+        <v>38.08777866459607</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16.18452778070292</v>
+        <v>47.5394276277397</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>16.10349766510894</v>
+        <v>24.18546144304189</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>16.19691564917452</v>
+        <v>53.17383967959682</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>16.2288841581735</v>
+        <v>62.02940860507722</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>16.22987112585393</v>
+        <v>55.22341450899782</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>16.32831117510268</v>
+        <v>71.35180429340025</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.36906457882547</v>
+        <v>79.18572652797232</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>16.09829642365224</v>
+        <v>22.22544715945607</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>16.29727753017241</v>
+        <v>61.69386413694224</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>16.36365179396129</v>
+        <v>72.78739588387467</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.95966368338721</v>
+        <v>9.323677392837549</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>16.0597053880394</v>
+        <v>21.12731679110032</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16.09351654761826</v>
+        <v>27.82404659266754</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>15.93377073514311</v>
+        <v>2.153161276853048</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.03647935035022</v>
+        <v>19.21302435497634</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.07448479096209</v>
+        <v>26.59142138330726</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.0054630098926</v>
+        <v>12.34203312909142</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>16.08829378735715</v>
+        <v>29.09024454850414</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>16.11874290627764</v>
+        <v>35.99620806245935</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>16.08743798663744</v>
+        <v>28.06472801517975</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>16.16855263131734</v>
+        <v>33.16595532249301</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>16.20525704911995</v>
+        <v>38.8833247193833</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>15.94483853147613</v>
+        <v>6.169978613380088</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.12504531869259</v>
+        <v>24.57820277905887</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.18776950776589</v>
+        <v>34.27173652638145</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.93015963310313</v>
+        <v>2.142300237666946</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>16.07183512686474</v>
+        <v>17.80469743876886</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>16.11987726427141</v>
+        <v>25.02385831735236</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>15.8804310779007</v>
+        <v>-12.70551649177374</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>16.02707772098381</v>
+        <v>8.516057574239595</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>16.08090015326514</v>
+        <v>17.04331793390302</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.98245255884781</v>
+        <v>-2.530712855889593</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>16.10073935278096</v>
+        <v>18.22330243992526</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.00882331839835</v>
+        <v>13.86694218504672</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16.12344383460029</v>
+        <v>30.11408631359155</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>16.15819494047718</v>
+        <v>35.48504529158987</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>15.99893827954703</v>
+        <v>9.932793692681241</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.11716251320683</v>
+        <v>32.53044293543225</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>16.15618802080969</v>
+        <v>38.41784850787534</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>16.07436985077877</v>
+        <v>22.51908457310495</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>16.16977815578932</v>
+        <v>44.20980571482942</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>16.20102119533523</v>
+        <v>49.79200853330488</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>16.19326274927776</v>
+        <v>45.21394613593553</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>16.28798920217799</v>
+        <v>54.04473980153354</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>16.32541037272227</v>
+        <v>58.0089568818734</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.04078913572904</v>
+        <v>19.47366307205374</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>16.24722772586498</v>
+        <v>45.56343102015734</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>16.31174406587</v>
+        <v>53.04288397596915</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>16.00620053719563</v>
+        <v>9.482727547199312</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>16.16784612303257</v>
+        <v>30.03104572558922</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>16.21746800431449</v>
+        <v>36.13090561874979</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>15.97750818558202</v>
+        <v>-1.254017423999038</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>16.14547174013905</v>
+        <v>26.05688323577069</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>16.20100814589697</v>
+        <v>33.35640661233911</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16.08432779355336</v>
+        <v>11.68819833697543</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>16.21989343052068</v>
+        <v>37.87747918068342</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.01334119864072</v>
+        <v>10.7210888009459</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.12624387495159</v>
+        <v>27.88906814907361</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>16.16017241666263</v>
+        <v>33.37715891269862</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>16.00753784929258</v>
+        <v>8.315925772260435</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>16.12412191592965</v>
+        <v>31.98466193374092</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>16.16221521854064</v>
+        <v>38.05000596223023</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>16.08076080398069</v>
+        <v>20.98180199197858</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>16.17485884113405</v>
+        <v>43.60047902091553</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>16.20535723640688</v>
+        <v>49.33634523438045</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>16.20015795334738</v>
+        <v>44.35040669962107</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>16.2938164247213</v>
+        <v>54.05472943209188</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16.33049588541761</v>
+        <v>58.30608833424004</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.05189924722635</v>
+        <v>18.04969166063202</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>16.25525490610713</v>
+        <v>45.73481522200556</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.31823842903515</v>
+        <v>53.41712545052999</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>16.01412782391839</v>
+        <v>6.609708464276615</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16.17320390859861</v>
+        <v>28.15058189319638</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>16.22165337106222</v>
+        <v>34.45762935333209</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>15.99146867235895</v>
+        <v>-2.532121915559134</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>16.15692015843517</v>
+        <v>25.94250768019186</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>16.21113366784205</v>
+        <v>33.52725631093391</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>16.09501758837931</v>
+        <v>10.51854426206786</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>16.22857311868152</v>
+        <v>37.71422706413381</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>15.99612874320714</v>
+        <v>11.34676444873767</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>16.0870328506921</v>
+        <v>25.20687143473947</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>16.11730816326546</v>
+        <v>32.24852115858905</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>15.97968757034607</v>
+        <v>7.881773973985968</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>16.07318104821772</v>
+        <v>27.47705822188309</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>16.10720111500376</v>
+        <v>35.30323257507281</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>16.04188456902288</v>
+        <v>18.63288434068574</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>16.11730103431398</v>
+        <v>37.65475904031386</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>16.14455940530481</v>
+        <v>44.96391982035546</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>16.12497661903034</v>
+        <v>36.46060423483277</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>16.19914585854967</v>
+        <v>43.33452787956395</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>16.23217786338429</v>
+        <v>49.60159010847813</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>15.99802764768621</v>
+        <v>12.76092049233289</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>16.16178495283602</v>
+        <v>34.63714605141166</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.21794138899108</v>
+        <v>44.87050424324349</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>15.98125478382245</v>
+        <v>5.639862882394716</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>16.10980720646529</v>
+        <v>23.64132156318981</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>16.15282695466642</v>
+        <v>31.35083853340389</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>15.94598746621732</v>
+        <v>-5.40679687681137</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>16.07924899399963</v>
+        <v>18.68429483967098</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>16.12743091241468</v>
+        <v>27.85211397454669</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>16.03446830626524</v>
+        <v>5.415590476657192</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>16.14198110805065</v>
+        <v>28.74514964270527</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>16.14393459203871</v>
+        <v>26.17416887525484</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>16.1035783052169</v>
+        <v>17.65768153335132</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.22342137251396</v>
+        <v>27.11980854874711</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.27766605504506</v>
+        <v>34.11195280848953</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>15.91910705417986</v>
+        <v>-5.214676054944299</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.17381756822544</v>
+        <v>20.53045436707934</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>16.26319437442361</v>
+        <v>30.61627198508908</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>15.96909864395611</v>
+        <v>4.957222784172483</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>16.12842288848272</v>
+        <v>23.75254282847107</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>16.18260279256553</v>
+        <v>32.30297632556893</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>15.92559702730362</v>
+        <v>-10.87463495504455</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>16.09173760675047</v>
+        <v>14.06032739601199</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.15243076161142</v>
+        <v>24.15797858854483</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.04037494160449</v>
+        <v>3.688129469784474</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>16.17446070365487</v>
+        <v>27.57548013356245</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>16.22321369117212</v>
+        <v>36.99221473115342</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>16.2038879555767</v>
+        <v>30.73597774531144</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>16.34427901795349</v>
+        <v>42.55535407866546</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.40675278609108</v>
+        <v>51.54928525593803</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>16.01164757364525</v>
+        <v>2.089320052593971</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>16.29784725634979</v>
+        <v>33.5579648494489</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>16.39879112820823</v>
+        <v>45.88588548165509</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>16.2644383474098</v>
+        <v>44.73138414820598</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>16.25795883887082</v>
+        <v>39.85070502643173</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.39667267702234</v>
+        <v>53.12299970132987</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>16.45240392672068</v>
+        <v>58.59435162111544</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>16.0608708374135</v>
+        <v>13.31566932893442</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>16.35148130447351</v>
+        <v>47.47294337580014</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>16.44387481069112</v>
+        <v>55.6679267733524</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>16.07311770702705</v>
+        <v>15.8193327841367</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>16.2540636517611</v>
+        <v>39.58864545815163</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>16.31011744705451</v>
+        <v>46.29235307879341</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>16.05409622142493</v>
+        <v>5.41601651400082</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16.24337667898602</v>
+        <v>36.59655878910972</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>16.30611253472786</v>
+        <v>44.53442603743761</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>16.17317012120477</v>
+        <v>22.88843508266932</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>16.32601531676203</v>
+        <v>52.32097954895869</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>16.37638338830926</v>
+        <v>59.81411412401106</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>16.39935191012643</v>
+        <v>58.32287617680729</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>16.56045448654488</v>
+        <v>73.73720447951258</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>16.62482766648892</v>
+        <v>80.50210262093371</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>16.1939574834512</v>
+        <v>26.25195043241919</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>16.51901824646541</v>
+        <v>66.18631472975213</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16.6235419609811</v>
+        <v>75.41639740669612</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>16.27205920456658</v>
+        <v>44.81475159897519</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>16.26939334885815</v>
+        <v>39.34678342684919</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.40628425840061</v>
+        <v>53.49902998493241</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.46088139800128</v>
+        <v>59.37749313674887</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.07779219041247</v>
+        <v>12.40475446560984</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.36380491106073</v>
+        <v>48.26246196340576</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.45400654191748</v>
+        <v>56.8129333748294</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>16.08538115894602</v>
+        <v>14.54236725010698</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>16.26328556300523</v>
+        <v>39.35608919172641</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>16.31797207575695</v>
+        <v>46.06499551644106</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.07286811671002</v>
+        <v>6.021761762188827</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.2591165674009</v>
+        <v>38.43575793468155</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.32031093545043</v>
+        <v>46.40539500576133</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>16.18794116744873</v>
+        <v>23.63858184450773</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>16.33835529357286</v>
+        <v>54.1375780947862</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>16.38748780144437</v>
+        <v>61.65118801288638</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>16.41505558169536</v>
+        <v>59.84994683139881</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>16.57376862706851</v>
+        <v>76.18917578848163</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>16.63675177705126</v>
+        <v>83.12327795604553</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>16.21536880617762</v>
+        <v>27.43785865678263</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>16.53499376758175</v>
+        <v>69.13036329124471</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>16.63695754517</v>
+        <v>78.38803716211784</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16.18065258618836</v>
+        <v>37.26799794240551</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.15635184129045</v>
+        <v>27.85331242093506</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>16.2656003364123</v>
+        <v>39.28524137126186</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>16.31438530043271</v>
+        <v>47.04652628565151</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.9921638503744</v>
+        <v>3.288837974663934</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>16.22330417077145</v>
+        <v>32.98017460496816</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>16.30332513648936</v>
+        <v>43.83891378543814</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16.02485120033487</v>
+        <v>11.93931386356172</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>16.16920781623233</v>
+        <v>33.24707704932919</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>16.21767629404649</v>
+        <v>42.07223538337531</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>15.99615289409765</v>
+        <v>0.4622853711513919</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.14687248913085</v>
+        <v>28.48550750066991</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>16.20115340472485</v>
+        <v>38.94691331745408</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>16.09543435254407</v>
+        <v>15.94514065358881</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>16.21709682204609</v>
+        <v>42.59417219900827</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>16.26070193779574</v>
+        <v>52.33811314913951</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>16.25740822518434</v>
+        <v>45.61764931673201</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>16.3850360746643</v>
+        <v>59.55020784288413</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>16.44113367409996</v>
+        <v>69.08421054879304</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.08628325472522</v>
+        <v>15.06171735681244</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>16.34562742199115</v>
+        <v>50.74561732371996</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.43591612299559</v>
+        <v>63.49988714853938</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.94875566204218</v>
+        <v>6.42134333170964</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.03171659260238</v>
+        <v>16.75722397123804</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16.05910737862634</v>
+        <v>22.46647954741596</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>15.92239692125798</v>
+        <v>-1.582978732739381</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>16.00752611170267</v>
+        <v>13.2993135986185</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.03828186299296</v>
+        <v>19.58115570280037</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15.98396652328909</v>
+        <v>7.595795844944599</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>16.05260376522579</v>
+        <v>22.29312586051252</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>16.07723837562499</v>
+        <v>28.22439262207299</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>16.0449969198606</v>
+        <v>22.79999449754606</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.11198701116887</v>
+        <v>26.6021031191445</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>16.14133142632156</v>
+        <v>31.3375746132025</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>15.92542689888633</v>
+        <v>2.547779692080079</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>16.07478359705734</v>
+        <v>18.97368609552105</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>16.12572432852266</v>
+        <v>26.98429133281265</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>15.91590597026324</v>
+        <v>-0.3799090334877349</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>16.03349879391951</v>
+        <v>13.35411848191095</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>16.07257426593246</v>
+        <v>19.64736589824354</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>15.86849650060935</v>
+        <v>-13.69720620006376</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>15.99016646210948</v>
+        <v>4.846783180071592</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.03390147143169</v>
+        <v>12.30062735071609</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>15.95593415858223</v>
+        <v>-4.853081019818585</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>16.05405419578207</v>
+        <v>13.36882211211678</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>15.98580867928931</v>
+        <v>9.433623623114954</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>16.08092815039571</v>
+        <v>23.89414629462608</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>16.10902578527116</v>
+        <v>28.38850610399217</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>15.97228080213362</v>
+        <v>4.401617145549405</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.07034946839294</v>
+        <v>24.41264646451749</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>16.10186723225559</v>
+        <v>29.32897571842405</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>16.03724320106348</v>
+        <v>15.70955807574888</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>16.11636880007512</v>
+        <v>34.98459145490391</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>16.14159348345967</v>
+        <v>39.70342035203607</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>16.12804476619654</v>
+        <v>36.81742812411046</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>16.20637300271552</v>
+        <v>44.0320518778647</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>16.23620465813405</v>
+        <v>47.17403128400211</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>16.00017597101044</v>
+        <v>12.76770127094735</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>16.17140321518567</v>
+        <v>36.32639812646552</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>16.22370408833461</v>
+        <v>42.31359968112486</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>15.97424153473596</v>
+        <v>5.320008890701367</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>16.1084931389795</v>
+        <v>23.57488318546456</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>16.14879019917478</v>
+        <v>28.82885826370802</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>15.94372125812139</v>
+        <v>-4.238210460477752</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>16.0831731781868</v>
+        <v>19.92825560852238</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>16.12822752061627</v>
+        <v>26.2405332471895</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>16.0355192917903</v>
+        <v>7.086850924227029</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>16.14805176118011</v>
+        <v>30.32730052299919</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.98988675847558</v>
+        <v>6.452142476042841</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.08359002813347</v>
+        <v>21.7378932252834</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.11102662429708</v>
+        <v>26.33841403540267</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>15.97987086599625</v>
+        <v>2.735704889680068</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.07659002112448</v>
+        <v>23.7086705081999</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>16.10735941480706</v>
+        <v>28.78519916079535</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>16.04296837508012</v>
+        <v>14.10609787455046</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.12101656677</v>
+        <v>34.21346152424022</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>16.1456437081236</v>
+        <v>39.07051621911971</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.13430172736395</v>
+        <v>35.75408356110669</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>16.21176038144368</v>
+        <v>43.74194529544671</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>16.24101278524039</v>
+        <v>47.14502192738854</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.00996818355426</v>
+        <v>11.18257111273891</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>16.17865646135618</v>
+        <v>36.16739676907468</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>16.22972136855077</v>
+        <v>42.3394575580576</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>15.98126941348978</v>
+        <v>2.547550698387816</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>16.11339804801602</v>
+        <v>21.69467876723663</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>16.15274810913341</v>
+        <v>27.13235705451761</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>15.95591322166234</v>
+        <v>-5.652004271256452</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.09329247696729</v>
+        <v>19.56184936301597</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>16.13727932591592</v>
+        <v>26.12676850807406</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>16.04495279744945</v>
+        <v>5.767177919519362</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>16.15582755874374</v>
+        <v>29.91257650343996</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.9815004350199</v>
+        <v>7.821187191796943</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>16.05689775187096</v>
+        <v>20.01691252305982</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.0814282961244</v>
+        <v>26.01529827308879</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>15.96351486798446</v>
+        <v>3.043084593911567</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.04102244767506</v>
+        <v>20.21657729872521</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>16.068557748021</v>
+        <v>26.875510140253</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.01700289910585</v>
+        <v>12.7094334430555</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.07950992726805</v>
+        <v>29.46144480299268</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>16.10156691019675</v>
+        <v>35.73385256991827</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.07964921127975</v>
+        <v>29.75865779517668</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>16.14092392490324</v>
+        <v>35.13561840550321</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>16.16734527385459</v>
+        <v>40.34741356310192</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>15.97320465505133</v>
+        <v>7.843530240265338</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.10895436993853</v>
+        <v>27.41194688712157</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>16.15456817225304</v>
+        <v>35.86883247245233</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>15.96159754061177</v>
+        <v>2.239059584914809</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>16.06831458088465</v>
+        <v>18.08720360866692</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>16.10331025959895</v>
+        <v>24.79971057377329</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.92685821222091</v>
+        <v>-7.744970825290004</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>16.03744214404063</v>
+        <v>13.39002478654673</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>16.07659967272097</v>
+        <v>21.39352459979099</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>16.00278762764126</v>
+        <v>1.659761246892947</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.09198669602497</v>
+        <v>22.20732042892517</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>16.08914717026273</v>
+        <v>20.3663344243243</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>16.04736664144713</v>
+        <v>13.95272385962306</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.1465101760522</v>
+        <v>21.49072983276141</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.19016903784906</v>
+        <v>27.4241282807062</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>15.89260083344783</v>
+        <v>-7.530259334640334</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.10390639861415</v>
+        <v>15.30612632474175</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>16.17678102015538</v>
+        <v>23.86985870095624</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.94947312188987</v>
+        <v>1.779714715917478</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>16.08188668666032</v>
+        <v>18.57444515842822</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.12617559256913</v>
+        <v>26.18725544169017</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>15.90698374393492</v>
+        <v>-13.15873087795514</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>16.04502963141386</v>
+        <v>8.984187026900532</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16.09459963858141</v>
+        <v>17.99361913968968</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>16.00516353552115</v>
+        <v>-0.3978206573301009</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>16.11655550116189</v>
+        <v>20.86511187381899</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>16.1563684713273</v>
+        <v>29.3014854800246</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>16.1321124906102</v>
+        <v>24.63553242822108</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>16.2485609161404</v>
+        <v>34.60848604078394</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>16.29919716131658</v>
+        <v>42.3924046969273</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>15.97072991993192</v>
+        <v>-1.941604134872936</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>16.20849486792396</v>
+        <v>26.29950554518326</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.29119314886535</v>
+        <v>37.08411643767056</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>16.18418087276565</v>
+        <v>36.30564071806363</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>16.16943795806838</v>
+        <v>32.69447884265985</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>16.28430419247823</v>
+        <v>43.6907935510992</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>16.32906383469211</v>
+        <v>48.24365550933727</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>16.00406098692047</v>
+        <v>7.508131152812387</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>16.24530552354639</v>
+        <v>38.12538710544951</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>16.32053014628447</v>
+        <v>44.9418825154641</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>16.03149638332885</v>
+        <v>11.50372870665549</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>16.18195609941966</v>
+        <v>32.92608595598185</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>16.22771765256922</v>
+        <v>38.77845333424682</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>16.00877264224868</v>
+        <v>1.536213534854586</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>16.16613237714371</v>
+        <v>29.47408898736611</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>16.21730205069047</v>
+        <v>36.42302895827059</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>16.11088697894404</v>
+        <v>16.9348132487921</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>16.23793554086028</v>
+        <v>43.34298778899456</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>16.27901102006058</v>
+        <v>49.94491835898663</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>16.28888022264884</v>
+        <v>49.19158474048284</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>16.42260212487794</v>
+        <v>62.45008976658441</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>16.47469070413192</v>
+        <v>68.13916249057415</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>16.11642732645755</v>
+        <v>19.12494232125088</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>16.38662014841915</v>
+        <v>55.22715748914134</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.47214863726442</v>
+        <v>63.06996288069847</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.1911025361191</v>
+        <v>36.10929402588176</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.17964065914331</v>
+        <v>31.92432228029246</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>16.29301248073856</v>
+        <v>43.70023160826752</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.33687550729715</v>
+        <v>48.62337996094963</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.01886843232779</v>
+        <v>6.350656722965642</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.25631771979283</v>
+        <v>38.49208214493393</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>16.32976611432334</v>
+        <v>45.62615634740565</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>16.0421337131021</v>
+        <v>10.30089490362876</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.1900737712053</v>
+        <v>32.66514121063302</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>16.23472296235125</v>
+        <v>38.51158321453014</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>16.02498208569731</v>
+        <v>1.988538701373553</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>16.17983205272115</v>
+        <v>31.04051374379639</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>16.22974874857446</v>
+        <v>38.00443195433323</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>16.12372420988633</v>
+        <v>17.51584157014036</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>16.24876116471238</v>
+        <v>44.88648759707093</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>16.28883254911487</v>
+        <v>51.49493585774428</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>16.30264601991541</v>
+        <v>50.43718457304354</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>16.43439599325792</v>
+        <v>64.51970916243663</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>16.48537105693585</v>
+        <v>70.35387103164061</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.13498668302946</v>
+        <v>20.04021934559327</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>16.40067950334684</v>
+        <v>57.72392065769774</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>16.48411944047174</v>
+        <v>65.57663296386607</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16.12340923217489</v>
+        <v>29.69735166054981</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16.0957501404337</v>
+        <v>22.4523474537131</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>16.18615247022819</v>
+        <v>31.7370419681589</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>16.22543230732207</v>
+        <v>38.34781442332805</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>15.95800476444494</v>
+        <v>-0.604905180004522</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>16.14978837693284</v>
+        <v>25.80124911350797</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>16.21504326455974</v>
+        <v>35.02163513415169</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.99897077744864</v>
+        <v>7.733298795537836</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>16.11895932804822</v>
+        <v>26.81135157283336</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>16.15858332163963</v>
+        <v>34.64036247307607</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>15.96947234109581</v>
+        <v>-3.343885582154947</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.09472167472794</v>
+        <v>21.60209010428516</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>16.13905895580092</v>
+        <v>30.90100156199081</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>16.0544987482258</v>
+        <v>10.22588926228801</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>16.15558401419185</v>
+        <v>33.99509602369881</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>16.19119663694843</v>
+        <v>42.69380006319016</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>16.18105584319175</v>
+        <v>37.60697343813278</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>16.28693639698739</v>
+        <v>49.47316159496646</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>16.33241657143139</v>
+        <v>57.71119605631938</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>16.03740333932588</v>
+        <v>9.257840056434031</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.25288527421709</v>
+        <v>41.32762071421723</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>16.32686058649969</v>
+        <v>52.44309489134577</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>15.99793207984666</v>
+        <v>8.51946857867296</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.06543617271699</v>
+        <v>21.73670948557805</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>16.08787817746226</v>
+        <v>28.01345754323192</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>15.98061933386963</v>
+        <v>0.8953900497506204</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.04998190461341</v>
+        <v>19.68227909773568</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.07518982601035</v>
+        <v>26.59223841780886</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>16.02823870188926</v>
+        <v>11.83598815847369</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.08417357782336</v>
+        <v>30.18479062801185</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>16.10436865347106</v>
+        <v>36.70805918363718</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.08560707796267</v>
+        <v>29.37516759453162</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.1405912937224</v>
+        <v>35.7536254345811</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>16.16486346458792</v>
+        <v>40.81226820041992</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>15.98976391941488</v>
+        <v>5.607923758753287</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>16.11133721030319</v>
+        <v>26.60586589786143</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.15302017662706</v>
+        <v>35.49481958487184</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>15.98534241954327</v>
+        <v>6.745458766117425</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.08092664116949</v>
+        <v>24.17101614214734</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>16.11285055230466</v>
+        <v>31.05360210990316</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>15.95266779501295</v>
+        <v>-6.47976176107526</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.05167934219427</v>
+        <v>16.90221994884469</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.08742270219537</v>
+        <v>25.06934333075704</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.02019165843929</v>
+        <v>4.635451990085119</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.10005158559534</v>
+        <v>27.37612415759722</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.03126092348351</v>
+        <v>12.39681547760468</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>16.10858249891441</v>
+        <v>30.31629094527092</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>16.13163129112098</v>
+        <v>35.15944085574937</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>16.02465484313555</v>
+        <v>8.298539626509379</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>16.10446948863721</v>
+        <v>32.92261716981743</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>16.13033399149515</v>
+        <v>38.22694999374376</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>16.07476568976345</v>
+        <v>21.65421560108904</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.13917304974871</v>
+        <v>45.21581766958461</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.15987822695601</v>
+        <v>50.31191390538591</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>16.15698991638506</v>
+        <v>46.22639547994523</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>16.22115194205974</v>
+        <v>56.50219877379133</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>16.24587397642549</v>
+        <v>59.67706060406454</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>16.05448913395713</v>
+        <v>18.29878701022236</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>16.19372570363235</v>
+        <v>47.40332218873984</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>16.23657023880284</v>
+        <v>53.92022671076847</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.03719566529062</v>
+        <v>13.77419736052642</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>16.14622831505766</v>
+        <v>36.37208757165259</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>16.17918097239932</v>
+        <v>42.01065323628518</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>16.0186363165667</v>
+        <v>4.99361646833632</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.13200808321948</v>
+        <v>34.79697641952478</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>16.16886533467163</v>
+        <v>41.60115053754697</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>16.08933497853083</v>
+        <v>18.92821783144029</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.18083445233912</v>
+        <v>47.40374094198418</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>16.03395044934967</v>
+        <v>9.089741441894054</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.11010664620252</v>
+        <v>27.95189075569546</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>16.13261051924026</v>
+        <v>32.90789883087012</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.03006955199424</v>
+        <v>6.556048841456352</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.10876865175072</v>
+        <v>32.27458528046757</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>16.13401612726412</v>
+        <v>37.75295560750074</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>16.07871961154218</v>
+        <v>19.97972550514887</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>16.14223578356338</v>
+        <v>44.4894660845865</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>16.16244812593426</v>
+        <v>49.73513844521563</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>16.16118245679703</v>
+        <v>45.21449445768043</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>16.2246087577376</v>
+        <v>56.37488888407631</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.24884323034785</v>
+        <v>59.83383348864138</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>16.0615138031576</v>
+        <v>16.72059988163306</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>16.19865946071023</v>
+        <v>47.45059212470137</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>16.24048706533184</v>
+        <v>54.16416151011631</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>16.04191830926505</v>
+        <v>10.67342136990652</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.14920937950262</v>
+        <v>34.28772654273022</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.18138426573096</v>
+        <v>40.12635147545399</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.02737018978496</v>
+        <v>3.503567172370527</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>16.13903589572721</v>
+        <v>34.49575037191825</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>16.17501618854231</v>
+        <v>41.57789736804976</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>16.09591149009914</v>
+        <v>17.53597675938192</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>16.18604577566137</v>
+        <v>47.03968530946267</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>16.02143880697376</v>
+        <v>10.54490307364008</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.08276954365069</v>
+        <v>25.91836335223124</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.1028650297837</v>
+        <v>32.51418158120235</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.01045248153402</v>
+        <v>6.730904850439469</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.07358195814415</v>
+        <v>28.17031194416381</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>16.0961470186395</v>
+        <v>35.50012874558942</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.05175864996223</v>
+        <v>18.24931370017116</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>16.10267878747998</v>
+        <v>38.97733539528453</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>16.12075805383506</v>
+        <v>45.87952720742423</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>16.10959083023731</v>
+        <v>37.95337785485711</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>16.1598519046742</v>
+        <v>46.18360301337457</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>16.1816980781935</v>
+        <v>51.76372294060177</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>16.02426564299198</v>
+        <v>12.29061478798052</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>16.13472803591706</v>
+        <v>36.92203967948124</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>16.17204700174142</v>
+        <v>46.30676059972593</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>16.0178400404814</v>
+        <v>10.33786531900506</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>16.10456066956929</v>
+        <v>30.21874895114222</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>16.13314764113689</v>
+        <v>37.56399576621654</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>15.99478011599547</v>
+        <v>1.065326428312829</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.08474201530944</v>
+        <v>27.45325573411069</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>16.11674012545376</v>
+        <v>36.2311572574479</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.05332758346494</v>
+        <v>12.85215765533077</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>16.12590353162939</v>
+        <v>38.29129030936299</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>16.12873624267251</v>
+        <v>35.04415672692447</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>16.10572280501561</v>
+        <v>27.0650814441685</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>16.18689081490853</v>
+        <v>38.13717574823963</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.22282287979743</v>
+        <v>44.58673253605849</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.98167612869735</v>
+        <v>1.689928274641568</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>16.15349431647994</v>
+        <v>30.62477173839252</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>16.21295814005374</v>
+        <v>40.02846397847411</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>16.00889548397287</v>
+        <v>5.629360032265456</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>16.11634375433868</v>
+        <v>26.205499269525</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.15244957055676</v>
+        <v>34.67730895312751</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.98006787274308</v>
+        <v>-8.785198745700381</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>16.092187611405</v>
+        <v>18.26285334617302</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.13261168475658</v>
+        <v>28.32434459542236</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.05633762128192</v>
+        <v>6.41298187481444</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>16.1468211379682</v>
+        <v>32.24173447501158</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>16.17929227613762</v>
+        <v>41.66007855613037</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>16.16966768213608</v>
+        <v>35.82500451115472</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>16.26468460470953</v>
+        <v>49.29989709727955</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>16.3062121571282</v>
+        <v>58.07762029943514</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.04039898881177</v>
+        <v>4.979990801291033</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>16.23339172794344</v>
+        <v>39.56174249979186</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>16.30073526791417</v>
+        <v>51.64723997611544</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>16.21039535046381</v>
+        <v>53.85314531420789</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>16.21030174773913</v>
+        <v>49.40599887525408</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>16.30419205287822</v>
+        <v>64.44745271555959</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.34107995656958</v>
+        <v>69.23444261079655</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>16.07774198657705</v>
+        <v>19.97168638695049</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>16.27373458731727</v>
+        <v>57.78637730315597</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>16.33516969010381</v>
+        <v>65.11338124232338</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>16.07936688551003</v>
+        <v>16.52351080857981</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>16.20137476903416</v>
+        <v>42.39197948565358</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>16.23871110718921</v>
+        <v>48.84597444214565</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>16.06694281487127</v>
+        <v>7.908581043906175</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>16.19464962178328</v>
+        <v>41.5730293732303</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>16.23641297001003</v>
+        <v>49.2817403196706</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>16.14606312713826</v>
+        <v>26.07164984871132</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>16.24918261185067</v>
+        <v>57.77878988095495</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>16.28271200549971</v>
+        <v>65.10034835307661</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>16.30160900908199</v>
+        <v>63.98785373463404</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>16.41059023169759</v>
+        <v>81.24379806642523</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>16.45335516017177</v>
+        <v>87.5887621167445</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>16.16346549322352</v>
+        <v>29.34433441854735</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>16.38262549817635</v>
+        <v>72.90654442284389</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>16.45232635566186</v>
+        <v>81.62896931285796</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>16.21490482302923</v>
+        <v>53.72868184821198</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>16.21721156190126</v>
+        <v>48.6679559085054</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>16.30985289344439</v>
+        <v>64.59766673555987</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>16.34599304544622</v>
+        <v>69.78685804211591</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.08834032573161</v>
+        <v>18.82116870894612</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>16.28121722006835</v>
+        <v>58.36868843484996</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.34119607638464</v>
+        <v>66.04058821418587</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.08707323546738</v>
+        <v>15.14673816522498</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>16.2070219318641</v>
+        <v>42.08759609043825</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>16.24344791024444</v>
+        <v>48.53292275572993</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>16.07898905159313</v>
+        <v>8.449109260155172</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>16.20463984829648</v>
+        <v>43.3783328334183</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>16.2453775173384</v>
+        <v>51.10291923575906</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>16.15545663607328</v>
+        <v>26.75097358406528</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>16.25692759837549</v>
+        <v>59.55173465602818</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>16.28963489560329</v>
+        <v>66.8791389392544</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>16.3114804625762</v>
+        <v>65.44493305649698</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>16.41883050047146</v>
+        <v>83.63852119357881</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>16.46067375352575</v>
+        <v>90.13704121682568</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>16.17717416161463</v>
+        <v>30.45336981048377</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>16.39265438478928</v>
+        <v>75.81383468309261</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>16.46064859450166</v>
+        <v>84.54213094421864</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>16.15158458360872</v>
+        <v>46.50552687970741</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>16.13886470032075</v>
+        <v>37.61028126826286</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>16.21283881258441</v>
+        <v>50.73946287180697</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>16.24515727356024</v>
+        <v>57.93145626361651</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>16.02845603993359</v>
+        <v>10.43321069305711</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>16.18435720127948</v>
+        <v>43.50618841904955</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>16.23759701258767</v>
+        <v>53.63569258659562</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.04479585181527</v>
+        <v>12.76204058340471</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>16.14214028191588</v>
+        <v>35.97445618364147</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>16.17443991882024</v>
+        <v>44.69134179990019</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>16.02584863832179</v>
+        <v>2.874967062172663</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>16.12754943533566</v>
+        <v>33.1562715472427</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>16.16370276686041</v>
+        <v>43.54899265492855</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>16.0918094894003</v>
+        <v>19.01377301907699</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>16.17389973433525</v>
+        <v>47.73435917729712</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>16.20294226800933</v>
+        <v>57.45166785938427</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>16.20367362919254</v>
+        <v>51.14691284982293</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>16.2900347143427</v>
+        <v>66.83173464212747</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>16.32732560912941</v>
+        <v>76.11785157873877</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>16.08860258585524</v>
+        <v>18.28749434410425</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.26346859188096</v>
+        <v>57.28625389938662</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>16.32370341771063</v>
+        <v>69.74820701417178</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>15.99468842859053</v>
+        <v>12.50611632779912</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.06692819792507</v>
+        <v>23.76751590099487</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.09218193857064</v>
+        <v>30.44252052775714</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.97624771507417</v>
+        <v>5.832795482016042</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>16.05034021979146</v>
+        <v>22.4613346133488</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>16.07873546244697</v>
+        <v>29.88998334765391</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.02723886853211</v>
+        <v>14.93289094257464</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>16.0869843221065</v>
+        <v>31.35470396556603</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.10973839755</v>
+        <v>38.30487653733185</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>16.08924707002153</v>
+        <v>30.21386097177836</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>16.14750735696214</v>
+        <v>34.81357244574212</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>16.17522899653185</v>
+        <v>40.76706583378158</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>15.9860450274654</v>
+        <v>8.549686141737874</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>16.11612412782405</v>
+        <v>26.15653536234795</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>16.16293425473472</v>
+        <v>35.98730893827496</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>15.98043121260235</v>
+        <v>8.209793357248067</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>16.08281540592439</v>
+        <v>23.45406212094193</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>16.11866609907178</v>
+        <v>31.04551929607167</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>15.94514435944204</v>
+        <v>-5.629344275827346</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>16.05103337938323</v>
+        <v>15.33249237202635</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>16.09121332928126</v>
+        <v>24.36451525927623</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.01755911651005</v>
+        <v>3.434586864253298</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>16.10296082902978</v>
+        <v>24.02564454328517</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>16.0332934081578</v>
+        <v>17.50704408985969</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>16.11610497811899</v>
+        <v>33.37354057216315</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>16.1421058487789</v>
+        <v>38.69526094827519</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>16.02676185086094</v>
+        <v>14.55804797309418</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>16.11210170109239</v>
+        <v>36.90885547729501</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>16.14131109148568</v>
+        <v>42.83338763831951</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>16.08024937048284</v>
+        <v>26.11205195147</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>16.14911189361858</v>
+        <v>47.64652400461706</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>16.17250185743501</v>
+        <v>53.25820808079338</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.16984105451363</v>
+        <v>48.90006060480512</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>16.23795326330495</v>
+        <v>57.35335493343333</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>16.26628752041133</v>
+        <v>61.52955412903548</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>16.05949339977855</v>
+        <v>23.39552013994626</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>16.20859097601283</v>
+        <v>48.93073713106814</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>16.2568210043721</v>
+        <v>56.52494396128192</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>16.03983444917882</v>
+        <v>16.26598012843319</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>16.15670517505906</v>
+        <v>36.59484363943466</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>16.19379051482586</v>
+        <v>43.05592949890911</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>16.02022748584974</v>
+        <v>7.027052253316514</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.14157540625703</v>
+        <v>34.30548375610707</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>16.18309943857777</v>
+        <v>42.1199596448983</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>16.09581540315653</v>
+        <v>18.94248287455779</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>16.19374705930979</v>
+        <v>45.17793270885964</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>16.03676560764497</v>
+        <v>14.47650056737619</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>16.1183467247342</v>
+        <v>31.34614597864842</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>16.14373313157932</v>
+        <v>36.79672641650369</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>16.0332414504637</v>
+        <v>13.2170614845084</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>16.11741034721266</v>
+        <v>36.72965503697363</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>16.14592319020231</v>
+        <v>42.85051374979263</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>16.08512799135616</v>
+        <v>24.89192837391414</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>16.15305548207673</v>
+        <v>47.4354313719484</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>16.17588892810329</v>
+        <v>53.21614643719844</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>16.17513227129777</v>
+        <v>48.41357759013283</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>16.24249360127352</v>
+        <v>57.82307902752612</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>16.27026259350208</v>
+        <v>62.30591289931964</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>16.06783206088667</v>
+        <v>22.32985252649963</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>16.21472303502944</v>
+        <v>49.58906834899041</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>16.2618092602936</v>
+        <v>57.40629706638094</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>16.04571243836793</v>
+        <v>13.51175950849722</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>16.16073831387589</v>
+        <v>34.9194661497763</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>16.19694852050701</v>
+        <v>41.60191680960369</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>16.03053208603916</v>
+        <v>6.008522767650131</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>16.15008075757768</v>
+        <v>34.54593247512766</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>16.19061696305878</v>
+        <v>42.66807934925213</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.10375718465608</v>
+        <v>18.07942458400025</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>16.20024958998647</v>
+        <v>45.40628228094295</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>16.02085525110985</v>
+        <v>15.20471820577918</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>16.08651014276992</v>
+        <v>28.61723234435339</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>16.10912418101506</v>
+        <v>35.66328316781393</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>16.0093199042313</v>
+        <v>12.56640530174312</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>16.07678111566289</v>
+        <v>31.8406695845513</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>16.10220020759756</v>
+        <v>39.75755623295241</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>16.05348711162376</v>
+        <v>22.26034109023226</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>16.1078981117508</v>
+        <v>41.05654672957755</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>16.12826898678217</v>
+        <v>48.44442350215003</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>16.11622503930669</v>
+        <v>39.73771659449365</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>16.16951874163656</v>
+        <v>46.20567491234558</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>16.19446315328389</v>
+        <v>52.75644353000393</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.02434625421979</v>
+        <v>16.22708655477207</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>16.14257664294147</v>
+        <v>37.45076340163391</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>16.18448789795004</v>
+        <v>47.87242072978862</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>16.01667559860583</v>
+        <v>12.58100347741438</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>16.10959231506028</v>
+        <v>30.27310685791025</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>16.14169655488146</v>
+        <v>38.39728583493203</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>15.99190624058924</v>
+        <v>2.889716612717667</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>16.08814991562449</v>
+        <v>26.84853535347127</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>16.12412073102852</v>
+        <v>36.58217596498834</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.05461085130803</v>
+        <v>12.64363767169797</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.13224999152364</v>
+        <v>35.92643627944358</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.13521232914145</v>
+        <v>32.42669556690224</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>16.10974582602998</v>
+        <v>23.14585010160684</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>16.19598144291218</v>
+        <v>32.33066333818252</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>16.23682816076703</v>
+        <v>40.12938839554966</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>15.97616310004159</v>
+        <v>-0.01251534731158799</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.16016718397054</v>
+        <v>25.25898642197645</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>16.22681142977522</v>
+        <v>36.05567627072963</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.00617569780222</v>
+        <v>8.731584064377302</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.12134867067434</v>
+        <v>26.89001034680483</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.16170325195969</v>
+        <v>36.03645213911963</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.97530208824473</v>
+        <v>-5.682490958283527</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>16.09531462506341</v>
+        <v>18.69578664955749</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.14053724076702</v>
+        <v>29.58182649890558</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>16.0570720636118</v>
+        <v>7.616604953954401</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>16.1539202399089</v>
+        <v>31.07870126884969</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>16.19025085564497</v>
+        <v>41.20413965543257</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>16.17956971415727</v>
+        <v>34.17754789719557</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>16.28067840235546</v>
+        <v>45.39505617398159</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.32756212495057</v>
+        <v>55.65030648542944</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>16.04036951198054</v>
+        <v>5.038392797655563</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>16.24718551372028</v>
+        <v>35.66092953774293</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>16.32231452418367</v>
+        <v>49.12833436952466</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>16.2270591108756</v>
+        <v>52.4867456709332</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>16.22723192831595</v>
+        <v>47.17227718049594</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.327134217712</v>
+        <v>60.31667775866136</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.36918426505565</v>
+        <v>66.58044023967858</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>16.08451214917615</v>
+        <v>20.32283688933759</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>16.29455377489515</v>
+        <v>54.31318038669178</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>16.36354962307469</v>
+        <v>63.22661873612336</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>16.08577716331094</v>
+        <v>20.47568309623865</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>16.21663573534956</v>
+        <v>43.80597165756729</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>16.25844115277401</v>
+        <v>51.08114961429695</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.07308177468017</v>
+        <v>12.03537877410236</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>16.20987648581209</v>
+        <v>42.88766193689126</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>16.25668489111077</v>
+        <v>51.60723820035224</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>16.15766346195464</v>
+        <v>28.33124864848383</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>16.26811633892445</v>
+        <v>57.54799883568058</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>16.30570266290374</v>
+        <v>65.73992165807104</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>16.3267554530864</v>
+        <v>63.82999127977799</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>16.44286655122102</v>
+        <v>78.78137749030401</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>16.49125529685946</v>
+        <v>86.76565447704817</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>16.17802941415317</v>
+        <v>31.20450509076492</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>16.41303227351721</v>
+        <v>70.60098062470514</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.49092667049173</v>
+        <v>80.95778072820524</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.2327708627913</v>
+        <v>52.98041676792086</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>16.2357441304676</v>
+        <v>47.02626252099297</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>16.33435331444054</v>
+        <v>61.13500785778895</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>16.37554326803326</v>
+        <v>67.8250957919375</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.09699371328218</v>
+        <v>19.75674358097758</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>16.3037365894981</v>
+        <v>55.5810316004902</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>16.37109796078684</v>
+        <v>64.87500882307683</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>16.09489507987506</v>
+        <v>19.33369968391296</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>16.22356679161117</v>
+        <v>43.79266349848267</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>16.26435432127033</v>
+        <v>51.08584716983248</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.08697597131713</v>
+        <v>12.89808759863452</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.22159478692522</v>
+        <v>45.07749582456153</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>16.26725520362179</v>
+        <v>53.84911769290382</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>16.16866104422861</v>
+        <v>29.38898067684612</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>16.27736972429742</v>
+        <v>59.75567739373246</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>16.31403577410643</v>
+        <v>67.98477330205623</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>16.33847733379351</v>
+        <v>65.72401914864923</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>16.45288529992159</v>
+        <v>81.68121744936694</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>16.50022637187158</v>
+        <v>89.85058360142749</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>16.19387983880327</v>
+        <v>32.74604272572092</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>16.42497695069265</v>
+        <v>74.03056598132187</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>16.50096732876909</v>
+        <v>84.43736026282203</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>16.16112519872642</v>
+        <v>44.95190955463613</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.14713398969771</v>
+        <v>34.68322182297931</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>16.22577129492432</v>
+        <v>45.94558178224604</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>16.26250251165978</v>
+        <v>54.5804296466862</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>16.02823462161387</v>
+        <v>9.774274335616262</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>16.19524187836653</v>
+        <v>39.16530560430724</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>16.25491284203148</v>
+        <v>50.81161875685017</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.04610771222886</v>
+        <v>16.56065348835401</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>16.15047667627267</v>
+        <v>37.32966928605263</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>16.18657951893539</v>
+        <v>46.80088165583027</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>16.0260139512018</v>
+        <v>6.831139753105031</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.13490624255093</v>
+        <v>34.41253262884986</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>16.17535370513756</v>
+        <v>45.73238892183826</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>16.09664192181176</v>
+        <v>21.09494592240368</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>16.18453268089875</v>
+        <v>47.42369795274676</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>16.21702924121801</v>
+        <v>57.93690767452102</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>16.21786578440817</v>
+        <v>50.36486719449163</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>16.30980664952793</v>
+        <v>63.7862923374791</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>16.35190281742723</v>
+        <v>74.66395272961566</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.09395002375096</v>
+        <v>19.24825456245281</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>16.28138939882303</v>
+        <v>54.24148827830734</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>16.34859265285893</v>
+        <v>68.22612279247585</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.061801439350528</v>
+        <v>9.061801439349956</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.46927485903669</v>
+        <v>22.46927485903642</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.83267861930259</v>
+        <v>28.83267861930242</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.001260060986153</v>
+        <v>4.001260060985972</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.85120363678555</v>
+        <v>22.85120363678539</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.80738456438409</v>
+        <v>29.8073845643839</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.93592672302304</v>
+        <v>14.93592672302318</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.2939185271639</v>
+        <v>33.29391852716358</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39.83841028428276</v>
+        <v>39.83841028428257</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.97484374654866</v>
+        <v>30.97484374654851</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.53964308167423</v>
+        <v>37.53964308167429</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42.44061597370451</v>
+        <v>42.44061597370434</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.497519586964115</v>
+        <v>6.497519586963868</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.63214771408419</v>
+        <v>27.63214771408459</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.50551418988975</v>
+        <v>36.50551418988989</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.21128465923538</v>
+        <v>8.211284659235261</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.86140699413803</v>
+        <v>25.86140699413796</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.35091266237049</v>
+        <v>32.35091266237026</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.692783882520907</v>
+        <v>-2.692783882520978</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20.7705398236115</v>
+        <v>20.77053982361084</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.44050802136293</v>
+        <v>28.44050802136255</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.580664227370566</v>
+        <v>8.580664227370779</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.3400828065736</v>
+        <v>31.34008280657351</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12.21205890569362</v>
+        <v>12.21205890569345</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.11416382896724</v>
+        <v>30.11416382896718</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.0808210135372</v>
+        <v>35.08082101353694</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.00023313768552</v>
+        <v>10.00023313768539</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.45453582735092</v>
+        <v>34.45453582735071</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39.83010840753269</v>
+        <v>39.8301084075328</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>23.26415332841847</v>
+        <v>23.26415332841823</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>46.62132285928559</v>
+        <v>46.62132285928534</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>51.76454721971603</v>
+        <v>51.76454721971555</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.77252577402253</v>
+        <v>45.77252577402236</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>56.07070067462013</v>
+        <v>56.07070067461984</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>59.14457784776724</v>
+        <v>59.14457784776707</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.16037479945131</v>
+        <v>17.16037479945133</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>46.08584562183918</v>
+        <v>46.08584562183886</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.62456358215495</v>
+        <v>52.62456358215467</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14.17468088411646</v>
+        <v>14.17468088411666</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.74700420711251</v>
+        <v>36.74700420711247</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.02361385988748</v>
+        <v>42.0236138598874</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.047586325822452</v>
+        <v>7.047586325822078</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.65138934417109</v>
+        <v>36.65138934417046</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.97298053770712</v>
+        <v>42.97298053770649</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>21.02038084129697</v>
+        <v>21.02038084129711</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>49.25735203699215</v>
+        <v>49.25735203699188</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.818695034362378</v>
+        <v>8.818695034362229</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.58996226693274</v>
+        <v>27.58996226693258</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>32.65380065109517</v>
+        <v>32.65380065109527</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7.970733409797498</v>
+        <v>7.970733409797543</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.43929726037466</v>
+        <v>33.43929726037448</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38.96525077641223</v>
+        <v>38.96525077641211</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>21.27905390193124</v>
+        <v>21.27905390193095</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>45.51251452763646</v>
+        <v>45.51251452763639</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>50.78564223806701</v>
+        <v>50.78564223806713</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.40705832857694</v>
+        <v>44.40705832857697</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>55.51649745494782</v>
+        <v>55.516497454948</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>58.85434680132816</v>
+        <v>58.8543468013284</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>15.23932927268694</v>
+        <v>15.23932927268696</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45.67852203711929</v>
+        <v>45.67852203711952</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>52.38699651376306</v>
+        <v>52.38699651376302</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10.90265907433674</v>
+        <v>10.90265907433663</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.41176218597919</v>
+        <v>34.41176218597926</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>39.87073058590586</v>
+        <v>39.87073058590596</v>
       </c>
     </row>
     <row r="66">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.90354345767253</v>
+        <v>35.90354345767259</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>42.47575386548353</v>
+        <v>42.47575386548356</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19.23544169664236</v>
+        <v>19.23544169664241</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.42267045152041</v>
+        <v>48.42267045152063</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.57814970434076</v>
+        <v>10.5781497043405</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.04178668482315</v>
+        <v>26.04178668482299</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.69776056805405</v>
+        <v>32.69776056805378</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9.036699194249818</v>
+        <v>9.036699194249884</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.42434103354616</v>
+        <v>30.4243410335461</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.7593332893202</v>
+        <v>37.75933328932033</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20.50116508343226</v>
+        <v>20.50116508343183</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.13382209503095</v>
+        <v>41.1338220950306</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.02201038316439</v>
+        <v>48.02201038316409</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.57315971807255</v>
+        <v>38.57315971807192</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.88976479891554</v>
+        <v>46.88976479891487</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.26928489331187</v>
+        <v>52.26928489331171</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.21637118620738</v>
+        <v>12.21637118620737</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.82700646935107</v>
+        <v>36.82700646935094</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>46.14429007380599</v>
+        <v>46.14429007380618</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.12336624529597</v>
+        <v>11.1233662452959</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.11723112533027</v>
+        <v>31.11723112533001</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>38.02430917625371</v>
+        <v>38.024309176253</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.866390011840444</v>
+        <v>3.866390011840732</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.20711055175999</v>
+        <v>30.20711055175941</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.42371520539406</v>
+        <v>38.42371520539355</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15.75213520654967</v>
+        <v>15.75213520654981</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.09309175273683</v>
+        <v>41.09309175273629</v>
       </c>
     </row>
     <row r="94">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.61627212411918</v>
+        <v>29.61627212411893</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.89517660500191</v>
+        <v>40.89517660500211</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>46.52922210043219</v>
+        <v>46.52922210043188</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.905808166374928</v>
+        <v>3.905808166374975</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.93644418229334</v>
+        <v>32.93644418229368</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>41.60990809202893</v>
+        <v>41.60990809202931</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>9.659281294318358</v>
+        <v>9.659281294318269</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.7552813942201</v>
+        <v>30.75528139421995</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.54466337742071</v>
+        <v>38.54466337742052</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-3.268008452345782</v>
+        <v>-3.268008452345967</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24.26539746395383</v>
+        <v>24.26539746395357</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.46117495599886</v>
+        <v>33.46117495599868</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>12.59395479896765</v>
+        <v>12.59395479896769</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.79589445952475</v>
+        <v>38.79589445952477</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>47.41796506130088</v>
+        <v>47.41796506130098</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>41.02395624865849</v>
+        <v>41.02395624865858</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>55.0333462606529</v>
+        <v>55.03334626065308</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>62.44312852283073</v>
+        <v>62.44312852283112</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.988870396683229</v>
+        <v>9.988870396683117</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>45.1979969272796</v>
+        <v>45.19799692727973</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>56.01360577073245</v>
+        <v>56.01360577073228</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>55.25812551736836</v>
+        <v>55.25812551736792</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.53249761719113</v>
+        <v>49.53249761719084</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.58861049492484</v>
+        <v>64.58861049492418</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>68.62003178049832</v>
+        <v>68.62003178049792</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.84543423677729</v>
+        <v>19.84543423677721</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>57.37332138098116</v>
+        <v>57.37332138098112</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>63.99533830119663</v>
+        <v>63.99533830119676</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.14889006718212</v>
+        <v>19.1488900671818</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.28229446133075</v>
+        <v>45.28229446133065</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>51.10606857363536</v>
+        <v>51.10606857363514</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>11.29716455043521</v>
+        <v>11.29716455043508</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.15796927090712</v>
+        <v>45.15796927090714</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>52.04122853649024</v>
+        <v>52.04122853649008</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30.0074190717203</v>
+        <v>30.00741907172027</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.82388911661726</v>
+        <v>61.82388911661695</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.38946854606991</v>
+        <v>68.38946854606968</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>66.39188973388188</v>
+        <v>66.39188973388221</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.99703729293724</v>
+        <v>83.99703729293758</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>89.06622254301422</v>
+        <v>89.06622254301453</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.69008968752681</v>
+        <v>31.69008968752669</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.48710860308196</v>
+        <v>75.48710860308188</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>82.99702194444957</v>
+        <v>82.99702194444936</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>54.64035552770717</v>
+        <v>54.64035552770696</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.36376827449853</v>
+        <v>48.3637682744986</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>64.23009457507396</v>
+        <v>64.23009457507386</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>68.64363283664139</v>
+        <v>68.64363283664179</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.27635396829206</v>
+        <v>18.27635396829208</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>57.41680064085119</v>
+        <v>57.4168006408515</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>64.35259135853076</v>
+        <v>64.35259135853082</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.56306004626101</v>
+        <v>17.56306004626096</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>44.68960618195062</v>
+        <v>44.68960618195025</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>50.48860239438985</v>
+        <v>50.48860239438945</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>11.46174967427007</v>
+        <v>11.46174967427006</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>46.49970013295441</v>
+        <v>46.49970013295425</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>53.3739039634094</v>
+        <v>53.37390396340933</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.27005987960665</v>
+        <v>30.27005987960637</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.10187683237159</v>
+        <v>63.10187683237152</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>69.65279487654604</v>
+        <v>69.65279487654627</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>67.38594831864623</v>
+        <v>67.38594831864665</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>85.85413649295413</v>
+        <v>85.8541364929543</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>91.05994040015538</v>
+        <v>91.05994040015536</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.35114662797465</v>
+        <v>32.35114662797476</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>77.8269343873078</v>
+        <v>77.82693438730828</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>85.31449598102722</v>
+        <v>85.31449598102748</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>48.78534526656212</v>
+        <v>48.78534526656171</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.99284757064423</v>
+        <v>38.99284757064397</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>52.22086623250273</v>
+        <v>52.22086623250235</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>58.53203992299079</v>
+        <v>58.53203992299064</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>11.51764396129307</v>
+        <v>11.5176439612929</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>44.50952021657328</v>
+        <v>44.50952021657348</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>53.82749456697702</v>
+        <v>53.82749456697688</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.13062318616231</v>
+        <v>16.13062318616208</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.76204757966606</v>
+        <v>39.76204757966585</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.74208068982664</v>
+        <v>47.74208068982654</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>7.436622100781813</v>
+        <v>7.436622100781753</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.08777866459607</v>
+        <v>38.08777866459584</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.5394276277397</v>
+        <v>47.53942762773947</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.18546144304189</v>
+        <v>24.18546144304184</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>53.17383967959682</v>
+        <v>53.17383967959621</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>62.02940860507722</v>
+        <v>62.02940860507697</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>55.22341450899782</v>
+        <v>55.22341450899727</v>
       </c>
     </row>
     <row r="177">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>79.18572652797232</v>
+        <v>79.18572652797201</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.22544715945607</v>
+        <v>22.22544715945569</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>61.69386413694224</v>
+        <v>61.69386413694227</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>72.78739588387467</v>
+        <v>72.78739588387438</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>9.323677392837549</v>
+        <v>9.323677392837489</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.12731679110032</v>
+        <v>21.12731679110016</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.82404659266754</v>
+        <v>27.82404659266764</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.153161276853048</v>
+        <v>2.153161276853226</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.21302435497634</v>
+        <v>19.21302435497659</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.59142138330726</v>
+        <v>26.59142138330759</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.34203312909142</v>
+        <v>12.34203312909162</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.09024454850414</v>
+        <v>29.09024454850438</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.99620806245935</v>
+        <v>35.99620806245969</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.06472801517975</v>
+        <v>28.06472801517988</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>33.16595532249301</v>
+        <v>33.16595532249325</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>38.8833247193833</v>
+        <v>38.8833247193834</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>6.169978613380088</v>
+        <v>6.16997861338017</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.57820277905887</v>
+        <v>24.5782027790592</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.27173652638145</v>
+        <v>34.27173652638184</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>2.142300237666946</v>
+        <v>2.142300237667063</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>17.80469743876886</v>
+        <v>17.80469743876904</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.02385831735236</v>
+        <v>25.02385831735246</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-12.70551649177374</v>
+        <v>-12.70551649177366</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>8.516057574239595</v>
+        <v>8.516057574239847</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17.04331793390302</v>
+        <v>17.04331793390304</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-2.530712855889593</v>
+        <v>-2.530712855889234</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>18.22330243992526</v>
+        <v>18.22330243992535</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>13.86694218504672</v>
+        <v>13.86694218504666</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>30.11408631359155</v>
+        <v>30.11408631359142</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.48504529158987</v>
+        <v>35.48504529158956</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>9.932793692681241</v>
+        <v>9.932793692681486</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.53044293543225</v>
+        <v>32.53044293543201</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>38.41784850787534</v>
+        <v>38.41784850787523</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>22.51908457310495</v>
+        <v>22.51908457310483</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>44.20980571482942</v>
+        <v>44.20980571482944</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>49.79200853330488</v>
+        <v>49.7920085333045</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>45.21394613593553</v>
+        <v>45.21394613593561</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>54.04473980153354</v>
+        <v>54.04473980153347</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>58.0089568818734</v>
+        <v>58.00895688187375</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>19.47366307205374</v>
+        <v>19.47366307205409</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.56343102015734</v>
+        <v>45.56343102015788</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>53.04288397596915</v>
+        <v>53.04288397596923</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>9.482727547199312</v>
+        <v>9.482727547199167</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.03104572558922</v>
+        <v>30.03104572558895</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.13090561874979</v>
+        <v>36.13090561874949</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-1.254017423999038</v>
+        <v>-1.254017423999578</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.05688323577069</v>
+        <v>26.05688323577046</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.35640661233911</v>
+        <v>33.35640661233886</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11.68819833697543</v>
+        <v>11.68819833697527</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>37.87747918068342</v>
+        <v>37.87747918068352</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>10.7210888009459</v>
+        <v>10.72108880094574</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.88906814907361</v>
+        <v>27.88906814907349</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.37715891269862</v>
+        <v>33.37715891269845</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.315925772260435</v>
+        <v>8.315925772260726</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.98466193374092</v>
+        <v>31.98466193374078</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>38.05000596223023</v>
+        <v>38.05000596223006</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>20.98180199197858</v>
+        <v>20.98180199197878</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.60047902091553</v>
+        <v>43.60047902091539</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>49.33634523438045</v>
+        <v>49.33634523438047</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>44.35040669962107</v>
+        <v>44.35040669962063</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>54.05472943209188</v>
+        <v>54.05472943209165</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>58.30608833424004</v>
+        <v>58.30608833424036</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>18.04969166063202</v>
+        <v>18.04969166063217</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>45.73481522200556</v>
+        <v>45.7348152220057</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>53.41712545052999</v>
+        <v>53.41712545053025</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>6.609708464276615</v>
+        <v>6.609708464276501</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.15058189319638</v>
+        <v>28.15058189319645</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>34.45762935333209</v>
+        <v>34.45762935333192</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-2.532121915559134</v>
+        <v>-2.532121915558925</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.94250768019186</v>
+        <v>25.94250768019201</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.52725631093391</v>
+        <v>33.52725631093368</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>10.51854426206786</v>
+        <v>10.51854426206775</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>37.71422706413381</v>
+        <v>37.71422706413385</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>11.34676444873767</v>
+        <v>11.3467644487376</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.20687143473947</v>
+        <v>25.20687143473966</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>32.24852115858905</v>
+        <v>32.24852115858897</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>7.881773973985968</v>
+        <v>7.881773973986096</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.47705822188309</v>
+        <v>27.47705822188343</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.30323257507281</v>
+        <v>35.30323257507257</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.63288434068574</v>
+        <v>18.63288434068546</v>
       </c>
     </row>
     <row r="258">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.96391982035546</v>
+        <v>44.9639198203552</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>36.46060423483277</v>
+        <v>36.46060423483249</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>43.33452787956395</v>
+        <v>43.33452787956386</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.60159010847813</v>
+        <v>49.60159010847805</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>12.76092049233289</v>
+        <v>12.76092049233293</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>34.63714605141166</v>
+        <v>34.63714605141156</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>44.87050424324349</v>
+        <v>44.87050424324369</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.639862882394716</v>
+        <v>5.639862882394695</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>23.64132156318981</v>
+        <v>23.64132156318946</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.35083853340389</v>
+        <v>31.35083853340393</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-5.40679687681137</v>
+        <v>-5.40679687681147</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.68429483967098</v>
+        <v>18.68429483967132</v>
       </c>
     </row>
     <row r="271">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>5.415590476657192</v>
+        <v>5.415590476657149</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.74514964270527</v>
+        <v>28.74514964270504</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.17416887525484</v>
+        <v>26.17416887525507</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>17.65768153335132</v>
+        <v>17.65768153335143</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.11980854874711</v>
+        <v>27.11980854874729</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.11195280848953</v>
+        <v>34.11195280848985</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-5.214676054944299</v>
+        <v>-5.214676054944391</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>20.53045436707934</v>
+        <v>20.53045436707931</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.61627198508908</v>
+        <v>30.6162719850894</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>4.957222784172483</v>
+        <v>4.957222784172332</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.75254282847107</v>
+        <v>23.75254282847098</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.30297632556893</v>
+        <v>32.30297632556904</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-10.87463495504455</v>
+        <v>-10.87463495504458</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>14.06032739601199</v>
+        <v>14.06032739601193</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>24.15797858854483</v>
+        <v>24.15797858854494</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3.688129469784474</v>
+        <v>3.688129469784192</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.57548013356245</v>
+        <v>27.57548013356206</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.99221473115342</v>
+        <v>36.9922147311532</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.73597774531144</v>
+        <v>30.73597774531153</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.55535407866546</v>
+        <v>42.55535407866548</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>51.54928525593803</v>
+        <v>51.54928525593817</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>2.089320052593971</v>
+        <v>2.089320052594035</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>33.5579648494489</v>
+        <v>33.5579648494491</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>45.88588548165509</v>
+        <v>45.88588548165517</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>44.73138414820598</v>
+        <v>44.73138414820603</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.85070502643173</v>
+        <v>39.85070502643205</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>53.12299970132987</v>
+        <v>53.12299970133009</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>58.59435162111544</v>
+        <v>58.59435162111575</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>13.31566932893442</v>
+        <v>13.31566932893417</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>47.47294337580014</v>
+        <v>47.47294337580024</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>55.6679267733524</v>
+        <v>55.6679267733528</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>15.8193327841367</v>
+        <v>15.81933278413659</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>39.58864545815163</v>
+        <v>39.58864545815167</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.29235307879341</v>
+        <v>46.2923530787934</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>5.41601651400082</v>
+        <v>5.41601651400045</v>
       </c>
     </row>
     <row r="307">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.53442603743761</v>
+        <v>44.53442603743746</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.88843508266932</v>
+        <v>22.88843508266939</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>52.32097954895869</v>
+        <v>52.32097954895864</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>59.81411412401106</v>
+        <v>59.81411412401074</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>58.32287617680729</v>
+        <v>58.32287617680704</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>73.73720447951258</v>
+        <v>73.73720447951244</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>80.50210262093371</v>
+        <v>80.50210262093387</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.25195043241919</v>
+        <v>26.25195043241918</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>66.18631472975213</v>
+        <v>66.18631472975204</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>75.41639740669612</v>
+        <v>75.41639740669635</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>44.81475159897519</v>
+        <v>44.81475159897522</v>
       </c>
     </row>
     <row r="319">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>53.49902998493241</v>
+        <v>53.4990299849326</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>59.37749313674887</v>
+        <v>59.3774931367488</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.40475446560984</v>
+        <v>12.40475446560982</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>48.26246196340576</v>
+        <v>48.26246196340579</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>56.8129333748294</v>
+        <v>56.8129333748295</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.54236725010698</v>
+        <v>14.5423672501073</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>39.35608919172641</v>
+        <v>39.35608919172685</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.06499551644106</v>
+        <v>46.06499551644114</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.021761762188827</v>
+        <v>6.021761762189101</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.43575793468155</v>
+        <v>38.43575793468165</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>46.40539500576133</v>
+        <v>46.40539500576131</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>23.63858184450773</v>
+        <v>23.63858184450789</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>54.1375780947862</v>
+        <v>54.13757809478615</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>61.65118801288638</v>
+        <v>61.65118801288642</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>59.84994683139881</v>
+        <v>59.84994683139875</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>76.18917578848163</v>
+        <v>76.18917578848178</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>83.12327795604553</v>
+        <v>83.12327795604575</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.43785865678263</v>
+        <v>27.43785865678241</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>69.13036329124471</v>
+        <v>69.13036329124469</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>78.38803716211784</v>
+        <v>78.38803716211793</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>37.26799794240551</v>
+        <v>37.2679979424055</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.85331242093506</v>
+        <v>27.85331242093499</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.28524137126186</v>
+        <v>39.28524137126183</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>47.04652628565151</v>
+        <v>47.04652628565166</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>3.288837974663934</v>
+        <v>3.288837974663835</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.98017460496816</v>
+        <v>32.98017460496774</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>43.83891378543814</v>
+        <v>43.83891378543802</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>11.93931386356172</v>
+        <v>11.93931386356167</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.24707704932919</v>
+        <v>33.24707704932928</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.07223538337531</v>
+        <v>42.07223538337562</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.4622853711513919</v>
+        <v>0.4622853711512604</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.48550750066991</v>
+        <v>28.48550750067006</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.94691331745408</v>
+        <v>38.94691331745403</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>15.94514065358881</v>
+        <v>15.94514065358861</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>42.59417219900827</v>
+        <v>42.59417219900857</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>52.33811314913951</v>
+        <v>52.33811314913938</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>45.61764931673201</v>
+        <v>45.617649316732</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>59.55020784288413</v>
+        <v>59.55020784288408</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.08421054879304</v>
+        <v>69.08421054879273</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>15.06171735681244</v>
+        <v>15.06171735681215</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>50.74561732371996</v>
+        <v>50.74561732372001</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>63.49988714853938</v>
+        <v>63.49988714853946</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>6.42134333170964</v>
+        <v>6.421343331709512</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.75722397123804</v>
+        <v>16.75722397123811</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.46647954741596</v>
+        <v>22.46647954741608</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1.582978732739381</v>
+        <v>-1.582978732739253</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>13.2993135986185</v>
+        <v>13.29931359861877</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.58115570280037</v>
+        <v>19.58115570280047</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.595795844944599</v>
+        <v>7.595795844944597</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>22.29312586051252</v>
+        <v>22.29312586051258</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.22439262207299</v>
+        <v>28.22439262207309</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>22.79999449754606</v>
+        <v>22.79999449754634</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.6021031191445</v>
+        <v>26.60210311914484</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.3375746132025</v>
+        <v>31.33757461320265</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>2.547779692080079</v>
+        <v>2.547779692079931</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.97368609552105</v>
+        <v>18.97368609552127</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.98429133281265</v>
+        <v>26.9842913328127</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-0.3799090334877349</v>
+        <v>-0.3799090334879658</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>13.35411848191095</v>
+        <v>13.35411848191089</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>19.64736589824354</v>
+        <v>19.64736589824355</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-13.69720620006376</v>
+        <v>-13.69720620006413</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>4.846783180071592</v>
+        <v>4.846783180071508</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>12.30062735071609</v>
+        <v>12.30062735071625</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-4.853081019818585</v>
+        <v>-4.853081019818763</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>13.36882211211678</v>
+        <v>13.36882211211685</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>9.433623623114954</v>
+        <v>9.433623623115125</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>23.89414629462608</v>
+        <v>23.89414629462633</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.38850610399217</v>
+        <v>28.38850610399219</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>4.401617145549405</v>
+        <v>4.401617145549427</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.41264646451749</v>
+        <v>24.41264646451761</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.32897571842405</v>
+        <v>29.32897571842402</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>15.70955807574888</v>
+        <v>15.70955807574901</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.98459145490391</v>
+        <v>34.98459145490378</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.70342035203607</v>
+        <v>39.70342035203586</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.81742812411046</v>
+        <v>36.81742812410974</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.0320518778647</v>
+        <v>44.03205187786453</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>47.17403128400211</v>
+        <v>47.17403128400178</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>12.76770127094735</v>
+        <v>12.76770127094746</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.32639812646552</v>
+        <v>36.32639812646532</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.31359968112486</v>
+        <v>42.31359968112481</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>5.320008890701367</v>
+        <v>5.320008890701112</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>23.57488318546456</v>
+        <v>23.57488318546437</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.82885826370802</v>
+        <v>28.82885826370783</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-4.238210460477752</v>
+        <v>-4.238210460478282</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>19.92825560852238</v>
+        <v>19.928255608522</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.2405332471895</v>
+        <v>26.24053324718942</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>7.086850924227029</v>
+        <v>7.0868509242268</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.32730052299919</v>
+        <v>30.32730052299916</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.452142476042841</v>
+        <v>6.452142476042741</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.7378932252834</v>
+        <v>21.73789322528348</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.33841403540267</v>
+        <v>26.3384140354026</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2.735704889680068</v>
+        <v>2.735704889680042</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.7086705081999</v>
+        <v>23.70867050819974</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.78519916079535</v>
+        <v>28.78519916079567</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>14.10609787455046</v>
+        <v>14.10609787455066</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.21346152424022</v>
+        <v>34.21346152424027</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>39.07051621911971</v>
+        <v>39.07051621911965</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.75408356110669</v>
+        <v>35.75408356110679</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.74194529544671</v>
+        <v>43.74194529544683</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>47.14502192738854</v>
+        <v>47.14502192738867</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>11.18257111273891</v>
+        <v>11.18257111273879</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.16739676907468</v>
+        <v>36.16739676907452</v>
       </c>
     </row>
     <row r="422">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>2.547550698387816</v>
+        <v>2.547550698387781</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>21.69467876723663</v>
+        <v>21.6946787672368</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.13235705451761</v>
+        <v>27.13235705451737</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-5.652004271256452</v>
+        <v>-5.652004271256473</v>
       </c>
     </row>
     <row r="427">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.12676850807406</v>
+        <v>26.12676850807385</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.767177919519362</v>
+        <v>5.767177919519062</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.91257650343996</v>
+        <v>29.91257650343999</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>7.821187191796943</v>
+        <v>7.821187191796707</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.01691252305982</v>
+        <v>20.01691252305984</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.01529827308879</v>
+        <v>26.0152982730888</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>3.043084593911567</v>
+        <v>3.043084593911797</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.21657729872521</v>
+        <v>20.21657729872495</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.875510140253</v>
+        <v>26.87551014025285</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>12.7094334430555</v>
+        <v>12.70943344305546</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.46144480299268</v>
+        <v>29.46144480299259</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.73385256991827</v>
+        <v>35.73385256991824</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.75865779517668</v>
+        <v>29.75865779517674</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.13561840550321</v>
+        <v>35.13561840550322</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.34741356310192</v>
+        <v>40.34741356310181</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>7.843530240265338</v>
+        <v>7.843530240265673</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.41194688712157</v>
+        <v>27.4119468871217</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.86883247245233</v>
+        <v>35.86883247245267</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>2.239059584914809</v>
+        <v>2.239059584914711</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>18.08720360866692</v>
+        <v>18.08720360866668</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.79971057377329</v>
+        <v>24.79971057377344</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-7.744970825290004</v>
+        <v>-7.744970825290157</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>13.39002478654673</v>
+        <v>13.39002478654695</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>21.39352459979099</v>
+        <v>21.39352459979085</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1.659761246892947</v>
+        <v>1.659761246893027</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.20732042892517</v>
+        <v>22.2073204289252</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>20.3663344243243</v>
+        <v>20.36633442432452</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.95272385962306</v>
+        <v>13.95272385962293</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.49072983276141</v>
+        <v>21.49072983276167</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.4241282807062</v>
+        <v>27.42412828070654</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-7.530259334640334</v>
+        <v>-7.530259334640277</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.30612632474175</v>
+        <v>15.30612632474145</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.86985870095624</v>
+        <v>23.86985870095639</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>1.779714715917478</v>
+        <v>1.779714715917496</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>18.57444515842822</v>
+        <v>18.57444515842817</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>26.18725544169017</v>
+        <v>26.18725544168984</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-13.15873087795514</v>
+        <v>-13.15873087795543</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.984187026900532</v>
+        <v>8.984187026900461</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>17.99361913968968</v>
+        <v>17.99361913968946</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-0.3978206573301009</v>
+        <v>-0.3978206573305414</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.86511187381899</v>
+        <v>20.86511187381884</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.3014854800246</v>
+        <v>29.30148548002432</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.63553242822108</v>
+        <v>24.63553242822097</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.60848604078394</v>
+        <v>34.60848604078407</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.3924046969273</v>
+        <v>42.39240469692741</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-1.941604134872936</v>
+        <v>-1.941604134873383</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.29950554518326</v>
+        <v>26.2995055451831</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.08411643767056</v>
+        <v>37.08411643767042</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.30564071806363</v>
+        <v>36.30564071806339</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.69447884265985</v>
+        <v>32.69447884265968</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>43.6907935510992</v>
+        <v>43.69079355109906</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>48.24365550933727</v>
+        <v>48.24365550933722</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>7.508131152812387</v>
+        <v>7.508131152812425</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>38.12538710544951</v>
+        <v>38.12538710544952</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>44.9418825154641</v>
+        <v>44.94188251546394</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>11.50372870665549</v>
+        <v>11.50372870665518</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.92608595598185</v>
+        <v>32.92608595598178</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.77845333424682</v>
+        <v>38.77845333424649</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1.536213534854586</v>
+        <v>1.536213534854344</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.47408898736611</v>
+        <v>29.47408898736612</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.42302895827059</v>
+        <v>36.42302895827038</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>16.9348132487921</v>
+        <v>16.93481324879156</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>43.34298778899456</v>
+        <v>43.34298778899406</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>49.94491835898663</v>
+        <v>49.9449183589861</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>49.19158474048284</v>
+        <v>49.19158474048271</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>62.45008976658441</v>
+        <v>62.45008976658421</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>68.13916249057415</v>
+        <v>68.13916249057405</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.12494232125088</v>
+        <v>19.12494232125034</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>55.22715748914134</v>
+        <v>55.22715748914112</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>63.06996288069847</v>
+        <v>63.06996288069833</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.10929402588176</v>
+        <v>36.10929402588174</v>
       </c>
     </row>
     <row r="499">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>43.70023160826752</v>
+        <v>43.70023160826742</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>48.62337996094963</v>
+        <v>48.62337996094969</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>6.350656722965642</v>
+        <v>6.350656722965695</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>38.49208214493393</v>
+        <v>38.49208214493398</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>45.62615634740565</v>
+        <v>45.62615634740585</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>10.30089490362876</v>
+        <v>10.30089490362866</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.66514121063302</v>
+        <v>32.66514121063314</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.51158321453014</v>
+        <v>38.51158321453008</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>1.988538701373553</v>
+        <v>1.988538701373427</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.04051374379639</v>
+        <v>31.0405137437963</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>38.00443195433323</v>
+        <v>38.00443195433314</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>17.51584157014036</v>
+        <v>17.51584157014032</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>44.88648759707093</v>
+        <v>44.88648759707074</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>51.49493585774428</v>
+        <v>51.49493585774407</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>50.43718457304354</v>
+        <v>50.43718457304364</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>64.51970916243663</v>
+        <v>64.51970916243638</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>70.35387103164061</v>
+        <v>70.35387103164065</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.04021934559327</v>
+        <v>20.04021934559319</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>57.72392065769774</v>
+        <v>57.72392065769761</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>65.57663296386607</v>
+        <v>65.57663296386582</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.69735166054981</v>
+        <v>29.69735166054959</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>22.4523474537131</v>
+        <v>22.45234745371299</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.7370419681589</v>
+        <v>31.737041968159</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.34781442332805</v>
+        <v>38.34781442332822</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-0.604905180004522</v>
+        <v>-0.60490518000476</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.80124911350797</v>
+        <v>25.80124911350804</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.02163513415169</v>
+        <v>35.02163513415186</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>7.733298795537836</v>
+        <v>7.733298795537682</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.81135157283336</v>
+        <v>26.81135157283324</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.64036247307607</v>
+        <v>34.640362473076</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-3.343885582154947</v>
+        <v>-3.343885582155139</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>21.60209010428516</v>
+        <v>21.60209010428497</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.90100156199081</v>
+        <v>30.90100156199054</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>10.22588926228801</v>
+        <v>10.22588926228788</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>33.99509602369881</v>
+        <v>33.99509602369835</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>42.69380006319016</v>
+        <v>42.69380006319013</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.60697343813278</v>
+        <v>37.60697343813299</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>49.47316159496646</v>
+        <v>49.47316159496667</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>57.71119605631938</v>
+        <v>57.71119605631932</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.257840056434031</v>
+        <v>9.257840056433725</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>41.32762071421723</v>
+        <v>41.3276207142171</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>52.44309489134577</v>
+        <v>52.44309489134564</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.51946857867296</v>
+        <v>8.519468578672619</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.73670948557805</v>
+        <v>21.73670948557771</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.01345754323192</v>
+        <v>28.0134575432315</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.8953900497506204</v>
+        <v>0.8953900497505636</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.68227909773568</v>
+        <v>19.68227909773596</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.59223841780886</v>
+        <v>26.59223841780873</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>11.83598815847369</v>
+        <v>11.83598815847368</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.18479062801185</v>
+        <v>30.18479062801132</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.70805918363718</v>
+        <v>36.70805918363749</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.37516759453162</v>
+        <v>29.3751675945309</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>35.7536254345811</v>
+        <v>35.75362543458071</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>40.81226820041992</v>
+        <v>40.8122682004193</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.607923758753287</v>
+        <v>5.607923758753236</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.60586589786143</v>
+        <v>26.60586589786127</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.49481958487184</v>
+        <v>35.49481958487153</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.745458766117425</v>
+        <v>6.745458766117199</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.17101614214734</v>
+        <v>24.1710161421471</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>31.05360210990316</v>
+        <v>31.05360210990328</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-6.47976176107526</v>
+        <v>-6.479761761075217</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.90221994884469</v>
+        <v>16.90221994884454</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.06934333075704</v>
+        <v>25.06934333075682</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.635451990085119</v>
+        <v>4.635451990084757</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.37612415759722</v>
+        <v>27.37612415759674</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.39681547760468</v>
+        <v>12.39681547760452</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.31629094527092</v>
+        <v>30.31629094527078</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.15944085574937</v>
+        <v>35.15944085574915</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>8.298539626509379</v>
+        <v>8.298539626509427</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>32.92261716981743</v>
+        <v>32.92261716981696</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>38.22694999374376</v>
+        <v>38.22694999374336</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.65421560108904</v>
+        <v>21.65421560108852</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>45.21581766958461</v>
+        <v>45.21581766958391</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.31191390538591</v>
+        <v>50.31191390538548</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>46.22639547994523</v>
+        <v>46.22639547994483</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>56.50219877379133</v>
+        <v>56.50219877379117</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>59.67706060406454</v>
+        <v>59.67706060406444</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.29878701022236</v>
+        <v>18.29878701022226</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>47.40332218873984</v>
+        <v>47.40332218873992</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>53.92022671076847</v>
+        <v>53.9202267107685</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.77419736052642</v>
+        <v>13.77419736052612</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.37208757165259</v>
+        <v>36.37208757165195</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.01065323628518</v>
+        <v>42.0106532362848</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.99361646833632</v>
+        <v>4.993616468335802</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>34.79697641952478</v>
+        <v>34.79697641952392</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>41.60115053754697</v>
+        <v>41.60115053754625</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.92821783144029</v>
+        <v>18.92821783144007</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>47.40374094198418</v>
+        <v>47.40374094198377</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>9.089741441894054</v>
+        <v>9.089741441893807</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.95189075569546</v>
+        <v>27.95189075569507</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>32.90789883087012</v>
+        <v>32.90789883086978</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.556048841456352</v>
+        <v>6.556048841455862</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.27458528046757</v>
+        <v>32.2745852804669</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.75295560750074</v>
+        <v>37.75295560750045</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>19.97972550514887</v>
+        <v>19.97972550514884</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.4894660845865</v>
+        <v>44.48946608458613</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>49.73513844521563</v>
+        <v>49.73513844521553</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>45.21449445768043</v>
+        <v>45.21449445768033</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>56.37488888407631</v>
+        <v>56.37488888407613</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>59.83383348864138</v>
+        <v>59.83383348864137</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>16.72059988163306</v>
+        <v>16.72059988163286</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>47.45059212470137</v>
+        <v>47.45059212470139</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>54.16416151011631</v>
+        <v>54.16416151011612</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.67342136990652</v>
+        <v>10.67342136990627</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>34.28772654273022</v>
+        <v>34.28772654273029</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>40.12635147545399</v>
+        <v>40.12635147545403</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.503567172370527</v>
+        <v>3.503567172369738</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.49575037191825</v>
+        <v>34.49575037191777</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>41.57789736804976</v>
+        <v>41.57789736804936</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>17.53597675938192</v>
+        <v>17.53597675938178</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>47.03968530946267</v>
+        <v>47.03968530946278</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>10.54490307364008</v>
+        <v>10.54490307364022</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.91836335223124</v>
+        <v>25.9183633522312</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>32.51418158120235</v>
+        <v>32.51418158120232</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>6.730904850439469</v>
+        <v>6.730904850439526</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.17031194416381</v>
+        <v>28.17031194416349</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.50012874558942</v>
+        <v>35.50012874558917</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.24931370017116</v>
+        <v>18.24931370017112</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.97733539528453</v>
+        <v>38.97733539528433</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>45.87952720742423</v>
+        <v>45.87952720742405</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.95337785485711</v>
+        <v>37.95337785485719</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>46.18360301337457</v>
+        <v>46.18360301337447</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>51.76372294060177</v>
+        <v>51.76372294060194</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>12.29061478798052</v>
+        <v>12.29061478798027</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>36.92203967948124</v>
+        <v>36.92203967948115</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>46.30676059972593</v>
+        <v>46.30676059972596</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>10.33786531900506</v>
+        <v>10.33786531900481</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.21874895114222</v>
+        <v>30.21874895114215</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>37.56399576621654</v>
+        <v>37.56399576621666</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1.065326428312829</v>
+        <v>1.065326428312387</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.45325573411069</v>
+        <v>27.45325573411035</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>36.2311572574479</v>
+        <v>36.23115725744736</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.85215765533077</v>
+        <v>12.85215765533069</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.29129030936299</v>
+        <v>38.2912903093627</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.04415672692447</v>
+        <v>35.04415672692423</v>
       </c>
     </row>
     <row r="635">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.13717574823963</v>
+        <v>38.13717574823939</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>44.58673253605849</v>
+        <v>44.58673253605786</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1.689928274641568</v>
+        <v>1.689928274641352</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.62477173839252</v>
+        <v>30.62477173839198</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.02846397847411</v>
+        <v>40.02846397847382</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>5.629360032265456</v>
+        <v>5.629360032265508</v>
       </c>
     </row>
     <row r="642">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.67730895312751</v>
+        <v>34.67730895312756</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-8.785198745700381</v>
+        <v>-8.785198745700434</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>18.26285334617302</v>
+        <v>18.26285334617267</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.32434459542236</v>
+        <v>28.32434459542226</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>6.41298187481444</v>
+        <v>6.412981874814248</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.24173447501158</v>
+        <v>32.24173447501162</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.66007855613037</v>
+        <v>41.66007855613024</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.82500451115472</v>
+        <v>35.8250045111547</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>49.29989709727955</v>
+        <v>49.29989709727951</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>58.07762029943514</v>
+        <v>58.0776202994353</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>4.979990801291033</v>
+        <v>4.979990801290857</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>39.56174249979186</v>
+        <v>39.56174249979166</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>51.64723997611544</v>
+        <v>51.64723997611497</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>53.85314531420789</v>
+        <v>53.85314531420757</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>49.40599887525408</v>
+        <v>49.40599887525378</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>64.44745271555959</v>
+        <v>64.44745271555945</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>69.23444261079655</v>
+        <v>69.23444261079666</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>19.97168638695049</v>
+        <v>19.9716863869505</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>57.78637730315597</v>
+        <v>57.78637730315608</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>65.11338124232338</v>
+        <v>65.11338124232357</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>16.52351080857981</v>
+        <v>16.52351080857935</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.39197948565358</v>
+        <v>42.39197948565316</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>48.84597444214565</v>
+        <v>48.84597444214542</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>7.908581043906175</v>
+        <v>7.908581043905464</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.5730293732303</v>
+        <v>41.57302937322967</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>49.2817403196706</v>
+        <v>49.28174031967001</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>26.07164984871132</v>
+        <v>26.07164984871069</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>57.77878988095495</v>
+        <v>57.77878988095424</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>65.10034835307661</v>
+        <v>65.10034835307592</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>63.98785373463404</v>
+        <v>63.98785373463372</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>81.24379806642523</v>
+        <v>81.24379806642489</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>87.5887621167445</v>
+        <v>87.58876211674431</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.34433441854735</v>
+        <v>29.34433441854721</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>72.90654442284389</v>
+        <v>72.90654442284382</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>81.62896931285796</v>
+        <v>81.62896931285788</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>53.72868184821198</v>
+        <v>53.728681848212</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>48.6679559085054</v>
+        <v>48.66795590850512</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>64.59766673555987</v>
+        <v>64.59766673555995</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>69.78685804211591</v>
+        <v>69.78685804211611</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>18.82116870894612</v>
+        <v>18.82116870894586</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>58.36868843484996</v>
+        <v>58.36868843484954</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>66.04058821418587</v>
+        <v>66.0405882141856</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>15.14673816522498</v>
+        <v>15.14673816522481</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.08759609043825</v>
+        <v>42.08759609043783</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.53292275572993</v>
+        <v>48.53292275572981</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>8.449109260155172</v>
+        <v>8.449109260154867</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>43.3783328334183</v>
+        <v>43.37833283341808</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>51.10291923575906</v>
+        <v>51.10291923575886</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.75097358406528</v>
+        <v>26.75097358406522</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>59.55173465602818</v>
+        <v>59.55173465602812</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>66.8791389392544</v>
+        <v>66.8791389392542</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>65.44493305649698</v>
+        <v>65.44493305649688</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>83.63852119357881</v>
+        <v>83.63852119357868</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>90.13704121682568</v>
+        <v>90.13704121682576</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.45336981048377</v>
+        <v>30.45336981048388</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>75.81383468309261</v>
+        <v>75.81383468309257</v>
       </c>
     </row>
     <row r="699">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>46.50552687970741</v>
+        <v>46.5055268797072</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>37.61028126826286</v>
+        <v>37.61028126826267</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>50.73946287180697</v>
+        <v>50.73946287180665</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>57.93145626361651</v>
+        <v>57.9314562636161</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>10.43321069305711</v>
+        <v>10.43321069305654</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.50618841904955</v>
+        <v>43.50618841904924</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>53.63569258659562</v>
+        <v>53.6356925865953</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.76204058340471</v>
+        <v>12.76204058340436</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.97445618364147</v>
+        <v>35.97445618364112</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.69134179990019</v>
+        <v>44.69134179990023</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.874967062172663</v>
+        <v>2.87496706217247</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.1562715472427</v>
+        <v>33.15627154724239</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.54899265492855</v>
+        <v>43.54899265492806</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>19.01377301907699</v>
+        <v>19.01377301907687</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>47.73435917729712</v>
+        <v>47.73435917729694</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>57.45166785938427</v>
+        <v>57.45166785938412</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>51.14691284982293</v>
+        <v>51.14691284982273</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>66.83173464212747</v>
+        <v>66.83173464212709</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>76.11785157873877</v>
+        <v>76.11785157873882</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>18.28749434410425</v>
+        <v>18.28749434410396</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>57.28625389938662</v>
+        <v>57.28625389938646</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>69.74820701417178</v>
+        <v>69.74820701417173</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>12.50611632779912</v>
+        <v>12.50611632779863</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.76751590099487</v>
+        <v>23.76751590099479</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.44252052775714</v>
+        <v>30.44252052775728</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.832795482016042</v>
+        <v>5.832795482016241</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.4613346133488</v>
+        <v>22.4613346133489</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.88998334765391</v>
+        <v>29.88998334765399</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>14.93289094257464</v>
+        <v>14.93289094257394</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.35470396556603</v>
+        <v>31.35470396556558</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>38.30487653733185</v>
+        <v>38.30487653733143</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.21386097177836</v>
+        <v>30.21386097177833</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.81357244574212</v>
+        <v>34.81357244574201</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.76706583378158</v>
+        <v>40.76706583378143</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>8.549686141737874</v>
+        <v>8.54968614173775</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.15653536234795</v>
+        <v>26.15653536234802</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.98730893827496</v>
+        <v>35.98730893827532</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>8.209793357248067</v>
+        <v>8.209793357247486</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.45406212094193</v>
+        <v>23.45406212094156</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.04551929607167</v>
+        <v>31.04551929607165</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-5.629344275827346</v>
+        <v>-5.629344275827581</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>15.33249237202635</v>
+        <v>15.33249237202618</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.36451525927623</v>
+        <v>24.36451525927633</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>3.434586864253298</v>
+        <v>3.434586864253586</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.02564454328517</v>
+        <v>24.02564454328519</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>17.50704408985969</v>
+        <v>17.50704408985973</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.37354057216315</v>
+        <v>33.37354057216314</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.69526094827519</v>
+        <v>38.69526094827498</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>14.55804797309418</v>
+        <v>14.55804797309434</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>36.90885547729501</v>
+        <v>36.90885547729459</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.83338763831951</v>
+        <v>42.83338763831962</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.11205195147</v>
+        <v>26.11205195146974</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.64652400461706</v>
+        <v>47.64652400461671</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>53.25820808079338</v>
+        <v>53.25820808079314</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>48.90006060480512</v>
+        <v>48.90006060480479</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>57.35335493343333</v>
+        <v>57.35335493343316</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>61.52955412903548</v>
+        <v>61.5295541290356</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>23.39552013994626</v>
+        <v>23.39552013994616</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>48.93073713106814</v>
+        <v>48.9307371310684</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>56.52494396128192</v>
+        <v>56.52494396128202</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>16.26598012843319</v>
+        <v>16.26598012843323</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>36.59484363943466</v>
+        <v>36.59484363943444</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>43.05592949890911</v>
+        <v>43.05592949890902</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>7.027052253316514</v>
+        <v>7.027052253316265</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.30548375610707</v>
+        <v>34.30548375610692</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.1199596448983</v>
+        <v>42.11995964489809</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>18.94248287455779</v>
+        <v>18.94248287455722</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>45.17793270885964</v>
+        <v>45.17793270885916</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.47650056737619</v>
+        <v>14.47650056737626</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.34614597864842</v>
+        <v>31.34614597864844</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.79672641650369</v>
+        <v>36.79672641650382</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>13.2170614845084</v>
+        <v>13.21706148450847</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.72965503697363</v>
+        <v>36.7296550369733</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>42.85051374979263</v>
+        <v>42.8505137497922</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>24.89192837391414</v>
+        <v>24.8919283739138</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>47.4354313719484</v>
+        <v>47.43543137194829</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>53.21614643719844</v>
+        <v>53.21614643719767</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>48.41357759013283</v>
+        <v>48.41357759013279</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>57.82307902752612</v>
+        <v>57.82307902752575</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>62.30591289931964</v>
+        <v>62.30591289931939</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>22.32985252649963</v>
+        <v>22.32985252649969</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>49.58906834899041</v>
+        <v>49.58906834899032</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>57.40629706638094</v>
+        <v>57.40629706638074</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>13.51175950849722</v>
+        <v>13.51175950849725</v>
       </c>
     </row>
     <row r="784">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.60191680960369</v>
+        <v>41.60191680960378</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>6.008522767650131</v>
+        <v>6.008522767650252</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.54593247512766</v>
+        <v>34.54593247512751</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.66807934925213</v>
+        <v>42.66807934925177</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>18.07942458400025</v>
+        <v>18.07942458400047</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>45.40628228094295</v>
+        <v>45.40628228094279</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>15.20471820577918</v>
+        <v>15.2047182057791</v>
       </c>
     </row>
     <row r="792">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.66328316781393</v>
+        <v>35.66328316781377</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>12.56640530174312</v>
+        <v>12.56640530174248</v>
       </c>
     </row>
     <row r="795">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.75755623295241</v>
+        <v>39.75755623295198</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>22.26034109023226</v>
+        <v>22.26034109023156</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>41.05654672957755</v>
+        <v>41.05654672957721</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.44442350215003</v>
+        <v>48.44442350214971</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>39.73771659449365</v>
+        <v>39.73771659449341</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.20567491234558</v>
+        <v>46.20567491234531</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>52.75644353000393</v>
+        <v>52.75644353000381</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.22708655477207</v>
+        <v>16.22708655477177</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>37.45076340163391</v>
+        <v>37.45076340163354</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>47.87242072978862</v>
+        <v>47.8724207297882</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>12.58100347741438</v>
+        <v>12.5810034774144</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.27310685791025</v>
+        <v>30.27310685790994</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>38.39728583493203</v>
+        <v>38.39728583493189</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2.889716612717667</v>
+        <v>2.889716612717411</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.84853535347127</v>
+        <v>26.84853535347109</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.58217596498834</v>
+        <v>36.58217596498827</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>12.64363767169797</v>
+        <v>12.64363767169778</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>35.92643627944358</v>
+        <v>35.92643627944322</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>32.42669556690224</v>
+        <v>32.42669556690204</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.14585010160684</v>
+        <v>23.14585010160659</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.33066333818252</v>
+        <v>32.33066333818235</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>40.12938839554966</v>
+        <v>40.12938839554928</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-0.01251534731158799</v>
+        <v>-0.01251534731187576</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.25898642197645</v>
+        <v>25.25898642197637</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.05567627072963</v>
+        <v>36.05567627072955</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>8.731584064377302</v>
+        <v>8.731584064376907</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.89001034680483</v>
+        <v>26.89001034680465</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.03645213911963</v>
+        <v>36.03645213911947</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-5.682490958283527</v>
+        <v>-5.682490958283431</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>18.69578664955749</v>
+        <v>18.69578664955753</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.58182649890558</v>
+        <v>29.58182649890553</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>7.616604953954401</v>
+        <v>7.61660495395423</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.07870126884969</v>
+        <v>31.07870126884973</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>41.20413965543257</v>
+        <v>41.20413965543247</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.17754789719557</v>
+        <v>34.17754789719523</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>45.39505617398159</v>
+        <v>45.39505617398181</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>55.65030648542944</v>
+        <v>55.65030648542951</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>5.038392797655563</v>
+        <v>5.038392797655746</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.66092953774293</v>
+        <v>35.66092953774272</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>49.12833436952466</v>
+        <v>49.1283343695243</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>52.4867456709332</v>
+        <v>52.48674567093273</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>47.17227718049594</v>
+        <v>47.1722771804959</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>60.31667775866136</v>
+        <v>60.31667775866101</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>66.58044023967858</v>
+        <v>66.58044023967818</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.32283688933759</v>
+        <v>20.3228368893373</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>54.31318038669178</v>
+        <v>54.3131803866917</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>63.22661873612336</v>
+        <v>63.22661873612334</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>20.47568309623865</v>
+        <v>20.47568309623843</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.80597165756729</v>
+        <v>43.80597165756701</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>51.08114961429695</v>
+        <v>51.0811496142969</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>12.03537877410236</v>
+        <v>12.03537877410252</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.88766193689126</v>
+        <v>42.88766193689123</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>51.60723820035224</v>
+        <v>51.60723820035225</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.33124864848383</v>
+        <v>28.33124864848339</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>57.54799883568058</v>
+        <v>57.54799883568012</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>65.73992165807104</v>
+        <v>65.73992165807113</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>63.82999127977799</v>
+        <v>63.82999127977776</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>78.78137749030401</v>
+        <v>78.78137749030356</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>86.76565447704817</v>
+        <v>86.76565447704763</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.20450509076492</v>
+        <v>31.20450509076499</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>70.60098062470514</v>
+        <v>70.60098062470507</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>80.95778072820524</v>
+        <v>80.95778072820538</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>52.98041676792086</v>
+        <v>52.98041676792042</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>47.02626252099297</v>
+        <v>47.02626252099282</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>61.13500785778895</v>
+        <v>61.13500785778879</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>67.8250957919375</v>
+        <v>67.82509579193746</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>19.75674358097758</v>
+        <v>19.75674358097777</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>55.5810316004902</v>
+        <v>55.58103160049058</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>64.87500882307683</v>
+        <v>64.87500882307705</v>
       </c>
     </row>
     <row r="865">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>43.79266349848267</v>
+        <v>43.79266349848259</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>51.08584716983248</v>
+        <v>51.08584716983207</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>12.89808759863452</v>
+        <v>12.89808759863438</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>45.07749582456153</v>
+        <v>45.07749582456096</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>53.84911769290382</v>
+        <v>53.84911769290354</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.38898067684612</v>
+        <v>29.38898067684606</v>
       </c>
     </row>
     <row r="872">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>67.98477330205623</v>
+        <v>67.98477330205604</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>65.72401914864923</v>
+        <v>65.72401914864929</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>81.68121744936694</v>
+        <v>81.68121744936684</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>89.85058360142749</v>
+        <v>89.85058360142762</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.74604272572092</v>
+        <v>32.74604272572078</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>74.03056598132187</v>
+        <v>74.03056598132213</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>84.43736026282203</v>
+        <v>84.43736026282197</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.95190955463613</v>
+        <v>44.95190955463593</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.68322182297931</v>
+        <v>34.68322182297916</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.94558178224604</v>
+        <v>45.94558178224582</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>54.5804296466862</v>
+        <v>54.58042964668618</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>9.774274335616262</v>
+        <v>9.774274335616102</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.16530560430724</v>
+        <v>39.16530560430736</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>50.81161875685017</v>
+        <v>50.81161875684995</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.56065348835401</v>
+        <v>16.56065348835394</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.32966928605263</v>
+        <v>37.32966928605258</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>46.80088165583027</v>
+        <v>46.80088165582993</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>6.831139753105031</v>
+        <v>6.831139753104864</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.41253262884986</v>
+        <v>34.41253262884958</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>45.73238892183826</v>
+        <v>45.73238892183797</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.09494592240368</v>
+        <v>21.09494592240342</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.42369795274676</v>
+        <v>47.42369795274638</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.93690767452102</v>
+        <v>57.93690767452075</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>50.36486719449163</v>
+        <v>50.36486719449137</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>63.7862923374791</v>
+        <v>63.786292337479</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>74.66395272961566</v>
+        <v>74.66395272961529</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>19.24825456245281</v>
+        <v>19.2482545624531</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>54.24148827830734</v>
+        <v>54.24148827830733</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>68.22612279247585</v>
+        <v>68.22612279247615</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.425</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.452</v>
+        <v>17.337</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.743</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.587</v>
+        <v>13.152</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.716</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.63</v>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.061801439349956</v>
+        <v>3.999378970504694</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.46927485903642</v>
+        <v>7.591566452803082</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.83267861930242</v>
+        <v>17.57928482011644</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.001260060985972</v>
+        <v>-4.558665682234714</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.85120363678539</v>
+        <v>8.388553104205648</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.8073845643839</v>
+        <v>18.40257511655249</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.93592672302318</v>
+        <v>-0.3714074842904189</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.29391852716358</v>
+        <v>21.60374273920399</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39.83841028428257</v>
+        <v>29.94031182981949</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.97484374654851</v>
+        <v>6.990634673818249</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.53964308167429</v>
+        <v>11.8665724228766</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42.44061597370434</v>
+        <v>14.24533681575242</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.497519586963868</v>
+        <v>9.046075590314686</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.63214771408459</v>
+        <v>16.35521274593916</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.50551418988989</v>
+        <v>36.68700231749888</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.211284659235261</v>
+        <v>9.334620478210836</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.86140699413796</v>
+        <v>19.52014202011747</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.35091266237026</v>
+        <v>28.01334996323937</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.692783882520978</v>
+        <v>-3.74275149706175</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20.77053982361084</v>
+        <v>12.0904488018234</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.44050802136255</v>
+        <v>18.22695907125212</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.580664227370779</v>
+        <v>-0.4648614495790966</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.34008280657351</v>
+        <v>22.9185720904544</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12.21205890569345</v>
+        <v>8.802178516955777</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.11416382896718</v>
+        <v>18.39748449675024</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.08082101353694</v>
+        <v>21.75396393423135</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.00023313768539</v>
+        <v>-0.4174491472763187</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.45453582735071</v>
+        <v>20.49058402973407</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39.8301084075328</v>
+        <v>25.93869139292394</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>23.26415332841823</v>
+        <v>1.47207407498918</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>46.62132285928534</v>
+        <v>29.7416121926916</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>51.76454721971555</v>
+        <v>33.4858118012474</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.77252577402236</v>
+        <v>30.98173337029367</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>56.07070067461984</v>
+        <v>36.66479208114312</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>59.14457784776707</v>
+        <v>40.52730932330089</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.16037479945133</v>
+        <v>15.70494475145598</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>46.08584562183886</v>
+        <v>38.07304173619907</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.62456358215467</v>
+        <v>49.40181387211186</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14.17468088411666</v>
+        <v>13.98026169094077</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.74700420711247</v>
+        <v>33.8549144976473</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.0236138598874</v>
+        <v>39.69385215553476</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.047586325822078</v>
+        <v>1.453978360762203</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.65138934417046</v>
+        <v>30.25348157933947</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.97298053770649</v>
+        <v>38.09216807330091</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>21.02038084129711</v>
+        <v>9.896152671162971</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>49.25735203699188</v>
+        <v>49.39232184138814</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.818695034362229</v>
+        <v>2.370457001832943</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.58996226693258</v>
+        <v>14.59149598621365</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>32.65380065109527</v>
+        <v>18.72733800239383</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7.970733409797543</v>
+        <v>-2.953312263710487</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.43929726037448</v>
+        <v>19.04354253573213</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38.96525077641211</v>
+        <v>26.45027141310855</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>21.27905390193095</v>
+        <v>1.5603233566783</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>45.51251452763639</v>
+        <v>30.76134744722742</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>50.78564223806713</v>
+        <v>36.57435633360988</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.40705832857697</v>
+        <v>34.17535959275023</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>55.516497454948</v>
+        <v>39.07869576710767</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>58.8543468013284</v>
+        <v>44.43354421417106</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>15.23932927268696</v>
+        <v>-1.113636313432917</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45.67852203711952</v>
+        <v>28.0177815111521</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>52.38699651376302</v>
+        <v>42.3272441204395</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10.90265907433663</v>
+        <v>11.85949149449911</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.41176218597926</v>
+        <v>31.07322027196379</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>39.87073058590596</v>
+        <v>39.23777631853066</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5.198021590638493</v>
+        <v>0.6256907481898146</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.90354345767259</v>
+        <v>26.25841745594585</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>42.47575386548356</v>
+        <v>38.84035943108732</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19.23544169664241</v>
+        <v>9.300565062411073</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.42267045152063</v>
+        <v>45.62089368288432</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.5781497043405</v>
+        <v>-5.271670725270091</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.04178668482299</v>
+        <v>5.577877652024632</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.69776056805378</v>
+        <v>17.0005165770971</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9.036699194249884</v>
+        <v>-7.266288038467064</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.4243410335461</v>
+        <v>14.21419956567281</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.75933328932033</v>
+        <v>27.42938148792923</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20.50116508343183</v>
+        <v>-5.834450360948043</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.1338220950306</v>
+        <v>23.93956002220103</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.02201038316409</v>
+        <v>36.60229014815056</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.57315971807192</v>
+        <v>24.75256696855832</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.88976479891487</v>
+        <v>29.5216340854582</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.26928489331171</v>
+        <v>38.3617760876392</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.21637118620737</v>
+        <v>-4.736321326689918</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.82700646935094</v>
+        <v>18.51256036163286</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>46.14429007380618</v>
+        <v>40.1520261848756</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.1233662452959</v>
+        <v>7.859689891024807</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.11723112533001</v>
+        <v>25.70604119196111</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>38.024309176253</v>
+        <v>37.41451579001101</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.866390011840732</v>
+        <v>-0.9031760111690303</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.20711055175941</v>
+        <v>23.53446467818302</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.42371520539355</v>
+        <v>37.1960234252392</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15.75213520654981</v>
+        <v>5.851531517225428</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.09309175273629</v>
+        <v>39.09161965961009</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.54157589208417</v>
+        <v>30.09307200679881</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.61627212411893</v>
+        <v>21.9749251205032</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.89517660500211</v>
+        <v>35.10368999997145</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>46.52922210043188</v>
+        <v>39.2038698498994</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.905808166374975</v>
+        <v>5.559257906376974</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.93644418229368</v>
+        <v>26.06344615095438</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>41.60990809202931</v>
+        <v>35.30319685576599</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>9.659281294318269</v>
+        <v>10.37700642095764</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.75528139421995</v>
+        <v>26.61738853699043</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.54466337742052</v>
+        <v>37.27513045152376</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-3.268008452345967</v>
+        <v>-6.971725818183966</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24.26539746395357</v>
+        <v>16.30721560607594</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.46117495599868</v>
+        <v>26.69893549577301</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>12.59395479896769</v>
+        <v>0.9039582468689922</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.79589445952477</v>
+        <v>34.53995888877813</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>47.41796506130098</v>
+        <v>46.95432407084663</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>41.02395624865858</v>
+        <v>36.44397315954777</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>55.03334626065308</v>
+        <v>52.93354290794978</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>62.44312852283112</v>
+        <v>53.588563076618</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.988870396683117</v>
+        <v>3.170232629042658</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>45.19799692727973</v>
+        <v>30.65910771690246</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>56.01360577073228</v>
+        <v>45.75787543155421</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>55.25812551736792</v>
+        <v>57.26517127288226</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.53249761719084</v>
+        <v>48.85909410502404</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.58861049492418</v>
+        <v>58.84610288835185</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>68.62003178049792</v>
+        <v>62.22967516255015</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.84543423677721</v>
+        <v>16.04303711773495</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>57.37332138098112</v>
+        <v>57.36102692524786</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>63.99533830119676</v>
+        <v>60.92112038229652</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.1488900671818</v>
+        <v>16.31186059680143</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.28229446133065</v>
+        <v>46.07549579728411</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>51.10606857363514</v>
+        <v>50.15994126420603</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>11.29716455043508</v>
+        <v>2.05732975386103</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.15796927090714</v>
+        <v>44.1154159258306</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>52.04122853649008</v>
+        <v>49.09792815705045</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30.00741907172027</v>
+        <v>12.42019457398687</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.82388911661695</v>
+        <v>68.81266200892344</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.38946854606968</v>
+        <v>75.03826308787768</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>66.39188973388221</v>
+        <v>76.38460188561272</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.99703729293758</v>
+        <v>85.24213692596392</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>89.06622254301453</v>
+        <v>88.51230283331688</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.69008968752669</v>
+        <v>24.84962309880705</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.48710860308188</v>
+        <v>78.17561045016591</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>82.99702194444936</v>
+        <v>80.44572850308222</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>54.64035552770696</v>
+        <v>59.01591012524101</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.3637682744986</v>
+        <v>44.64977539833701</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>64.23009457507386</v>
+        <v>53.21392487269959</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>68.64363283664179</v>
+        <v>60.87544173488645</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.27635396829208</v>
+        <v>11.43402006542472</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>57.4168006408515</v>
+        <v>52.62882717631183</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>64.35259135853082</v>
+        <v>59.24524465018941</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.56306004626096</v>
+        <v>13.78571657266678</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>44.68960618195025</v>
+        <v>44.63500714008985</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>50.48860239438945</v>
+        <v>49.73942052135922</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>11.46174967427006</v>
+        <v>2.226385953020483</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>46.49970013295425</v>
+        <v>44.46625337892691</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>53.37390396340933</v>
+        <v>51.6573929685327</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.27005987960637</v>
+        <v>12.73330687912419</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.10187683237152</v>
+        <v>69.31112606557713</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>69.65279487654627</v>
+        <v>78.38116719039856</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>67.38594831864665</v>
+        <v>75.15923701808373</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>85.8541364929543</v>
+        <v>83.38719303091392</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>91.05994040015536</v>
+        <v>91.1161466049673</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.35114662797476</v>
+        <v>19.47671020627356</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>77.82693438730828</v>
+        <v>77.03324906882855</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>85.31449598102748</v>
+        <v>79.73279233396622</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>48.78534526656171</v>
+        <v>54.99609290611401</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.99284757064397</v>
+        <v>29.96407165455028</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>52.22086623250235</v>
+        <v>41.16233221620702</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>58.53203992299064</v>
+        <v>49.85704987369133</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>11.5176439612929</v>
+        <v>8.795315367807159</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>44.50952021657348</v>
+        <v>46.29548626628037</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>53.82749456697688</v>
+        <v>56.97799641912309</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.13062318616208</v>
+        <v>11.27201074841049</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.76204757966585</v>
+        <v>41.37145811729814</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.74208068982654</v>
+        <v>52.25558372022093</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>7.436622100781753</v>
+        <v>-1.002640089723073</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.08777866459584</v>
+        <v>40.11669519504045</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.53942762773947</v>
+        <v>52.21812536834842</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.18546144304184</v>
+        <v>8.567974864170246</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>53.17383967959621</v>
+        <v>61.83240628431594</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>62.02940860507697</v>
+        <v>77.23244008890151</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>55.22341450899727</v>
+        <v>66.03916498752052</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.35180429340025</v>
+        <v>79.31901770647343</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>79.18572652797201</v>
+        <v>86.9543995503042</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.22544715945569</v>
+        <v>15.46611457414293</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>61.69386413694227</v>
+        <v>73.69404453474452</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>72.78739588387438</v>
+        <v>82.17970323364077</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>9.323677392837489</v>
+        <v>10.09504860639191</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.12731679110016</v>
+        <v>2.776192385770933</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.82404659266764</v>
+        <v>9.17769832199795</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.153161276853226</v>
+        <v>-4.382272333939</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.21302435497659</v>
+        <v>-4.665902752670828</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.59142138330759</v>
+        <v>-2.574208450559677</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.34203312909162</v>
+        <v>-0.05370946282710776</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.09024454850438</v>
+        <v>5.185841499255645</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.99620806245969</v>
+        <v>8.3312365130217</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.06472801517988</v>
+        <v>-4.75575354304382</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>33.16595532249325</v>
+        <v>0.368589744360321</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>38.8833247193834</v>
+        <v>0.9042279485788711</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>6.16997861338017</v>
+        <v>9.74752085614317</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.5782027790592</v>
+        <v>4.903972590033266</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.27173652638184</v>
+        <v>-0.09461258770697611</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>2.142300237667063</v>
+        <v>10.09942446576479</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>17.80469743876904</v>
+        <v>12.02384178826563</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.02385831735246</v>
+        <v>21.69079944147415</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-12.70551649177366</v>
+        <v>-3.786326744853895</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>8.516057574239847</v>
+        <v>0.7072831798441186</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17.04331793390304</v>
+        <v>8.116612622129004</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-2.530712855889234</v>
+        <v>-0.07241738084458405</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>18.22330243992535</v>
+        <v>11.20479355182843</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>13.86694218504666</v>
+        <v>10.34933954404678</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>30.11408631359142</v>
+        <v>6.202855674896426</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.48504529158956</v>
+        <v>10.22690680801731</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>9.932793692681486</v>
+        <v>-2.040942059019521</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.53044293543201</v>
+        <v>2.531059124332888</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>38.41784850787523</v>
+        <v>4.324706221272578</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>22.51908457310483</v>
+        <v>-1.323366274814049</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>44.20980571482944</v>
+        <v>7.039339009996191</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>49.7920085333045</v>
+        <v>10.62554625171491</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>45.21394613593561</v>
+        <v>17.69272036017056</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>54.04473980153347</v>
+        <v>24.94000383270177</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>58.00895688187375</v>
+        <v>25.23370939233833</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>19.47366307205409</v>
+        <v>17.47111299400972</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.56343102015788</v>
+        <v>25.99005507911253</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>53.04288397596923</v>
+        <v>14.50221091379097</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>9.482727547199167</v>
+        <v>12.40276860315893</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.03104572558895</v>
+        <v>22.36373870595448</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.13090561874949</v>
+        <v>31.58982893965257</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-1.254017423999578</v>
+        <v>2.271275853504818</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.05688323577046</v>
+        <v>16.99806138229766</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.35640661233886</v>
+        <v>30.35974844989748</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11.68819833697527</v>
+        <v>8.081509730473392</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>37.87747918068352</v>
+        <v>33.05027410069332</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>10.72108880094574</v>
+        <v>1.776572927352699</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.88906814907349</v>
+        <v>2.099232864918385</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.37715891269845</v>
+        <v>7.113001525744867</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.315925772260726</v>
+        <v>-7.501664608281327</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.98466193374078</v>
+        <v>0.7538616749738161</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>38.05000596223006</v>
+        <v>4.983760823058606</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>20.98180199197878</v>
+        <v>-5.810857159213182</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.60047902091539</v>
+        <v>6.360424185108773</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>49.33634523438047</v>
+        <v>12.44893387584324</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>44.35040669962063</v>
+        <v>17.33627765537285</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>54.05472943209165</v>
+        <v>24.18118224388719</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>58.30608833424036</v>
+        <v>25.50623768326791</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>18.04969166063217</v>
+        <v>0.02387505560197312</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>45.7348152220057</v>
+        <v>19.52564272063101</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>53.41712545053025</v>
+        <v>12.04961693319277</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>6.609708464276501</v>
+        <v>7.201099464717622</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.15058189319645</v>
+        <v>16.07746550774763</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>34.45762935333192</v>
+        <v>29.28914828799818</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-2.532121915558925</v>
+        <v>-3.124269365323627</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.94250768019201</v>
+        <v>7.814272691426382</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.52725631093368</v>
+        <v>28.26842253943716</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>10.51854426206775</v>
+        <v>0.6722076257285003</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>37.71422706413385</v>
+        <v>21.54527205979195</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>11.3467644487376</v>
+        <v>-2.383629138974808</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.20687143473966</v>
+        <v>-1.021691923988548</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>32.24852115858897</v>
+        <v>6.713651173585234</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>7.881773973986096</v>
+        <v>-10.90510276449579</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.47705822188343</v>
+        <v>-0.3934536715371699</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.30323257507257</v>
+        <v>4.548475650615046</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.63288434068546</v>
+        <v>-10.30650829251854</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>37.65475904031386</v>
+        <v>5.234275047558633</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.9639198203552</v>
+        <v>12.38951965376197</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>36.46060423483249</v>
+        <v>3.505192349393646</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>43.33452787956386</v>
+        <v>9.903804952705421</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.60159010847805</v>
+        <v>11.23843638682934</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>12.76092049233293</v>
+        <v>-5.522612030591642</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>34.63714605141156</v>
+        <v>10.81908715162847</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>44.87050424324369</v>
+        <v>6.277076604083334</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.639862882394695</v>
+        <v>6.587508045328555</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>23.64132156318946</v>
+        <v>14.95510669378244</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.35083853340393</v>
+        <v>30.31059717992824</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-5.40679687681147</v>
+        <v>-3.106638553824371</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.68429483967132</v>
+        <v>8.150314343511024</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>27.85211397454669</v>
+        <v>26.81116912984512</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>5.415590476657149</v>
+        <v>1.864893305752759</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.74514964270504</v>
+        <v>20.991213134447</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.17416887525507</v>
+        <v>18.57413105994328</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>17.65768153335143</v>
+        <v>9.353315351343582</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.11980854874729</v>
+        <v>24.10100510121442</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.11195280848985</v>
+        <v>30.56250353922643</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-5.214676054944391</v>
+        <v>3.907157229858552</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>20.53045436707931</v>
+        <v>13.97899360317099</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.6162719850894</v>
+        <v>20.94852627071855</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>4.957222784172332</v>
+        <v>13.1780766339587</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.75254282847098</v>
+        <v>19.17792770492245</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.30297632556904</v>
+        <v>26.90616615487604</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-10.87463495504458</v>
+        <v>-1.424194813816001</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>14.06032739601193</v>
+        <v>7.224218753214895</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>24.15797858854494</v>
+        <v>12.93772061411538</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3.688129469784192</v>
+        <v>2.502473103865498</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.57548013356206</v>
+        <v>20.6828362889983</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.9922147311532</v>
+        <v>27.21200512693877</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.73597774531153</v>
+        <v>20.74083539183795</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.55535407866548</v>
+        <v>35.82233923715707</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>51.54928525593817</v>
+        <v>39.02569579390858</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>2.089320052594035</v>
+        <v>10.33457650638991</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>33.5579648494491</v>
+        <v>22.84618684719949</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>45.88588548165517</v>
+        <v>28.98967002312557</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>44.73138414820603</v>
+        <v>43.68463686635443</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.85070502643205</v>
+        <v>35.19492716586994</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>53.12299970133009</v>
+        <v>49.71621161663205</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>58.59435162111575</v>
+        <v>55.79026584600579</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>13.31566932893417</v>
+        <v>18.52343980673474</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>47.47294337580024</v>
+        <v>48.87455523679087</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>55.6679267733528</v>
+        <v>52.73401957830511</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>15.81933278413659</v>
+        <v>21.05968146703783</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>39.58864545815167</v>
+        <v>38.73058485827512</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.2923530787934</v>
+        <v>42.61557832026111</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>5.41601651400045</v>
+        <v>10.94289563466932</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.59655878910972</v>
+        <v>35.10693153591789</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.53442603743746</v>
+        <v>40.05857877455006</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.88843508266939</v>
+        <v>19.40548575891025</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>52.32097954895864</v>
+        <v>57.85560585436892</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>59.81411412401074</v>
+        <v>61.78316008055118</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>58.32287617680704</v>
+        <v>67.07867167256208</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>73.73720447951244</v>
+        <v>75.0498811889349</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>80.50210262093387</v>
+        <v>80.60272892470003</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.25195043241918</v>
+        <v>39.74155692727492</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>66.18631472975204</v>
+        <v>75.52677959575801</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>75.41639740669635</v>
+        <v>73.82962749625423</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>44.81475159897522</v>
+        <v>40.52158701255775</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>39.34678342684919</v>
+        <v>24.63032853770139</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>53.4990299849326</v>
+        <v>38.90235182270743</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>59.3774931367488</v>
+        <v>50.89568959863429</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.40475446560982</v>
+        <v>10.63779584710826</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>48.26246196340579</v>
+        <v>40.86552083106673</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>56.8129333748295</v>
+        <v>49.82685251612222</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.5423672501073</v>
+        <v>17.0093901959518</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>39.35608919172685</v>
+        <v>36.10989037868079</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.06499551644114</v>
+        <v>41.9032923829651</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.021761762189101</v>
+        <v>9.189661226489523</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.43575793468165</v>
+        <v>34.05177672250215</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>46.40539500576131</v>
+        <v>42.45885909761873</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>23.63858184450789</v>
+        <v>16.79797362318424</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>54.13757809478615</v>
+        <v>55.8729410474615</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>61.65118801288642</v>
+        <v>64.1352325518005</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>59.84994683139875</v>
+        <v>61.39427372853746</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>76.18917578848178</v>
+        <v>70.84767262046375</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>83.12327795604575</v>
+        <v>81.67008017384029</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.43785865678241</v>
+        <v>31.95212330699326</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>69.13036329124469</v>
+        <v>72.30252187761801</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>78.38803716211793</v>
+        <v>73.09110651385278</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>37.2679979424055</v>
+        <v>40.83454687007659</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.85331242093499</v>
+        <v>10.93781392295785</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.28524137126183</v>
+        <v>24.87156718059801</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>47.04652628565166</v>
+        <v>37.9097698927739</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>3.288837974663835</v>
+        <v>5.625498608309211</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.98017460496774</v>
+        <v>31.66140470148755</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>43.83891378543802</v>
+        <v>43.18098097645999</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>11.93931386356167</v>
+        <v>13.66966239562986</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.24707704932928</v>
+        <v>31.80726840464962</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.07223538337562</v>
+        <v>42.55501605964134</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.4622853711512604</v>
+        <v>4.468015052386953</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.48550750067006</v>
+        <v>28.4403672306497</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.94691331745403</v>
+        <v>39.99612708884712</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>15.94514065358861</v>
+        <v>10.15013435739007</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>42.59417219900857</v>
+        <v>45.49968697208675</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>52.33811314913938</v>
+        <v>59.11898207250117</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>45.617649316732</v>
+        <v>43.25653942922239</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>59.55020784288408</v>
+        <v>58.50428507759266</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.08421054879273</v>
+        <v>71.55583283233878</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>15.06171735681215</v>
+        <v>20.43477875009687</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>50.74561732372001</v>
+        <v>59.83202044875574</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>63.49988714853946</v>
+        <v>66.11441267418785</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>6.421343331709512</v>
+        <v>15.7215343158385</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.75722397123811</v>
+        <v>21.78708877954379</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.46647954741608</v>
+        <v>24.04286498684669</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1.582978732739253</v>
+        <v>1.330235480175791</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>13.29931359861877</v>
+        <v>14.58378435134515</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.58115570280047</v>
+        <v>14.34483979354849</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.595795844944597</v>
+        <v>7.382458245447999</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>22.29312586051258</v>
+        <v>25.7504029795691</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.22439262207309</v>
+        <v>26.85394769305303</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>22.79999449754634</v>
+        <v>21.2633070599935</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.60210311914484</v>
+        <v>30.6042413360038</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.33757461320265</v>
+        <v>26.65053193755125</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>2.547779692079931</v>
+        <v>-2.351780263591063</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.97368609552127</v>
+        <v>20.993347620634</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.9842913328127</v>
+        <v>13.82364148633509</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-0.3799090334879658</v>
+        <v>12.56897878881727</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>13.35411848191089</v>
+        <v>18.85778346080388</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>19.64736589824355</v>
+        <v>26.80697637460381</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-13.69720620006413</v>
+        <v>-0.2581100843375062</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>4.846783180071508</v>
+        <v>8.887585691353312</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>12.30062735071625</v>
+        <v>15.62493336483763</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-4.853081019818763</v>
+        <v>3.376682952512432</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>13.36882211211685</v>
+        <v>18.22002471734469</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>9.433623623115125</v>
+        <v>17.17815135701558</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>23.89414629462633</v>
+        <v>28.42780317687376</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.38850610399219</v>
+        <v>27.97271932470328</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>4.401617145549427</v>
+        <v>4.025967707371485</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.41264646451761</v>
+        <v>24.24858734502499</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.32897571842402</v>
+        <v>23.62516261602419</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>15.70955807574901</v>
+        <v>7.506336800863959</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.98459145490378</v>
+        <v>31.34859039036791</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.70342035203586</v>
+        <v>32.25066261077968</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.81742812410974</v>
+        <v>40.18270753776164</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.03205187786453</v>
+        <v>52.92213642185146</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>47.17403128400178</v>
+        <v>48.0441911182869</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>12.76770127094746</v>
+        <v>5.728668464701173</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.32639812646532</v>
+        <v>44.82508319938957</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.31359968112481</v>
+        <v>34.63027912687362</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>5.320008890701112</v>
+        <v>14.39950822010285</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>23.57488318546437</v>
+        <v>29.40041478863516</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.82885826370783</v>
+        <v>36.69290611922317</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-4.238210460478282</v>
+        <v>4.939445508967555</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>19.928255608522</v>
+        <v>25.10573777567814</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.24053324718942</v>
+        <v>36.25238545674337</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>7.0868509242268</v>
+        <v>11.14295682446645</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.32730052299916</v>
+        <v>39.84427814228338</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.452142476042741</v>
+        <v>13.00220635531275</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.73789322528348</v>
+        <v>25.94155461981188</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.3384140354026</v>
+        <v>26.38418284366663</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2.735704889680042</v>
+        <v>3.386416131967994</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.70867050819974</v>
+        <v>24.09707794403308</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.78519916079567</v>
+        <v>25.44770436257894</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>14.10609787455066</v>
+        <v>8.15668863529093</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.21346152424027</v>
+        <v>32.59843364129615</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>39.07051621911965</v>
+        <v>35.47523476533848</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.75408356110679</v>
+        <v>42.61819444667009</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.74194529544683</v>
+        <v>54.20528215187444</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>47.14502192738867</v>
+        <v>49.92729111215178</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>11.18257111273879</v>
+        <v>0.1620725912558889</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.16739676907452</v>
+        <v>42.58486432770128</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>42.3394575580576</v>
+        <v>35.46420742850535</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>2.547550698387781</v>
+        <v>11.31801027283512</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>21.6946787672368</v>
+        <v>24.86028885752273</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.13235705451737</v>
+        <v>35.19761176278027</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-5.652004271256473</v>
+        <v>2.155832938822222</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>19.56184936301597</v>
+        <v>18.48400334441112</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.12676850807385</v>
+        <v>35.09501329760545</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.767177919519062</v>
+        <v>7.318834260740399</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.91257650343999</v>
+        <v>32.03485970145076</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>7.821187191796707</v>
+        <v>8.727235524816908</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.01691252305984</v>
+        <v>20.86099029875236</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.0152982730888</v>
+        <v>24.7480733616452</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>3.043084593911797</v>
+        <v>0.2977777953490097</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.21657729872495</v>
+        <v>20.87147197800557</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.87551014025285</v>
+        <v>23.8698731981574</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>12.70943344305546</v>
+        <v>2.888625940136507</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.46144480299259</v>
+        <v>28.27191395144623</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.73385256991824</v>
+        <v>33.41504449439266</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.75865779517674</v>
+        <v>33.18902457849335</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.13561840550322</v>
+        <v>42.38136308572836</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.34741356310181</v>
+        <v>39.55433117867848</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>7.843530240265673</v>
+        <v>-0.7948943885413051</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.4119468871217</v>
+        <v>35.02298684718021</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.86883247245267</v>
+        <v>29.96049738169591</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>2.239059584914711</v>
+        <v>10.71105632892867</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>18.08720360866668</v>
+        <v>22.20359969027325</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.79971057377344</v>
+        <v>34.9204381077445</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-7.744970825290157</v>
+        <v>1.779715750278296</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>13.39002478654695</v>
+        <v>16.33833050498546</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>21.39352459979085</v>
+        <v>32.37059956740102</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1.659761246893027</v>
+        <v>6.959125208353239</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.2073204289252</v>
+        <v>28.17814709715431</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>20.36633442432452</v>
+        <v>25.54763725372347</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.95272385962293</v>
+        <v>20.79930686815367</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.49072983276167</v>
+        <v>32.80421523273511</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.42412828070654</v>
+        <v>37.69541483344116</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-7.530259334640277</v>
+        <v>0.6967847437429135</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.30612632474145</v>
+        <v>19.08780204451089</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.86985870095639</v>
+        <v>24.74704387520926</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>1.779714715917496</v>
+        <v>11.12435720163001</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>18.57444515842817</v>
+        <v>21.92534832454206</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>26.18725544168984</v>
+        <v>30.02904843008366</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-13.15873087795543</v>
+        <v>-5.182691696770441</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.984187026900461</v>
+        <v>9.253882739628883</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>17.99361913968946</v>
+        <v>16.66965798711589</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-0.3978206573305414</v>
+        <v>-0.5723239787912782</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.86511187381884</v>
+        <v>21.59294984300729</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.30148548002432</v>
+        <v>30.54127577106151</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.63553242822097</v>
+        <v>22.83240714237199</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.60848604078407</v>
+        <v>37.49822378463494</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.39240469692741</v>
+        <v>41.00376062934134</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-1.941604134873383</v>
+        <v>-2.685733031746203</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.2995055451831</v>
+        <v>20.11826487635614</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.08411643767042</v>
+        <v>29.01464330731208</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.30564071806339</v>
+        <v>49.665684255431</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.69447884265968</v>
+        <v>44.0529123667615</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>43.69079355109906</v>
+        <v>55.46075877729652</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>48.24365550933722</v>
+        <v>59.58117410440407</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>7.508131152812425</v>
+        <v>11.32032337689534</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>38.12538710544952</v>
+        <v>49.66824541595452</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>44.94188251546394</v>
+        <v>53.00132444653151</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>11.50372870665518</v>
+        <v>17.92116889741762</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.92608595598178</v>
+        <v>40.84352688159856</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.77845333424649</v>
+        <v>44.24371658065347</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1.536213534854344</v>
+        <v>6.091246146886991</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.47408898736612</v>
+        <v>36.62880859401965</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.42302895827038</v>
+        <v>41.24612552612533</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>16.93481324879156</v>
+        <v>14.3530877877363</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>43.34298778899406</v>
+        <v>56.33229008204291</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>49.9449183589861</v>
+        <v>61.08589418401287</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>49.19158474048271</v>
+        <v>64.65911730060209</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>62.45008976658421</v>
+        <v>72.00932992601055</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>68.13916249057405</v>
+        <v>76.93805176832961</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.12494232125034</v>
+        <v>19.59647146096824</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>55.22715748914112</v>
+        <v>66.04815529836671</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>63.06996288069833</v>
+        <v>66.62910275990835</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.10929402588174</v>
+        <v>48.20001407474467</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>31.92432228029246</v>
+        <v>36.88981023245593</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>43.70023160826742</v>
+        <v>47.68880161679292</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>48.62337996094969</v>
+        <v>56.11172504051208</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>6.350656722965695</v>
+        <v>7.85127773801484</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>38.49208214493398</v>
+        <v>44.4982963249435</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>45.62615634740585</v>
+        <v>51.61158791071973</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>10.30089490362866</v>
+        <v>15.26874031480178</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.66514121063314</v>
+        <v>38.73277524217529</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.51158321453008</v>
+        <v>43.59693096867521</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>1.988538701373427</v>
+        <v>5.494236964004863</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.0405137437963</v>
+        <v>35.77116385980558</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>38.00443195433314</v>
+        <v>43.0819191923533</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>17.51584157014032</v>
+        <v>13.28701535870704</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>44.88648759707074</v>
+        <v>54.99815468610687</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>51.49493585774407</v>
+        <v>63.05546645018902</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>50.43718457304364</v>
+        <v>61.06782706262339</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>64.51970916243638</v>
+        <v>69.11633152037913</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>70.35387103164065</v>
+        <v>78.01192608602753</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.04021934559319</v>
+        <v>15.60058557601874</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>57.72392065769761</v>
+        <v>64.44307614774019</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>65.57663296386582</v>
+        <v>66.61061061414757</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.69735166054959</v>
+        <v>45.80886759370846</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>22.45234745371299</v>
+        <v>24.52481621833985</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.737041968159</v>
+        <v>35.29828648430158</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.34781442332822</v>
+        <v>45.08997804195459</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-0.60490518000476</v>
+        <v>5.862034104570039</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.80124911350804</v>
+        <v>36.50240745175473</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.02163513415186</v>
+        <v>45.93615223218809</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>7.733298795537682</v>
+        <v>11.73751846619963</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.81135157283324</v>
+        <v>32.54197435942013</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.640362473076</v>
+        <v>42.98934213478728</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-3.343885582155139</v>
+        <v>0.01699508410476369</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>21.60209010428497</v>
+        <v>27.13676601380757</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.90100156199054</v>
+        <v>39.14350170420241</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>10.22588926228788</v>
+        <v>5.699163453395073</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>33.99509602369835</v>
+        <v>42.01664909701496</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>42.69380006319013</v>
+        <v>56.5501236142056</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.60697343813299</v>
+        <v>43.46786507603977</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>49.47316159496667</v>
+        <v>57.61711553768784</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>57.71119605631932</v>
+        <v>68.45983328840016</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.257840056433725</v>
+        <v>8.398800019418115</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>41.3276207142171</v>
+        <v>53.67824060713927</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>52.44309489134564</v>
+        <v>61.86796795144494</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.519468578672619</v>
+        <v>9.826434539800299</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.73670948557771</v>
+        <v>17.61578777260838</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.0134575432315</v>
+        <v>25.14849036887266</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.8953900497505636</v>
+        <v>-3.974994051197967</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.68227909773596</v>
+        <v>16.01566762388244</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.59223841780873</v>
+        <v>21.8998761769904</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>11.83598815847368</v>
+        <v>3.719521429509445</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.18479062801132</v>
+        <v>33.69208992590724</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.70805918363749</v>
+        <v>37.29234586040933</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.3751675945309</v>
+        <v>19.54469238101051</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>35.75362543458071</v>
+        <v>26.02894726087823</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>40.8122682004193</v>
+        <v>24.98348180810629</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.607923758753236</v>
+        <v>2.982249230264241</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.60586589786127</v>
+        <v>22.20280647641169</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.49481958487153</v>
+        <v>35.50355900860789</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.745458766117199</v>
+        <v>13.25187082005981</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.1710161421471</v>
+        <v>21.60570937592425</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>31.05360210990328</v>
+        <v>28.06274607456078</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-6.479761761075217</v>
+        <v>-2.027536292220784</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.90221994884454</v>
+        <v>12.2326215212542</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.06934333075682</v>
+        <v>14.19899542574437</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.635451990084757</v>
+        <v>0.5591584183753433</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.37612415759674</v>
+        <v>22.9860165029578</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.39681547760452</v>
+        <v>18.36422410336386</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.31629094527078</v>
+        <v>33.61763855690912</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.15944085574915</v>
+        <v>34.75168422421103</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>8.298539626509427</v>
+        <v>5.886221589382121</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>32.92261716981696</v>
+        <v>35.33551377548702</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>38.22694999374336</v>
+        <v>37.85445077324081</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.65421560108852</v>
+        <v>10.3963344666919</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>45.21581766958391</v>
+        <v>48.25763202269495</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.31191390538548</v>
+        <v>48.46827089396771</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>46.22639547994483</v>
+        <v>50.57674606724218</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>56.50219877379117</v>
+        <v>59.03215003673124</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>59.67706060406444</v>
+        <v>58.28493694820949</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.29878701022226</v>
+        <v>18.64617772404972</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>47.40332218873992</v>
+        <v>53.01123872862594</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>53.9202267107685</v>
+        <v>59.25766405901861</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.77419736052612</v>
+        <v>16.96255008985372</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.37208757165195</v>
+        <v>35.38041964068927</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.0106532362848</v>
+        <v>38.29075767912325</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.993616468335802</v>
+        <v>3.389089990468776</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>34.79697641952392</v>
+        <v>30.63172655964416</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>41.60115053754625</v>
+        <v>34.85838187321538</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.92821783144007</v>
+        <v>10.43955360810469</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>47.40374094198377</v>
+        <v>49.74274240910535</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>9.089741441893807</v>
+        <v>11.90959419383372</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.95189075569507</v>
+        <v>29.80951323187389</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>32.90789883086978</v>
+        <v>32.00514231852332</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.556048841455862</v>
+        <v>3.704890459667013</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.2745852804669</v>
+        <v>33.73201383102325</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.75295560750045</v>
+        <v>38.98156639973533</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>19.97972550514884</v>
+        <v>10.27533239626607</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.48946608458613</v>
+        <v>48.73261111477146</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>49.73513844521553</v>
+        <v>51.85120083271418</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>45.21449445768033</v>
+        <v>54.44895103446106</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>56.37488888407613</v>
+        <v>61.23731285474217</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>59.83383348864137</v>
+        <v>62.26167996768933</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>16.72059988163286</v>
+        <v>3.774946000116447</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>47.45059212470139</v>
+        <v>44.04226056581733</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>54.16416151011612</v>
+        <v>54.44643225516221</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.67342136990627</v>
+        <v>14.48491562308399</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>34.28772654273029</v>
+        <v>31.76018973264718</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>40.12635147545403</v>
+        <v>37.93481568867053</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.503567172369738</v>
+        <v>2.473227277647236</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.49575037191777</v>
+        <v>25.31066141717671</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>41.57789736804936</v>
+        <v>36.00930408044109</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>17.53597675938178</v>
+        <v>9.042681644573404</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>47.03968530946278</v>
+        <v>43.87172109388512</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>10.54490307364022</v>
+        <v>4.645733981956127</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.9183633522312</v>
+        <v>19.30149337057086</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>32.51418158120232</v>
+        <v>28.84893460633644</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>6.730904850439526</v>
+        <v>-1.335203372630907</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.17031194416349</v>
+        <v>25.7947450746647</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.50012874558917</v>
+        <v>36.56042834360066</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.24931370017112</v>
+        <v>2.513832173777278</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.97733539528433</v>
+        <v>38.96409852741355</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>45.87952720742405</v>
+        <v>48.81386803699891</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.95337785485719</v>
+        <v>42.51194153576723</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>46.18360301337447</v>
+        <v>48.25208666568133</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>51.76372294060194</v>
+        <v>53.33569469392535</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>12.29061478798027</v>
+        <v>-1.250230873865736</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>36.92203967948115</v>
+        <v>29.47054017516044</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>46.30676059972596</v>
+        <v>47.59552444187499</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>10.33786531900481</v>
+        <v>10.69622787016755</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.21874895114215</v>
+        <v>26.7688929082303</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>37.56399576621666</v>
+        <v>37.15606875498567</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1.065326428312387</v>
+        <v>0.8048032387592841</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.45325573411035</v>
+        <v>22.93103478004483</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>36.23115725744736</v>
+        <v>34.52597292148474</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.85215765533069</v>
+        <v>5.876641331757543</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.2912903093627</v>
+        <v>37.72998154484225</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.04415672692423</v>
+        <v>25.67871068775534</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.0650814441685</v>
+        <v>23.53002411652482</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.13717574823939</v>
+        <v>37.23641022697943</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>44.58673253605786</v>
+        <v>39.16250715880025</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1.689928274641352</v>
+        <v>2.978088800130212</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.62477173839198</v>
+        <v>23.01135702156951</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.02846397847382</v>
+        <v>28.70882103764736</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>5.629360032265508</v>
+        <v>11.47206022654592</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.205499269525</v>
+        <v>23.34310469883973</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.67730895312756</v>
+        <v>33.76723777931159</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-8.785198745700434</v>
+        <v>-6.305752410254154</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>18.26285334617267</v>
+        <v>11.55693614374813</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.32434459542226</v>
+        <v>20.34710805725405</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>6.412981874814248</v>
+        <v>-2.582809088272075</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.24173447501162</v>
+        <v>25.64668049478825</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.66007855613024</v>
+        <v>37.45954474050637</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.8250045111547</v>
+        <v>28.58233124017453</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>49.29989709727951</v>
+        <v>48.19286665162545</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>58.0776202994353</v>
+        <v>48.43247767478644</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>4.979990801290857</v>
+        <v>-2.831244044414451</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>39.56174249979166</v>
+        <v>22.5544247668584</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>51.64723997611497</v>
+        <v>35.7697465119559</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>53.85314531420757</v>
+        <v>52.78096547373808</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>49.40599887525378</v>
+        <v>52.09193891367423</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>64.44745271555945</v>
+        <v>62.37469563998056</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>69.23444261079666</v>
+        <v>62.67304231345615</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>19.9716863869505</v>
+        <v>16.7332612934879</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>57.78637730315608</v>
+        <v>58.41455234548313</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>65.11338124232357</v>
+        <v>58.49415530416661</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>16.52351080857935</v>
+        <v>18.18237775774002</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.39197948565316</v>
+        <v>44.25844473220967</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>48.84597444214542</v>
+        <v>49.06444633683315</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>7.908581043905464</v>
+        <v>3.348431917754016</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.57302937322967</v>
+        <v>40.44858896458099</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>49.28174031967001</v>
+        <v>46.65792227218869</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>26.07164984871069</v>
+        <v>10.3931820652949</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>57.77878988095424</v>
+        <v>62.99208849076642</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>65.10034835307592</v>
+        <v>70.90957978103417</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>63.98785373463372</v>
+        <v>72.7758205900425</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>81.24379806642489</v>
+        <v>82.82063205685601</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>87.58876211674431</v>
+        <v>86.50281190144686</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.34433441854721</v>
+        <v>20.319552782119</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>72.90654442284382</v>
+        <v>72.9545111564976</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>81.62896931285788</v>
+        <v>75.89994920144618</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>53.728681848212</v>
+        <v>54.52517754182628</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>48.66795590850512</v>
+        <v>46.42655158187674</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>64.59766673555995</v>
+        <v>54.77631391167967</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>69.78685804211611</v>
+        <v>61.09101439385236</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>18.82116870894586</v>
+        <v>12.59884587355058</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>58.36868843484954</v>
+        <v>52.80674418568709</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>66.0405882141856</v>
+        <v>57.43542121623928</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>15.14673816522481</v>
+        <v>14.44411928432878</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.08759609043783</v>
+        <v>41.47699798988452</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.53292275572981</v>
+        <v>48.23231642612367</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>8.449109260154867</v>
+        <v>2.856718745892824</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>43.37833283341808</v>
+        <v>39.63684613743877</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>51.10291923575886</v>
+        <v>49.58181173481998</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.75097358406522</v>
+        <v>9.572971848929505</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>59.55173465602812</v>
+        <v>61.93583124102665</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>66.8791389392542</v>
+        <v>74.4346222140361</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>65.44493305649688</v>
+        <v>69.19325539408811</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>83.63852119357868</v>
+        <v>78.62642585486759</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>90.13704121682576</v>
+        <v>88.3777171656421</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.45336981048388</v>
+        <v>13.27151767075565</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>75.81383468309257</v>
+        <v>69.22673859489215</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>84.54213094421864</v>
+        <v>74.52216260065683</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>46.5055268797072</v>
+        <v>51.4078687125905</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>37.61028126826267</v>
+        <v>30.77410513707089</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>50.73946287180665</v>
+        <v>40.62501086655645</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>57.9314562636161</v>
+        <v>48.75001686625063</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>10.43321069305654</v>
+        <v>8.543337906102309</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.50618841904924</v>
+        <v>44.0093567443696</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>53.6356925865953</v>
+        <v>53.30124774515679</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.76204058340436</v>
+        <v>10.33698751018623</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.97445618364112</v>
+        <v>35.75320501038011</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.69134179990023</v>
+        <v>49.13138299443548</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.87496706217247</v>
+        <v>-2.11132380701255</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.15627154724239</v>
+        <v>32.60978314835403</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.54899265492806</v>
+        <v>47.47443386854574</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>19.01377301907687</v>
+        <v>2.740338440378693</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>47.73435917729694</v>
+        <v>50.08036077120653</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>57.45166785938412</v>
+        <v>69.56138848809401</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>51.14691284982273</v>
+        <v>56.1332797455314</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>66.83173464212709</v>
+        <v>70.79472478657163</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>76.11785157873882</v>
+        <v>81.70560596462374</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>18.28749434410396</v>
+        <v>7.721924285871371</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>57.28625389938646</v>
+        <v>61.46846389701523</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>69.74820701417173</v>
+        <v>73.80297746379007</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>12.50611632779863</v>
+        <v>17.3039673081968</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.76751590099479</v>
+        <v>17.44999274292773</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.44252052775728</v>
+        <v>28.71447483943261</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.832795482016241</v>
+        <v>10.85915224600652</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.4613346133489</v>
+        <v>25.77396171016044</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.88998334765399</v>
+        <v>31.07177382653252</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>14.93289094257394</v>
+        <v>16.67338998882459</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.35470396556558</v>
+        <v>39.36018899691487</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>38.30487653733143</v>
+        <v>44.99678764683372</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.21386097177833</v>
+        <v>20.80021682329894</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.81357244574201</v>
+        <v>23.81083342199722</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.76706583378143</v>
+        <v>22.88370343378891</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>8.54968614173775</v>
+        <v>21.09945075166</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.15653536234802</v>
+        <v>19.34023346210788</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.98730893827532</v>
+        <v>39.12448187805753</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>8.209793357247486</v>
+        <v>15.79566899749388</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.45406212094156</v>
+        <v>17.99957476946891</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.04551929607165</v>
+        <v>25.92069537960613</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-5.629344275827581</v>
+        <v>15.6031272680971</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>15.33249237202618</v>
+        <v>22.0830405681593</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.36451525927633</v>
+        <v>23.77071925239462</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>3.434586864253586</v>
+        <v>6.024039826589757</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.02564454328519</v>
+        <v>21.49092401919824</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>17.50704408985973</v>
+        <v>21.46830454099352</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.37354057216314</v>
+        <v>28.90097509118622</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.69526094827498</v>
+        <v>34.16808537759016</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>14.55804797309434</v>
+        <v>16.94204021206657</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>36.90885547729459</v>
+        <v>41.76816302122739</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.83338763831962</v>
+        <v>42.78683781496551</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.11205195146974</v>
+        <v>17.39561170366539</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.64652400461671</v>
+        <v>47.88689572823532</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>53.25820808079314</v>
+        <v>50.55325182841714</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>48.90006060480479</v>
+        <v>54.35557895576012</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>57.35335493343316</v>
+        <v>60.14539114462383</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>61.5295541290356</v>
+        <v>58.83296064135588</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>23.39552013994616</v>
+        <v>39.32034468488615</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>48.9307371310684</v>
+        <v>56.09115883170517</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>56.52494396128202</v>
+        <v>63.89706847381419</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>16.26598012843323</v>
+        <v>16.29255450398017</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>36.59484363943444</v>
+        <v>27.03277494558442</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>43.05592949890902</v>
+        <v>31.70061930805648</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>7.027052253316265</v>
+        <v>18.1623012570848</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.30548375610692</v>
+        <v>34.74277263850459</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.11995964489809</v>
+        <v>39.69196937090314</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>18.94248287455722</v>
+        <v>10.05798471346639</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>45.17793270885916</v>
+        <v>40.4580905173538</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.47650056737626</v>
+        <v>11.61553126759176</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.34614597864844</v>
+        <v>25.32342189954688</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.79672641650382</v>
+        <v>30.78286770553901</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>13.21706148450847</v>
+        <v>9.913620953090447</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.7296550369733</v>
+        <v>40.03690508572474</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>42.8505137497922</v>
+        <v>42.94187720959941</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>24.8919283739138</v>
+        <v>11.94788545204498</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>47.43543137194829</v>
+        <v>48.01947374591371</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>53.21614643719767</v>
+        <v>52.58333389704242</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>48.41357759013279</v>
+        <v>54.0728401985459</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>57.82307902752575</v>
+        <v>59.04436960099987</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>62.30591289931939</v>
+        <v>59.69256649789297</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>22.32985252649969</v>
+        <v>14.32382321330104</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>49.58906834899032</v>
+        <v>46.22192604309598</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>57.40629706638074</v>
+        <v>57.44230044199436</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>13.51175950849725</v>
+        <v>13.57202563534422</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.9194661497763</v>
+        <v>24.40248149343745</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.60191680960378</v>
+        <v>32.02346109108033</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>6.008522767650252</v>
+        <v>16.15494847548004</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.54593247512751</v>
+        <v>29.70247014197446</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.66807934925177</v>
+        <v>40.95234578940618</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>18.07942458400047</v>
+        <v>6.837872514200541</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>45.40628228094279</v>
+        <v>34.01865086033352</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>15.2047182057791</v>
+        <v>4.969786855143461</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.61723234435339</v>
+        <v>15.9122497538119</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.66328316781377</v>
+        <v>27.80751182373768</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>12.56640530174248</v>
+        <v>6.351348551445362</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.8406695845513</v>
+        <v>34.08730422631747</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.75755623295198</v>
+        <v>41.95874314593433</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>22.26034109023156</v>
+        <v>5.637503395548286</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>41.05654672957721</v>
+        <v>40.62587199055714</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.44442350214971</v>
+        <v>50.41484386311588</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>39.73771659449341</v>
+        <v>42.20917155477211</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.20567491234531</v>
+        <v>43.60715213922863</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>52.75644353000381</v>
+        <v>46.78427768780756</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.22708655477177</v>
+        <v>6.090378138844777</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>37.45076340163354</v>
+        <v>27.63360895616102</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>47.8724207297882</v>
+        <v>48.36267671605944</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>12.5810034774144</v>
+        <v>11.21314945403385</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.27310685790994</v>
+        <v>21.84224987995949</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>38.39728583493189</v>
+        <v>33.5729807367853</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2.889716612717411</v>
+        <v>16.09631384502838</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.84853535347109</v>
+        <v>30.88203985238134</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.58217596498827</v>
+        <v>42.38285250001783</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>12.64363767169778</v>
+        <v>6.95893442252148</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>35.92643627944322</v>
+        <v>32.61686384904843</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>32.42669556690204</v>
+        <v>24.34798053863485</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.14585010160659</v>
+        <v>17.61352255788721</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.33066333818235</v>
+        <v>30.85153453038772</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>40.12938839554928</v>
+        <v>30.16657865931782</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-0.01251534731187576</v>
+        <v>7.922658657802046</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.25898642197637</v>
+        <v>16.38059653659233</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.05567627072955</v>
+        <v>24.85449591702497</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>8.731584064376907</v>
+        <v>17.08646586088699</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.89001034680465</v>
+        <v>23.48378778924925</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.03645213911947</v>
+        <v>32.17447295373077</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-5.682490958283431</v>
+        <v>18.20089274446635</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>18.69578664955753</v>
+        <v>26.92157567856798</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.58182649890553</v>
+        <v>32.24456139220185</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>7.61660495395423</v>
+        <v>9.55108912321279</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.07870126884973</v>
+        <v>30.6213297803339</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>41.20413965543247</v>
+        <v>38.41491421274166</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.17754789719523</v>
+        <v>30.26097770517369</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>45.39505617398181</v>
+        <v>44.21541508491811</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>55.65030648542951</v>
+        <v>45.55027973169754</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>5.038392797655746</v>
+        <v>12.01304793154715</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.66092953774272</v>
+        <v>22.27077434204695</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>49.1283343695243</v>
+        <v>35.60135034889235</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>52.48674567093273</v>
+        <v>44.00501650270333</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>47.1722771804959</v>
+        <v>43.35528350240119</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>60.31667775866101</v>
+        <v>53.61313841714552</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>66.58044023967818</v>
+        <v>50.62163282619471</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.3228368893373</v>
+        <v>22.37544693864312</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>54.3131803866917</v>
+        <v>51.75743439333249</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>63.22661873612334</v>
+        <v>54.02728756074551</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>20.47568309623843</v>
+        <v>21.51143834210147</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.80597165756701</v>
+        <v>40.44731379449502</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>51.0811496142969</v>
+        <v>44.0542189664898</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>12.03537877410252</v>
+        <v>24.32766578605281</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.88766193689123</v>
+        <v>49.02898653690659</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>51.60723820035225</v>
+        <v>53.26418241999997</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.33124864848339</v>
+        <v>17.16000734602709</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>57.54799883568012</v>
+        <v>60.76999901715871</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>65.73992165807113</v>
+        <v>65.31066207467416</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>63.82999127977776</v>
+        <v>75.73789607071022</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>78.78137749030356</v>
+        <v>78.67507815566928</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>86.76565447704763</v>
+        <v>81.60569167966777</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.20450509076499</v>
+        <v>37.31234288796291</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>70.60098062470507</v>
+        <v>72.60248846605118</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>80.95778072820538</v>
+        <v>76.94343503932573</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>52.98041676792042</v>
+        <v>45.28914207430573</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>47.02626252099282</v>
+        <v>35.81917902193027</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>61.13500785778879</v>
+        <v>44.6511951640973</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>67.82509579193746</v>
+        <v>48.62948302146066</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>19.75674358097777</v>
+        <v>15.69748728602291</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>55.58103160049058</v>
+        <v>45.7964077581052</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>64.87500882307705</v>
+        <v>52.55308416088715</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.33369968391296</v>
+        <v>17.74134964452678</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>43.79266349848259</v>
+        <v>38.51294120023568</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>51.08584716983207</v>
+        <v>43.65540147225752</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>12.89808759863438</v>
+        <v>23.70904909118779</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>45.07749582456096</v>
+        <v>49.26057288415313</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>53.84911769290354</v>
+        <v>56.71557844208888</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.38898067684606</v>
+        <v>15.57549532119395</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>59.75567739373246</v>
+        <v>60.07731985540212</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>67.98477330205604</v>
+        <v>68.83686991433471</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>65.72401914864929</v>
+        <v>70.8046916886609</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>81.68121744936684</v>
+        <v>74.06925996902102</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>89.85058360142762</v>
+        <v>83.37530685871047</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.74604272572078</v>
+        <v>28.23935932334696</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>74.03056598132213</v>
+        <v>68.28284159261955</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>84.43736026282197</v>
+        <v>75.18526535001956</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.95190955463593</v>
+        <v>46.653527168349</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.68322182297916</v>
+        <v>23.64629974762035</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.94558178224582</v>
+        <v>31.52408555497431</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>54.58042964668618</v>
+        <v>38.26221458548147</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>9.774274335616102</v>
+        <v>10.6370500070265</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.16530560430736</v>
+        <v>36.11337229999393</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>50.81161875684995</v>
+        <v>48.24636192252936</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.56065348835394</v>
+        <v>14.49401517107306</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.32966928605258</v>
+        <v>33.70740565542977</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>46.80088165582993</v>
+        <v>45.42270760549601</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>6.831139753104864</v>
+        <v>21.26028182756914</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.41253262884958</v>
+        <v>45.40616711904904</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>45.73238892183797</v>
+        <v>57.20751485645118</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.09494592240342</v>
+        <v>11.33598233860181</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.42369795274638</v>
+        <v>50.65344613674388</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.93690767452075</v>
+        <v>66.28001411873784</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>50.36486719449137</v>
+        <v>58.28052219105378</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>63.786292337479</v>
+        <v>65.01886038974895</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>74.66395272961529</v>
+        <v>78.26541540308652</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>19.2482545624531</v>
+        <v>20.2940950862671</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>54.24148827830733</v>
+        <v>56.49087205249731</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>68.22612279247615</v>
+        <v>71.63198958199756</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.548</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.337</v>
+        <v>17.423</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.152</v>
+        <v>13.123</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.75</v>
+        <v>3.967</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.999378970504694</v>
+        <v>5.917647148204097</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7.591566452803082</v>
+        <v>13.1794265305977</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.57928482011644</v>
+        <v>22.04917254250382</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4.558665682234714</v>
+        <v>-1.189187436575853</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.388553104205648</v>
+        <v>12.55747118290076</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.40257511655249</v>
+        <v>17.16031637335274</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.3714074842904189</v>
+        <v>1.989168673846503</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.60374273920399</v>
+        <v>26.92596678712485</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.94031182981949</v>
+        <v>32.78999320602881</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6.990634673818249</v>
+        <v>13.11258620415511</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11.8665724228766</v>
+        <v>16.72581603434746</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>14.24533681575242</v>
+        <v>23.31762196638088</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.046075590314686</v>
+        <v>12.4309029695047</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.35521274593916</v>
+        <v>18.49442451822609</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.68700231749888</v>
+        <v>37.02134347619121</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.334620478210836</v>
+        <v>6.769870077073406</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.52014202011747</v>
+        <v>24.01113033241856</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.01334996323937</v>
+        <v>29.61196492099114</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-3.74275149706175</v>
+        <v>-3.34392779784552</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12.0904488018234</v>
+        <v>10.40624886626733</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.22695907125212</v>
+        <v>18.01767370954511</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.4648614495790966</v>
+        <v>-2.310914933558593</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.9185720904544</v>
+        <v>24.08975898425087</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.802178516955777</v>
+        <v>6.31600340069679</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>18.39748449675024</v>
+        <v>20.65882193043157</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.75396393423135</v>
+        <v>23.22834179269826</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.4174491472763187</v>
+        <v>-1.480864835626505</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.49058402973407</v>
+        <v>24.30926604989075</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.93869139292394</v>
+        <v>25.7059973021101</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.47207407498918</v>
+        <v>2.70430889537975</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.7416121926916</v>
+        <v>36.35192616497128</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.4858118012474</v>
+        <v>38.66129801681119</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>30.98173337029367</v>
+        <v>37.0860419630498</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36.66479208114312</v>
+        <v>41.23936375306869</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.52730932330089</v>
+        <v>41.06843872040169</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15.70494475145598</v>
+        <v>15.74900541997479</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38.07304173619907</v>
+        <v>46.82644875744718</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.40181387211186</v>
+        <v>53.91121336917813</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.98026169094077</v>
+        <v>13.55516522731389</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.8549144976473</v>
+        <v>35.82865620995433</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>39.69385215553476</v>
+        <v>40.30735378511049</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.453978360762203</v>
+        <v>0.1621252333637031</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.25348157933947</v>
+        <v>31.44769439319356</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.09216807330091</v>
+        <v>39.27457506566709</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>9.896152671162971</v>
+        <v>5.941719311757772</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>49.39232184138814</v>
+        <v>55.49643912473248</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2.370457001832943</v>
+        <v>-0.5765339043845508</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>14.59149598621365</v>
+        <v>13.16198534869054</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>18.72733800239383</v>
+        <v>21.17670564424915</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2.953312263710487</v>
+        <v>-2.014707552202577</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>19.04354253573213</v>
+        <v>21.89781929796556</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.45027141310855</v>
+        <v>26.4893757919245</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.5603233566783</v>
+        <v>4.77011304503506</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.76134744722742</v>
+        <v>35.37290425588446</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.57435633360988</v>
+        <v>42.18665126972399</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.17535959275023</v>
+        <v>42.56398616439553</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.07869576710767</v>
+        <v>48.54643550233557</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>44.43354421417106</v>
+        <v>46.40493374729432</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-1.113636313432917</v>
+        <v>-0.3260413470824943</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.0177815111521</v>
+        <v>33.5199389328021</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>42.3272441204395</v>
+        <v>42.32279903137082</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.85949149449911</v>
+        <v>7.79140493590744</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.07322027196379</v>
+        <v>30.07360570076029</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>39.23777631853066</v>
+        <v>36.87515010869819</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.6256907481898146</v>
+        <v>-1.393315123596452</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.25841745594585</v>
+        <v>25.96552535754194</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.84035943108732</v>
+        <v>38.32675773840438</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>9.300565062411073</v>
+        <v>5.007688765735651</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.62089368288432</v>
+        <v>48.96359117823172</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-5.271670725270091</v>
+        <v>-1.729972774418737</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5.577877652024632</v>
+        <v>9.361691021779279</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>17.0005165770971</v>
+        <v>23.17603713023187</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-7.266288038467064</v>
+        <v>-2.300663479488591</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>14.21419956567281</v>
+        <v>20.11266328826594</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.42938148792923</v>
+        <v>29.02226029006278</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-5.834450360948043</v>
+        <v>-1.559078552123641</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>23.93956002220103</v>
+        <v>29.7449282989537</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.60229014815056</v>
+        <v>41.69349816777121</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.75256696855832</v>
+        <v>30.67365766662339</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.5216340854582</v>
+        <v>34.72288608451072</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.3617760876392</v>
+        <v>42.96610985886586</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-4.736321326689918</v>
+        <v>-1.815017347547457</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>18.51256036163286</v>
+        <v>27.85647774593354</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>40.1520261848756</v>
+        <v>43.73936512538604</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>7.859689891024807</v>
+        <v>4.943662875115397</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.70604119196111</v>
+        <v>24.71872189390291</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>37.41451579001101</v>
+        <v>35.85711881118619</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-0.9031760111690303</v>
+        <v>-0.2730525173185256</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.53446467818302</v>
+        <v>20.97763263235473</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>37.1960234252392</v>
+        <v>38.31004849831579</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5.851531517225428</v>
+        <v>3.84343553402088</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.09161965961009</v>
+        <v>37.60856820679802</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.09307200679881</v>
+        <v>31.27285313193004</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>21.9749251205032</v>
+        <v>26.73365808846471</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.10368999997145</v>
+        <v>40.55682033145644</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.2038698498994</v>
+        <v>44.99714036342938</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5.559257906376974</v>
+        <v>6.7300635858543</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.06344615095438</v>
+        <v>25.03458058067533</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>35.30319685576599</v>
+        <v>33.13878833518223</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.37700642095764</v>
+        <v>11.12181514337623</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.61738853699043</v>
+        <v>26.54639300124427</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37.27513045152376</v>
+        <v>38.52129912973406</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-6.971725818183966</v>
+        <v>-5.272898176719295</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>16.30721560607594</v>
+        <v>10.97616984555518</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26.69893549577301</v>
+        <v>22.52904210271046</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.9039582468689922</v>
+        <v>-0.6661520371530116</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.53995888877813</v>
+        <v>30.68356668826367</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.95432407084663</v>
+        <v>52.01579052571189</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.44397315954777</v>
+        <v>31.91592452159765</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>52.93354290794978</v>
+        <v>50.76250089680831</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>53.588563076618</v>
+        <v>57.26469968561246</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.170232629042658</v>
+        <v>3.665119156813521</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>30.65910771690246</v>
+        <v>27.60158485193537</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>45.75787543155421</v>
+        <v>43.01128473305991</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>57.26517127288226</v>
+        <v>64.5325710456226</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>48.85909410502404</v>
+        <v>54.44776636374577</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.84610288835185</v>
+        <v>64.58391670826117</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>62.22967516255015</v>
+        <v>69.40036062071546</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.04303711773495</v>
+        <v>15.95394573973873</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>57.36102692524786</v>
+        <v>61.70093354192919</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>60.92112038229652</v>
+        <v>64.54979656230537</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>16.31186059680143</v>
+        <v>17.35864611780408</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>46.07549579728411</v>
+        <v>42.51150208291769</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>50.15994126420603</v>
+        <v>47.96711185282138</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2.05732975386103</v>
+        <v>3.230030467507653</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.1154159258306</v>
+        <v>47.22470957470245</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49.09792815705045</v>
+        <v>51.27982300088379</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>12.42019457398687</v>
+        <v>7.715015444223166</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>68.81266200892344</v>
+        <v>73.79383454411362</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.03826308787768</v>
+        <v>79.81398816334094</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>76.38460188561272</v>
+        <v>80.50547617743774</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>85.24213692596392</v>
+        <v>87.42183171247251</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>88.51230283331688</v>
+        <v>95.30201628787827</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>24.84962309880705</v>
+        <v>23.93815679538253</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>78.17561045016591</v>
+        <v>82.07369126939186</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>80.44572850308222</v>
+        <v>85.41376586926849</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>59.01591012524101</v>
+        <v>64.95421286598007</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.64977539833701</v>
+        <v>48.95092112450644</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>53.21392487269959</v>
+        <v>57.23841127695142</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>60.87544173488645</v>
+        <v>67.22191585064344</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.43402006542472</v>
+        <v>7.616622495543702</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>52.62882717631183</v>
+        <v>56.50510919950904</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>59.24524465018941</v>
+        <v>62.14458094278046</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.78571657266678</v>
+        <v>10.64909618362175</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>44.63500714008985</v>
+        <v>38.35287321384423</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>49.73942052135922</v>
+        <v>44.47244382998512</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2.226385953020483</v>
+        <v>0.5883114158732319</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>44.46625337892691</v>
+        <v>45.52002040542679</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>51.6573929685327</v>
+        <v>51.01692718398598</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>12.73330687912419</v>
+        <v>6.163522768990095</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>69.31112606557713</v>
+        <v>73.02899149441417</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>78.38116719039856</v>
+        <v>79.99248269150358</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>75.15923701808373</v>
+        <v>78.69644238511341</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>83.38719303091392</v>
+        <v>85.89518412855274</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>91.1161466049673</v>
+        <v>96.76404433106865</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>19.47671020627356</v>
+        <v>11.60494153527621</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>77.03324906882855</v>
+        <v>80.08103763265851</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>79.73279233396622</v>
+        <v>84.61611108431329</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>54.99609290611401</v>
+        <v>60.02530473783617</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.96407165455028</v>
+        <v>32.84093299135198</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>41.16233221620702</v>
+        <v>42.4170620819789</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.85704987369133</v>
+        <v>51.55412073331629</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>8.795315367807159</v>
+        <v>6.796278233824093</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.29548626628037</v>
+        <v>49.07141873015202</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>56.97799641912309</v>
+        <v>58.05244986934021</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>11.27201074841049</v>
+        <v>7.986094065023682</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>41.37145811729814</v>
+        <v>36.46727112834954</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>52.25558372022093</v>
+        <v>46.78024504909808</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1.002640089723073</v>
+        <v>-1.089635894450243</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.11669519504045</v>
+        <v>38.64365644139703</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>52.21812536834842</v>
+        <v>49.65436831363913</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>8.567974864170246</v>
+        <v>2.14950944556665</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>61.83240628431594</v>
+        <v>62.38797635302207</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>77.23244008890151</v>
+        <v>79.6475058303682</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>66.03916498752052</v>
+        <v>69.83245201016352</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>79.31901770647343</v>
+        <v>85.20775767873518</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>86.9543995503042</v>
+        <v>93.11350507286048</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>15.46611457414293</v>
+        <v>8.211561915420123</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>73.69404453474452</v>
+        <v>77.64120295344014</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>82.17970323364077</v>
+        <v>84.28340368347793</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.09504860639191</v>
+        <v>17.43542558578911</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2.776192385770933</v>
+        <v>13.94967814802322</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>9.17769832199795</v>
+        <v>19.4038947737242</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-4.382272333939</v>
+        <v>8.411056743499334</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-4.665902752670828</v>
+        <v>7.88291269973443</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-2.574208450559677</v>
+        <v>10.82320015914152</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-0.05370946282710776</v>
+        <v>9.987519458757699</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>5.185841499255645</v>
+        <v>14.1892309163027</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>8.3312365130217</v>
+        <v>17.74968747450903</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-4.75575354304382</v>
+        <v>11.86566963980128</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.368589744360321</v>
+        <v>16.40846612751771</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.9042279485788711</v>
+        <v>16.36553465044344</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>9.74752085614317</v>
+        <v>18.72646166311043</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>4.903972590033266</v>
+        <v>10.25082028437581</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-0.09461258770697611</v>
+        <v>15.59747994211514</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.09942446576479</v>
+        <v>9.165055147390635</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>12.02384178826563</v>
+        <v>19.43055508952004</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>21.69079944147415</v>
+        <v>24.24355025684211</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-3.786326744853895</v>
+        <v>1.375429830664331</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.7072831798441186</v>
+        <v>7.042793149985048</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>8.116612622129004</v>
+        <v>10.68554095557243</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-0.07241738084458405</v>
+        <v>5.543186145477826</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>11.20479355182843</v>
+        <v>16.88808037541045</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>10.34933954404678</v>
+        <v>15.29187797872241</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>6.202855674896426</v>
+        <v>15.24468959774738</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>10.22690680801731</v>
+        <v>19.61750344223886</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-2.040942059019521</v>
+        <v>7.6839949770782</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2.531059124332888</v>
+        <v>15.78899236036558</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>4.324706221272578</v>
+        <v>18.05207175270219</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-1.323366274814049</v>
+        <v>12.07531882200553</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>7.039339009996191</v>
+        <v>23.63613108149073</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>10.62554625171491</v>
+        <v>26.74609553852049</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>17.69272036017056</v>
+        <v>29.25817895515168</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>24.94000383270177</v>
+        <v>35.62570414573295</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.23370939233833</v>
+        <v>34.59968509348531</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>17.47111299400972</v>
+        <v>23.1121199998948</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.99005507911253</v>
+        <v>31.39010299768405</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>14.50221091379097</v>
+        <v>31.41746678265189</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>12.40276860315893</v>
+        <v>13.47014412787003</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>22.36373870595448</v>
+        <v>26.02362067329693</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.58982893965257</v>
+        <v>31.60120815457531</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2.271275853504818</v>
+        <v>4.655549909810578</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>16.99806138229766</v>
+        <v>20.77649861106499</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30.35974844989748</v>
+        <v>30.70151377178676</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8.081509730473392</v>
+        <v>10.66605872101437</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>33.05027410069332</v>
+        <v>37.37366456214995</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1.776572927352699</v>
+        <v>8.684500890941706</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>2.099232864918385</v>
+        <v>10.37865122319584</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>7.113001525744867</v>
+        <v>17.6066455014211</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-7.501664608281327</v>
+        <v>4.968227992096192</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.7538616749738161</v>
+        <v>13.75792454515607</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>4.983760823058606</v>
+        <v>17.87547548443678</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-5.810857159213182</v>
+        <v>9.648218073650234</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>6.360424185108773</v>
+        <v>21.88993247816533</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>12.44893387584324</v>
+        <v>27.66032783694711</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>17.33627765537285</v>
+        <v>28.72550231936836</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>24.18118224388719</v>
+        <v>34.94283685691344</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.50623768326791</v>
+        <v>34.14131757179904</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.02387505560197312</v>
+        <v>13.36093942365334</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.52564272063101</v>
+        <v>26.34702673332162</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>12.04961693319277</v>
+        <v>27.5895114525259</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>7.201099464717622</v>
+        <v>8.828370494419985</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16.07746550774763</v>
+        <v>19.73486732076314</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.28914828799818</v>
+        <v>29.19834685568875</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-3.124269365323627</v>
+        <v>1.017497861628542</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>7.814272691426382</v>
+        <v>11.05561126785419</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.26842253943716</v>
+        <v>28.6628326057098</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.6722076257285003</v>
+        <v>4.837807072756231</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>21.54527205979195</v>
+        <v>22.85036113763012</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-2.383629138974808</v>
+        <v>8.122483174705621</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-1.021691923988548</v>
+        <v>8.592400212521888</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>6.713651173585234</v>
+        <v>16.39032482326868</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-10.90510276449579</v>
+        <v>4.109840417915581</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-0.3934536715371699</v>
+        <v>11.61710475047735</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>4.548475650615046</v>
+        <v>16.50393981764244</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-10.30650829251854</v>
+        <v>5.106716376214589</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>5.234275047558633</v>
+        <v>16.76104288687061</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>12.38951965376197</v>
+        <v>23.49403487214768</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>3.505192349393646</v>
+        <v>16.58841692908697</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>9.903804952705421</v>
+        <v>21.67637113389107</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>11.23843638682934</v>
+        <v>22.3378727705848</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-5.522612030591642</v>
+        <v>7.143541856378608</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>10.81908715162847</v>
+        <v>18.42173323031452</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>6.277076604083334</v>
+        <v>21.5108657602649</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>6.587508045328555</v>
+        <v>7.239312903711369</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>14.95510669378244</v>
+        <v>17.49361626772892</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.31059717992824</v>
+        <v>28.85031347818486</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-3.106638553824371</v>
+        <v>2.619771077748453</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8.150314343511024</v>
+        <v>10.68559808243202</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.81116912984512</v>
+        <v>27.84507956974127</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1.864893305752759</v>
+        <v>6.411972008068709</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>20.991213134447</v>
+        <v>19.9294307523794</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>18.57413105994328</v>
+        <v>22.05877360389575</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>9.353315351343582</v>
+        <v>17.68071602014738</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>24.10100510121442</v>
+        <v>26.71932528405357</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>30.56250353922643</v>
+        <v>32.54957121644734</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>3.907157229858552</v>
+        <v>9.424945516064568</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>13.97899360317099</v>
+        <v>16.17904169927421</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.94852627071855</v>
+        <v>21.03228010423567</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.1780766339587</v>
+        <v>16.3813991900741</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>19.17792770492245</v>
+        <v>23.14158600527195</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.90616615487604</v>
+        <v>29.8738626884642</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1.424194813816001</v>
+        <v>1.006612067319917</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>7.224218753214895</v>
+        <v>7.957600785400626</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12.93772061411538</v>
+        <v>12.32677505854589</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>2.502473103865498</v>
+        <v>6.894343473728696</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>20.6828362889983</v>
+        <v>22.21170892634368</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>27.21200512693877</v>
+        <v>28.64564537215205</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>20.74083539183795</v>
+        <v>20.79608297217704</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.82233923715707</v>
+        <v>33.82036812965863</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>39.02569579390858</v>
+        <v>36.74534296273433</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.33457650638991</v>
+        <v>14.85986105693692</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.84618684719949</v>
+        <v>20.98570078009111</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.98967002312557</v>
+        <v>25.75580858637353</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>43.68463686635443</v>
+        <v>47.30310483555</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.19492716586994</v>
+        <v>36.46514363922343</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>49.71621161663205</v>
+        <v>46.68722548641776</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>55.79026584600579</v>
+        <v>54.35399525583118</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>18.52343980673474</v>
+        <v>19.9296566564826</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>48.87455523679087</v>
+        <v>47.53533749971688</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>52.73401957830511</v>
+        <v>50.14232934346348</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>21.05968146703783</v>
+        <v>22.88590529958516</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.73058485827512</v>
+        <v>33.6469465904124</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.61557832026111</v>
+        <v>39.79182894591798</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.94289563466932</v>
+        <v>9.789403626845235</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>35.10693153591789</v>
+        <v>32.48203659178961</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>40.05857877455006</v>
+        <v>38.38135618075436</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>19.40548575891025</v>
+        <v>18.22895758851572</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>57.85560585436892</v>
+        <v>55.27115771235607</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>61.78316008055118</v>
+        <v>58.23153893810495</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>67.07867167256208</v>
+        <v>60.46192212710086</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>75.0498811889349</v>
+        <v>67.93203761503639</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>80.60272892470003</v>
+        <v>73.79302548761981</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.74155692727492</v>
+        <v>40.59550629875488</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>75.52677959575801</v>
+        <v>67.8272578024593</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>73.82962749625423</v>
+        <v>70.01832586111556</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.52158701255775</v>
+        <v>44.29622033227518</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>24.63032853770139</v>
+        <v>25.42324601838124</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>38.90235182270743</v>
+        <v>36.67284641669819</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>50.89568959863429</v>
+        <v>51.07198668103538</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.63779584710826</v>
+        <v>12.51831000596524</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>40.86552083106673</v>
+        <v>39.9730634165297</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>49.82685251612222</v>
+        <v>48.026597614042</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.0093901959518</v>
+        <v>16.99660409814903</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.10989037868079</v>
+        <v>29.05007210962631</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.9032923829651</v>
+        <v>37.7895653587455</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>9.189661226489523</v>
+        <v>6.859212674120226</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.05177672250215</v>
+        <v>30.02158136440473</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.45885909761873</v>
+        <v>39.47817664931092</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>16.79797362318424</v>
+        <v>13.16590665422951</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>55.8729410474615</v>
+        <v>48.9402965319606</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>64.1352325518005</v>
+        <v>57.76947779450163</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>61.39427372853746</v>
+        <v>55.02740544804003</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>70.84767262046375</v>
+        <v>64.17706365175128</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>81.67008017384029</v>
+        <v>74.73674000151308</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>31.95212330699326</v>
+        <v>28.66870274535517</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>72.30252187761801</v>
+        <v>63.87774435840502</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>73.09110651385278</v>
+        <v>69.84763560921165</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>40.83454687007659</v>
+        <v>42.81179950034576</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10.93781392295785</v>
+        <v>16.16129032001088</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.87156718059801</v>
+        <v>24.66458849973378</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.9097698927739</v>
+        <v>38.04664987645968</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.625498608309211</v>
+        <v>8.591117698663719</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>31.66140470148755</v>
+        <v>30.80984652880771</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>43.18098097645999</v>
+        <v>40.85571371663345</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.66966239562986</v>
+        <v>15.39996371842112</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.80726840464962</v>
+        <v>29.8906936257237</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.55501605964134</v>
+        <v>40.23902929592372</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>4.468015052386953</v>
+        <v>5.334220657788638</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.4403672306497</v>
+        <v>26.84333584344608</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>39.99612708884712</v>
+        <v>38.36035178599635</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10.15013435739007</v>
+        <v>11.69023381409681</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>45.49968697208675</v>
+        <v>44.69963155397961</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.11898207250117</v>
+        <v>59.16566421120712</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>43.25653942922239</v>
+        <v>43.13084133936445</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>58.50428507759266</v>
+        <v>57.06451465101487</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>71.55583283233878</v>
+        <v>69.4173237488064</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>20.43477875009687</v>
+        <v>17.22048407291141</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>59.83202044875574</v>
+        <v>54.3586455965514</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>66.11441267418785</v>
+        <v>62.72568468209664</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.7215343158385</v>
+        <v>18.79031782976621</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.78708877954379</v>
+        <v>27.81930155530533</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.04286498684669</v>
+        <v>29.6622232410773</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1.330235480175791</v>
+        <v>7.281363444020457</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>14.58378435134515</v>
+        <v>17.4036963313719</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>14.34483979354849</v>
+        <v>19.05677544641143</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.382458245447999</v>
+        <v>10.53338212364406</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.7504029795691</v>
+        <v>30.3918290534799</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.85394769305303</v>
+        <v>33.48124205458982</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>21.2633070599935</v>
+        <v>28.10728469460528</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.6042413360038</v>
+        <v>35.27901104468014</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.65053193755125</v>
+        <v>36.65228045831309</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-2.351780263591063</v>
+        <v>7.29681626010667</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>20.993347620634</v>
+        <v>21.08851463795835</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>13.82364148633509</v>
+        <v>20.75548659158149</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.56897878881727</v>
+        <v>14.07790683349238</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>18.85778346080388</v>
+        <v>24.23548593605283</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.80697637460381</v>
+        <v>27.81398911219582</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-0.2581100843375062</v>
+        <v>4.141238890268149</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>8.887585691353312</v>
+        <v>12.11601776857587</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.62493336483763</v>
+        <v>16.09175988655262</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>3.376682952512432</v>
+        <v>7.522804560778319</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>18.22002471734469</v>
+        <v>22.55738187576069</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>17.17815135701558</v>
+        <v>17.98250201883764</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.42780317687376</v>
+        <v>33.49815020636176</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.97271932470328</v>
+        <v>32.30775280023844</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>4.025967707371485</v>
+        <v>8.797019679767988</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.24858734502499</v>
+        <v>29.77099337189705</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.62516261602419</v>
+        <v>30.52027426846511</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>7.506336800863959</v>
+        <v>12.96840277129004</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.34859039036791</v>
+        <v>42.7877634511039</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>32.25066261077968</v>
+        <v>44.02693252760156</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.18270753776164</v>
+        <v>46.56658894630394</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>52.92213642185146</v>
+        <v>54.92969320616998</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>48.0441911182869</v>
+        <v>51.27461251596529</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>5.728668464701173</v>
+        <v>11.00196259067785</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>44.82508319938957</v>
+        <v>46.66861868263395</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.63027912687362</v>
+        <v>44.37105086812659</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.39950822010285</v>
+        <v>14.29078989572061</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.40041478863516</v>
+        <v>30.57176148309428</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.69290611922317</v>
+        <v>33.99550817509158</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.939445508967555</v>
+        <v>5.625486791565312</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.10573777567814</v>
+        <v>26.22937730352615</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.25238545674337</v>
+        <v>33.60613750028484</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>11.14295682446645</v>
+        <v>10.60280523299225</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>39.84427814228338</v>
+        <v>42.72699372212335</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>13.00220635531275</v>
+        <v>13.4829997230807</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.94155461981188</v>
+        <v>27.64106248395231</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.38418284366663</v>
+        <v>29.73314272902969</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>3.386416131967994</v>
+        <v>9.013545293832355</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.09707794403308</v>
+        <v>27.69300656178034</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.44770436257894</v>
+        <v>30.31912715138033</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>8.15668863529093</v>
+        <v>13.62228571261496</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.59843364129615</v>
+        <v>40.44939253412514</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.47523476533848</v>
+        <v>44.1261045562032</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>42.61819444667009</v>
+        <v>47.26044980552051</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>54.20528215187444</v>
+        <v>55.11104015591845</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>49.92729111215178</v>
+        <v>49.61446309129435</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>0.1620725912558889</v>
+        <v>9.786683774828575</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>42.58486432770128</v>
+        <v>40.38574971175465</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.46420742850535</v>
+        <v>38.46535206508174</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.31801027283512</v>
+        <v>8.859605303614078</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.86028885752273</v>
+        <v>23.90603408582962</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>35.19761176278027</v>
+        <v>30.73949978352727</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>2.155832938822222</v>
+        <v>2.827183981412833</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>18.48400334441112</v>
+        <v>18.14370543403597</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.09501329760545</v>
+        <v>31.88419153575405</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.318834260740399</v>
+        <v>6.359061839200223</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.03485970145076</v>
+        <v>30.98851316355842</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>8.727235524816908</v>
+        <v>13.10048825034534</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.86099029875236</v>
+        <v>24.6721154733693</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>24.7480733616452</v>
+        <v>29.29810264571291</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.2977777953490097</v>
+        <v>8.837188917503067</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.87147197800557</v>
+        <v>25.51255556724605</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.8698731981574</v>
+        <v>29.86237627883018</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>2.888625940136507</v>
+        <v>9.75694793664082</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.27191395144623</v>
+        <v>35.37102371608423</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.41504449439266</v>
+        <v>41.33564600180907</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.18902457849335</v>
+        <v>39.91223842785585</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>42.38136308572836</v>
+        <v>45.48939485625883</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.55433117867848</v>
+        <v>44.67392726020064</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-0.7948943885413051</v>
+        <v>10.22427937226815</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.02298684718021</v>
+        <v>36.90504758892361</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.96049738169591</v>
+        <v>34.77909719967522</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>10.71105632892867</v>
+        <v>10.04946973916374</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.20359969027325</v>
+        <v>21.56347639743872</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>34.9204381077445</v>
+        <v>31.38787571886627</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1.779715750278296</v>
+        <v>5.539283137747351</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>16.33833050498546</v>
+        <v>16.22568718979614</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.37059956740102</v>
+        <v>32.02989990532444</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>6.959125208353239</v>
+        <v>8.950703791038976</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.17814709715431</v>
+        <v>25.94099498106008</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.54763725372347</v>
+        <v>27.3591944809872</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>20.79930686815367</v>
+        <v>23.87671934850041</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.80421523273511</v>
+        <v>33.11934639482288</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>37.69541483344116</v>
+        <v>35.50875472699747</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0.6967847437429135</v>
+        <v>6.252202228586512</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.08780204451089</v>
+        <v>20.12059245395806</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.74704387520926</v>
+        <v>25.31032239961667</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.12435720163001</v>
+        <v>15.33348774062436</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>21.92534832454206</v>
+        <v>25.00430319096671</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.02904843008366</v>
+        <v>31.37799582026746</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-5.182691696770441</v>
+        <v>2.765867866591453</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.253882739628883</v>
+        <v>10.80334685172711</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16.66965798711589</v>
+        <v>16.24377058254469</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-0.5723239787912782</v>
+        <v>6.223509023363153</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.59294984300729</v>
+        <v>21.8080329956254</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.54127577106151</v>
+        <v>32.99507195048831</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.83240714237199</v>
+        <v>23.21715587991106</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>37.49822378463494</v>
+        <v>35.60637185304542</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>41.00376062934134</v>
+        <v>42.43467840061135</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-2.685733031746203</v>
+        <v>7.366248014577302</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>20.11826487635614</v>
+        <v>21.70772237752582</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.01464330731208</v>
+        <v>31.00649588267823</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>49.665684255431</v>
+        <v>50.51333111180008</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.0529123667615</v>
+        <v>44.58645596497615</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>55.46075877729652</v>
+        <v>52.60957817518347</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>59.58117410440407</v>
+        <v>54.96117966322262</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>11.32032337689534</v>
+        <v>12.0880964707075</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>49.66824541595452</v>
+        <v>49.21937738852793</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>53.00132444653151</v>
+        <v>51.9593940802296</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>17.92116889741762</v>
+        <v>19.26749089046669</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.84352688159856</v>
+        <v>37.20117030404339</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>44.24371658065347</v>
+        <v>40.11675940117811</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>6.091246146886991</v>
+        <v>8.723882408419005</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.62880859401965</v>
+        <v>35.19334401372208</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>41.24612552612533</v>
+        <v>39.05859289308194</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>14.3530877877363</v>
+        <v>13.86132462878877</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>56.33229008204291</v>
+        <v>53.86557512198954</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>61.08589418401287</v>
+        <v>57.46931063834849</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>64.65911730060209</v>
+        <v>62.20492759680461</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>72.00932992601055</v>
+        <v>65.69321755996673</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>76.93805176832961</v>
+        <v>72.6507994408061</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.59647146096824</v>
+        <v>21.32758940275597</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>66.04815529836671</v>
+        <v>61.98718360818704</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>66.62910275990835</v>
+        <v>65.51202327043124</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>48.20001407474467</v>
+        <v>47.97949255361411</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>36.88981023245593</v>
+        <v>36.75621793764769</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>47.68880161679292</v>
+        <v>44.72490811202495</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>56.11172504051208</v>
+        <v>53.74925655957205</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>7.85127773801484</v>
+        <v>6.787144713243407</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>44.4982963249435</v>
+        <v>43.71076104087356</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>51.61158791071973</v>
+        <v>50.60967734943749</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>15.26874031480178</v>
+        <v>12.05713860545811</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>38.73277524217529</v>
+        <v>30.86347511028828</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>43.59693096867521</v>
+        <v>36.14548650669321</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.494236964004863</v>
+        <v>5.135446243983221</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.77116385980558</v>
+        <v>30.51489294630466</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.0819191923533</v>
+        <v>38.28429432995281</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>13.28701535870704</v>
+        <v>9.244228060425897</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>54.99815468610687</v>
+        <v>47.27291140857488</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>63.05546645018902</v>
+        <v>55.55551358164649</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>61.06782706262339</v>
+        <v>56.20348703050897</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>69.11633152037913</v>
+        <v>61.81973583634608</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>78.01192608602753</v>
+        <v>72.29909835448014</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>15.60058557601874</v>
+        <v>12.95106294291853</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>64.44307614774019</v>
+        <v>57.93834409337495</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>66.61061061414757</v>
+        <v>64.61808953880126</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>45.80886759370846</v>
+        <v>46.74519151887134</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.52481621833985</v>
+        <v>24.65492292839586</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.29828648430158</v>
+        <v>32.2520485590597</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>45.08997804195459</v>
+        <v>42.7635541476627</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>5.862034104570039</v>
+        <v>7.554739072497973</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.50240745175473</v>
+        <v>37.08227757642847</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>45.93615223218809</v>
+        <v>46.61227853564414</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>11.73751846619963</v>
+        <v>12.02075531456866</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.54197435942013</v>
+        <v>27.43575763478243</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>42.98934213478728</v>
+        <v>37.75289965571797</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>0.01699508410476369</v>
+        <v>4.703571661533537</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.13676601380757</v>
+        <v>22.85665496150409</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.14350170420241</v>
+        <v>36.67460160463861</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.699163453395073</v>
+        <v>7.531505024963334</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>42.01664909701496</v>
+        <v>35.3021447159811</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>56.5501236142056</v>
+        <v>54.66340863346622</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>43.46786507603977</v>
+        <v>39.81851494792419</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>57.61711553768784</v>
+        <v>53.9489864523731</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>68.45983328840016</v>
+        <v>67.44930537671317</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.398800019418115</v>
+        <v>9.030305438165591</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>53.67824060713927</v>
+        <v>47.70491859805455</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>61.86796795144494</v>
+        <v>60.94262407502131</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9.826434539800299</v>
+        <v>11.78916491286861</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.61578777260838</v>
+        <v>20.7599757151159</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.14849036887266</v>
+        <v>28.93994249605093</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3.974994051197967</v>
+        <v>-0.6614859198912235</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.01566762388244</v>
+        <v>15.15613693904522</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.8998761769904</v>
+        <v>18.81194276838401</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.719521429509445</v>
+        <v>1.682685116091072</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>33.69208992590724</v>
+        <v>32.89316424092495</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>37.29234586040933</v>
+        <v>37.52013873851922</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.54469238101051</v>
+        <v>22.28070688642702</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.02894726087823</v>
+        <v>28.61820436306585</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.98348180810629</v>
+        <v>30.08393403864251</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>2.982249230264241</v>
+        <v>4.521054091196259</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.20280647641169</v>
+        <v>21.02075728701008</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.50355900860789</v>
+        <v>32.70533962981025</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>13.25187082005981</v>
+        <v>12.06773027016058</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.60570937592425</v>
+        <v>25.12848526455158</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.06274607456078</v>
+        <v>30.00301011887906</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-2.027536292220784</v>
+        <v>0.3998784684637791</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.2326215212542</v>
+        <v>12.12578183124058</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.19899542574437</v>
+        <v>16.55354584603641</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.5591584183753433</v>
+        <v>2.105531659757165</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.9860165029578</v>
+        <v>24.42633797419046</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.36422410336386</v>
+        <v>16.09073794188545</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>33.61763855690912</v>
+        <v>34.00805392220646</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.75168422421103</v>
+        <v>35.51078681910542</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.886221589382121</v>
+        <v>4.19716464001619</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>35.33551377548702</v>
+        <v>36.22721321360752</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.85445077324081</v>
+        <v>37.45176722971835</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>10.3963344666919</v>
+        <v>7.751022323566307</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>48.25763202269495</v>
+        <v>52.50792248673892</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>48.46827089396771</v>
+        <v>52.74852557218991</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>50.57674606724218</v>
+        <v>53.2105078734135</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>59.03215003673124</v>
+        <v>59.29552219669498</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>58.28493694820949</v>
+        <v>57.54867739962407</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.64617772404972</v>
+        <v>17.14146771984958</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>53.01123872862594</v>
+        <v>58.44228373634058</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>59.25766405901861</v>
+        <v>62.63518409256743</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.96255008985372</v>
+        <v>16.48132747668031</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.38041964068927</v>
+        <v>36.10583137083366</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>38.29075767912325</v>
+        <v>36.26996607390038</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.389089990468776</v>
+        <v>2.340994902174756</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.63172655964416</v>
+        <v>31.60693356113824</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.85838187321538</v>
+        <v>33.28138895887253</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.43955360810469</v>
+        <v>5.833691455744027</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>49.74274240910535</v>
+        <v>52.25429336693853</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>11.90959419383372</v>
+        <v>7.351930121534803</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.80951323187389</v>
+        <v>25.52723908406647</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>32.00514231852332</v>
+        <v>31.76272038131836</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>3.704890459667013</v>
+        <v>2.937766142733796</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.73201383102325</v>
+        <v>32.47553482537488</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>38.98156639973533</v>
+        <v>37.24318314083038</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>10.27533239626607</v>
+        <v>8.353933855334585</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.73261111477146</v>
+        <v>49.4036922377095</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>51.85120083271418</v>
+        <v>54.14749995561518</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>54.44895103446106</v>
+        <v>58.23179707808048</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>61.23731285474217</v>
+        <v>63.49493963925653</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>62.26167996768933</v>
+        <v>61.38319197255528</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>3.774946000116447</v>
+        <v>2.89070011419593</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>44.04226056581733</v>
+        <v>44.61477823481775</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>54.44643225516221</v>
+        <v>50.13194065870787</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.48491562308399</v>
+        <v>11.47845560217026</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.76018973264718</v>
+        <v>32.38835839191928</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>37.93481568867053</v>
+        <v>34.20571553072772</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.473227277647236</v>
+        <v>2.384477194520358</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.31066141717671</v>
+        <v>27.73303774959812</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.00930408044109</v>
+        <v>33.93281905329741</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.042681644573404</v>
+        <v>7.320234356741377</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.87172109388512</v>
+        <v>48.55426152846825</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.645733981956127</v>
+        <v>5.281009936517879</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.30149337057086</v>
+        <v>19.66692358518188</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.84893460633644</v>
+        <v>30.88836901590756</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-1.335203372630907</v>
+        <v>3.294498086401624</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.7947450746647</v>
+        <v>28.18137313500688</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.56042834360066</v>
+        <v>37.41413899779504</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>2.513832173777278</v>
+        <v>3.502676677194749</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.96409852741355</v>
+        <v>40.81924261808732</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>48.81386803699891</v>
+        <v>52.02789437854551</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>42.51194153576723</v>
+        <v>45.55284210032238</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>48.25208666568133</v>
+        <v>51.34113108592391</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>53.33569469392535</v>
+        <v>55.9616178457421</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-1.250230873865736</v>
+        <v>0.3681314461830958</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.47054017516044</v>
+        <v>33.35184130639482</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>47.59552444187499</v>
+        <v>47.48183920253011</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>10.69622787016755</v>
+        <v>8.698239382928808</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.7688929082303</v>
+        <v>26.14607451609221</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>37.15606875498567</v>
+        <v>33.59736377347247</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.8048032387592841</v>
+        <v>3.080683064454881</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.93103478004483</v>
+        <v>23.04456737841818</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.52597292148474</v>
+        <v>35.14903958986239</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>5.876641331757543</v>
+        <v>5.965361022183441</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.72998154484225</v>
+        <v>37.52096986001929</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.67871068775534</v>
+        <v>29.47266408527186</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.53002411652482</v>
+        <v>25.78299265022582</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.23641022697943</v>
+        <v>38.58579763790986</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>39.16250715880025</v>
+        <v>39.37169804083749</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>2.978088800130212</v>
+        <v>6.84763596654642</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.01135702156951</v>
+        <v>22.78954106368561</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.70882103764736</v>
+        <v>28.98986706494748</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>11.47206022654592</v>
+        <v>12.2333650524401</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.34310469883973</v>
+        <v>24.25123730065125</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.76723777931159</v>
+        <v>35.10435263130139</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-6.305752410254154</v>
+        <v>-2.970741637223046</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>11.55693614374813</v>
+        <v>9.179861031944387</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>20.34710805725405</v>
+        <v>16.86292415425036</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-2.582809088272075</v>
+        <v>0.07055288708902552</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.64668049478825</v>
+        <v>23.11424211857764</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.45954474050637</v>
+        <v>41.00952949460667</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.58233124017453</v>
+        <v>26.3418771036487</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>48.19286665162545</v>
+        <v>45.32985996649985</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>48.43247767478644</v>
+        <v>52.07981113393056</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-2.831244044414451</v>
+        <v>0.8670732622569659</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>22.5544247668584</v>
+        <v>20.34983892990515</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.7697465119559</v>
+        <v>36.65946752133496</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>52.78096547373808</v>
+        <v>54.56674085577601</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.09193891367423</v>
+        <v>55.45944359556837</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>62.37469563998056</v>
+        <v>61.82874545659151</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>62.67304231345615</v>
+        <v>61.31467331708645</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>16.7332612934879</v>
+        <v>16.22355026988199</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>58.41455234548313</v>
+        <v>57.69112711516422</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>58.49415530416661</v>
+        <v>57.25232621528332</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.18237775774002</v>
+        <v>18.27717459802819</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.25844473220967</v>
+        <v>40.15141972430902</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>49.06444633683315</v>
+        <v>44.72874324359286</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>3.348431917754016</v>
+        <v>5.046668164251777</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>40.44858896458099</v>
+        <v>43.86193200989747</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>46.65792227218869</v>
+        <v>46.21531210654041</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>10.3931820652949</v>
+        <v>7.313700586395914</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>62.99208849076642</v>
+        <v>65.02810721736115</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>70.90957978103417</v>
+        <v>70.38539776457846</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>72.7758205900425</v>
+        <v>74.82870685034608</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>82.82063205685601</v>
+        <v>79.8750052636366</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>86.50281190144686</v>
+        <v>86.58471912267882</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>20.319552782119</v>
+        <v>18.41469753423552</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>72.9545111564976</v>
+        <v>72.87331613103015</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>75.89994920144618</v>
+        <v>77.08922158796133</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>54.52517754182628</v>
+        <v>57.90772963572476</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>46.42655158187674</v>
+        <v>50.78903219365575</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>54.77631391167967</v>
+        <v>55.54593970110604</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>61.09101439385236</v>
+        <v>61.87925437887863</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.59884587355058</v>
+        <v>10.16271218821893</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>52.80674418568709</v>
+        <v>53.77743475909101</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>57.43542121623928</v>
+        <v>56.48280800123047</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>14.44411928432878</v>
+        <v>10.62471999704693</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.47699798988452</v>
+        <v>34.19761623749886</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.23231642612367</v>
+        <v>41.09733770173648</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>2.856718745892824</v>
+        <v>2.755863548057906</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.63684613743877</v>
+        <v>40.28027932172333</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>49.58181173481998</v>
+        <v>46.69302081315091</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>9.572971848929505</v>
+        <v>5.315139558556439</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>61.93583124102665</v>
+        <v>61.25851701063389</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>74.4346222140361</v>
+        <v>71.05609140973841</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>69.19325539408811</v>
+        <v>72.8458927685685</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>78.62642585486759</v>
+        <v>76.67609003379988</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>88.3777171656421</v>
+        <v>88.04456613443074</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>13.27151767075565</v>
+        <v>8.638551213539596</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>69.22673859489215</v>
+        <v>67.83678154453726</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>74.52216260065683</v>
+        <v>76.32281775103364</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>51.4078687125905</v>
+        <v>53.91660483222884</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>30.77410513707089</v>
+        <v>32.13660398639224</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.62501086655645</v>
+        <v>39.47934203690011</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>48.75001686625063</v>
+        <v>47.02702535201688</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>8.543337906102309</v>
+        <v>8.567599733661464</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>44.0093567443696</v>
+        <v>46.75350177741473</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>53.30124774515679</v>
+        <v>53.76731117122044</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>10.33698751018623</v>
+        <v>8.470386775023403</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.75320501038011</v>
+        <v>30.5089065461865</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>49.13138299443548</v>
+        <v>43.57797850870918</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-2.11132380701255</v>
+        <v>0.1646823631326946</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.60978314835403</v>
+        <v>30.40718048240117</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>47.47443386854574</v>
+        <v>44.71064229963795</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2.740338440378693</v>
+        <v>0.5572623816000224</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>50.08036077120653</v>
+        <v>46.06242660527035</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>69.56138848809401</v>
+        <v>69.14279888707698</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.1332797455314</v>
+        <v>53.81927778809833</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>70.79472478657163</v>
+        <v>69.32785123579858</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>81.70560596462374</v>
+        <v>84.26052639481506</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>7.721924285871371</v>
+        <v>3.176526192431815</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>61.46846389701523</v>
+        <v>57.55362150399915</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>73.80297746379007</v>
+        <v>74.47205596936385</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>17.3039673081968</v>
+        <v>21.75718944524513</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>17.44999274292773</v>
+        <v>21.52416459304911</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.71447483943261</v>
+        <v>32.68719569247655</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>10.85915224600652</v>
+        <v>14.24404969253399</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.77396171016044</v>
+        <v>29.08950787282576</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.07177382653252</v>
+        <v>33.18486026764469</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.67338998882459</v>
+        <v>15.9027503042818</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>39.36018899691487</v>
+        <v>39.3143475578609</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>44.99678764683372</v>
+        <v>43.9891036033653</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>20.80021682329894</v>
+        <v>21.43412622962821</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>23.81083342199722</v>
+        <v>25.42377742979646</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.88370343378891</v>
+        <v>24.24089803877795</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.09945075166</v>
+        <v>23.48778780212703</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>19.34023346210788</v>
+        <v>17.62438802556602</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>39.12448187805753</v>
+        <v>37.63245844273661</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>15.79566899749388</v>
+        <v>15.43572874046758</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>17.99957476946891</v>
+        <v>21.83926625798642</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.92069537960613</v>
+        <v>28.525768430859</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>15.6031272680971</v>
+        <v>19.83652385493958</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.0830405681593</v>
+        <v>23.65739766589173</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.77071925239462</v>
+        <v>25.48972079824056</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>6.024039826589757</v>
+        <v>9.052216461999876</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.49092401919824</v>
+        <v>20.09416507474129</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.46830454099352</v>
+        <v>22.87491792833441</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.90097509118622</v>
+        <v>27.20063871931263</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.16808537759016</v>
+        <v>34.05771375405887</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>16.94204021206657</v>
+        <v>14.55212136605116</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>41.76816302122739</v>
+        <v>41.63042938011429</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.78683781496551</v>
+        <v>41.6095720710555</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>17.39561170366539</v>
+        <v>15.74807321557509</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.88689572823532</v>
+        <v>45.12993206418838</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>50.55325182841714</v>
+        <v>48.62869948880807</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>54.35557895576012</v>
+        <v>52.33373778713076</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.14539114462383</v>
+        <v>53.99500005713028</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>58.83296064135588</v>
+        <v>51.17820432280168</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>39.32034468488615</v>
+        <v>38.0530616833108</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>56.09115883170517</v>
+        <v>54.34092152596089</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>63.89706847381419</v>
+        <v>63.89099740449026</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>16.29255450398017</v>
+        <v>19.49927853184972</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>27.03277494558442</v>
+        <v>27.32220194105875</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>31.70061930805648</v>
+        <v>29.60960793076959</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>18.1623012570848</v>
+        <v>19.84711985531398</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.74277263850459</v>
+        <v>32.26949554607892</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.69196937090314</v>
+        <v>32.86360862389491</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.05798471346639</v>
+        <v>10.13037788792844</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>40.4580905173538</v>
+        <v>36.43977382191828</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>11.61553126759176</v>
+        <v>13.80513935235321</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.32342189954688</v>
+        <v>21.87631009185873</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.78286770553901</v>
+        <v>31.60780440451909</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>9.913620953090447</v>
+        <v>10.28251801000892</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>40.03690508572474</v>
+        <v>39.08178990764049</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>42.94187720959941</v>
+        <v>40.91273716765032</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>11.94788545204498</v>
+        <v>13.63735210580402</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.01947374591371</v>
+        <v>45.26449190139532</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.58333389704242</v>
+        <v>50.95150988816783</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>54.0728401985459</v>
+        <v>54.39728879254646</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>59.04436960099987</v>
+        <v>54.93422875171902</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>59.69256649789297</v>
+        <v>53.33420833498505</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.32382321330104</v>
+        <v>14.60875899169802</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>46.22192604309598</v>
+        <v>42.22945732019025</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>57.44230044199436</v>
+        <v>53.04871979124659</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>13.57202563534422</v>
+        <v>17.28698014715732</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>24.40248149343745</v>
+        <v>27.72968700065209</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.02346109108033</v>
+        <v>29.91347731735828</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>16.15494847548004</v>
+        <v>19.81616933867835</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.70247014197446</v>
+        <v>30.40522957662555</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>40.95234578940618</v>
+        <v>33.54322814121269</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>6.837872514200541</v>
+        <v>12.00026731316633</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>34.01865086033352</v>
+        <v>35.34816752981389</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>4.969786855143461</v>
+        <v>9.389051314254296</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>15.9122497538119</v>
+        <v>14.50341742199162</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.80751182373768</v>
+        <v>27.76921423527743</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>6.351348551445362</v>
+        <v>9.975771991689673</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.08730422631747</v>
+        <v>34.74416747793034</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>41.95874314593433</v>
+        <v>40.98440864417852</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5.637503395548286</v>
+        <v>8.204198744412519</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.62587199055714</v>
+        <v>39.33451868875008</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>50.41484386311588</v>
+        <v>48.36582617042014</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>42.20917155477211</v>
+        <v>43.11610433153386</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.60715213922863</v>
+        <v>44.73792338097621</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.78427768780756</v>
+        <v>47.95565352111436</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>6.090378138844777</v>
+        <v>7.195131057571469</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.63360895616102</v>
+        <v>26.66990343182481</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>48.36267671605944</v>
+        <v>48.29250020330203</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>11.21314945403385</v>
+        <v>12.49309805350741</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>21.84224987995949</v>
+        <v>23.05210511679011</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.5729807367853</v>
+        <v>30.11108553095132</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>16.09631384502838</v>
+        <v>19.97423800364429</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.88203985238134</v>
+        <v>30.53736506798534</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>42.38285250001783</v>
+        <v>37.85419581110074</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.95893442252148</v>
+        <v>9.035964551663074</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>32.61686384904843</v>
+        <v>29.98762019029533</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.34798053863485</v>
+        <v>24.01939486812284</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>17.61352255788721</v>
+        <v>19.22764137288869</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.85153453038772</v>
+        <v>28.32565099131694</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.16657865931782</v>
+        <v>29.16707785380569</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>7.922658657802046</v>
+        <v>13.05880859984223</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.38059653659233</v>
+        <v>16.03338902786793</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.85449591702497</v>
+        <v>21.74675467101429</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.08646586088699</v>
+        <v>16.71981899217572</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.48378778924925</v>
+        <v>24.1708947202713</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.17447295373077</v>
+        <v>32.89852946718497</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>18.20089274446635</v>
+        <v>17.85806691271657</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.92157567856798</v>
+        <v>24.63864143258359</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>32.24456139220185</v>
+        <v>28.48419780179184</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>9.55108912321279</v>
+        <v>10.33431999476907</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.6213297803339</v>
+        <v>27.19433071786764</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>38.41491421274166</v>
+        <v>38.72280486034064</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.26097770517369</v>
+        <v>25.13157258327762</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.21541508491811</v>
+        <v>38.6642413920231</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>45.55027973169754</v>
+        <v>43.24497241331355</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>12.01304793154715</v>
+        <v>12.27239308283386</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.27077434204695</v>
+        <v>20.92555502031472</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.60135034889235</v>
+        <v>30.95108469854702</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>44.00501650270333</v>
+        <v>38.75181975836653</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.35528350240119</v>
+        <v>40.03040201120761</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>53.61313841714552</v>
+        <v>44.83722670453524</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>50.62163282619471</v>
+        <v>43.97490422675222</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.37544693864312</v>
+        <v>23.90563838472018</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>51.75743439333249</v>
+        <v>43.74486746651458</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>54.02728756074551</v>
+        <v>44.55751619180227</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>21.51143834210147</v>
+        <v>23.49926184429111</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>40.44731379449502</v>
+        <v>34.05196852436629</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>44.0542189664898</v>
+        <v>38.31366858007738</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>24.32766578605281</v>
+        <v>23.76635811498797</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>49.02898653690659</v>
+        <v>44.94017719111196</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>53.26418241999997</v>
+        <v>45.10933471081539</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>17.16000734602709</v>
+        <v>14.81960294628839</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>60.76999901715871</v>
+        <v>54.71859590343102</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>65.31066207467416</v>
+        <v>56.72356320601942</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>75.73789607071022</v>
+        <v>64.1017015162119</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>78.67507815566928</v>
+        <v>66.68424819774019</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>81.60569167966777</v>
+        <v>70.42743323936263</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>37.31234288796291</v>
+        <v>32.83241359550197</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>72.60248846605118</v>
+        <v>62.51287288709257</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>76.94343503932573</v>
+        <v>65.65240930056893</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>45.28914207430573</v>
+        <v>43.20563912406497</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>35.81917902193027</v>
+        <v>35.02034484342319</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>44.6511951640973</v>
+        <v>39.21383867987164</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>48.62948302146066</v>
+        <v>44.2811309938025</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.69748728602291</v>
+        <v>19.21065770473456</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>45.7964077581052</v>
+        <v>41.01981090283049</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>52.55308416088715</v>
+        <v>44.19690746983429</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>17.74134964452678</v>
+        <v>18.78017052132847</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.51294120023568</v>
+        <v>31.81770320548016</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.65540147225752</v>
+        <v>37.11795448660509</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.70904909118779</v>
+        <v>23.03932623187511</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>49.26057288415313</v>
+        <v>46.38361510311154</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>56.71557844208888</v>
+        <v>47.04906220519821</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>15.57549532119395</v>
+        <v>14.09534278302117</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>60.07731985540212</v>
+        <v>54.6437594492719</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>68.83686991433471</v>
+        <v>58.79539491834102</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>70.8046916886609</v>
+        <v>63.391138268246</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>74.06925996902102</v>
+        <v>65.08847670175381</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>83.37530685871047</v>
+        <v>73.27176632966626</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.23935932334696</v>
+        <v>24.21429530683912</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>68.28284159261955</v>
+        <v>59.19102485270027</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>75.18526535001956</v>
+        <v>65.54874254000505</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.653527168349</v>
+        <v>42.31439537978959</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.64629974762035</v>
+        <v>22.47325523804</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.52408555497431</v>
+        <v>27.08772878660552</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>38.26221458548147</v>
+        <v>33.90160099531553</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.6370500070265</v>
+        <v>13.38923693205384</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.11337229999393</v>
+        <v>34.2389430342331</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>48.24636192252936</v>
+        <v>41.12381094419609</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.49401517107306</v>
+        <v>15.36479837267642</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.70740565542977</v>
+        <v>31.17827202854825</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>45.42270760549601</v>
+        <v>39.89331848823061</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>21.26028182756914</v>
+        <v>21.19136444334951</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>45.40616711904904</v>
+        <v>42.77903180180385</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>57.20751485645118</v>
+        <v>48.8139842664054</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>11.33598233860181</v>
+        <v>10.52756598953205</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>50.65344613674388</v>
+        <v>47.92474156331246</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>66.28001411873784</v>
+        <v>59.99421531008637</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>58.28052219105378</v>
+        <v>53.97657087576403</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>65.01886038974895</v>
+        <v>59.63068657686864</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>78.26541540308652</v>
+        <v>72.80967646024941</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>20.2940950862671</v>
+        <v>16.11256650535499</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>56.49087205249731</v>
+        <v>50.48695136482685</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>71.63198958199756</v>
+        <v>63.69015134794658</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.542</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.423</v>
+        <v>17.34</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.76</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.123</v>
+        <v>14.07</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.979</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.967</v>
+        <v>6.835</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.917647148204097</v>
+        <v>3.132097143515566</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.1794265305977</v>
+        <v>0.1542240270089295</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.04917254250382</v>
+        <v>14.89365225432407</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.189187436575853</v>
+        <v>-3.295838185297708</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.55747118290076</v>
+        <v>4.888671564813151</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>17.16031637335274</v>
+        <v>16.84809231401483</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.989168673846503</v>
+        <v>-0.9586254613668359</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.92596678712485</v>
+        <v>17.55448818637252</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.78999320602881</v>
+        <v>26.67455251643069</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.11258620415511</v>
+        <v>3.845024208695062</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.72581603434746</v>
+        <v>7.570494686398753</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23.31762196638088</v>
+        <v>11.29951641414306</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.4309029695047</v>
+        <v>13.30452022405126</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18.49442451822609</v>
+        <v>15.78581848194247</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.02134347619121</v>
+        <v>39.45289764984791</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.769870077073406</v>
+        <v>11.82877227932155</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.01113033241856</v>
+        <v>17.94071073155331</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.61196492099114</v>
+        <v>29.96488895517396</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-3.34392779784552</v>
+        <v>-1.571667423695434</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.40624886626733</v>
+        <v>10.3446533882905</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.01767370954511</v>
+        <v>16.72766848413652</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2.310914933558593</v>
+        <v>0.4589395498448177</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.08975898425087</v>
+        <v>21.42392545611868</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.31600340069679</v>
+        <v>8.723044689257632</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20.65882193043157</v>
+        <v>12.01272762793437</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>23.22834179269826</v>
+        <v>19.2052234811313</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-1.480864835626505</v>
+        <v>1.319657765854686</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.30926604989075</v>
+        <v>17.72606994550484</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.7059973021101</v>
+        <v>24.95829517975817</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.70430889537975</v>
+        <v>0.6450853198353244</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.35192616497128</v>
+        <v>26.33294002216975</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.66129801681119</v>
+        <v>30.01613259907429</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.0860419630498</v>
+        <v>26.65000831695381</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.23936375306869</v>
+        <v>31.42864787507661</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.06843872040169</v>
+        <v>36.31874883928754</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15.74900541997479</v>
+        <v>19.5168153416743</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>46.82644875744718</v>
+        <v>35.65083575827218</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53.91121336917813</v>
+        <v>50.46841778235802</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.55516522731389</v>
+        <v>15.16526334264289</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.82865620995433</v>
+        <v>32.98917645272608</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>40.30735378511049</v>
+        <v>40.60619815695095</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1621252333637031</v>
+        <v>3.31143305144877</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.44769439319356</v>
+        <v>30.40028868344871</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>39.27457506566709</v>
+        <v>38.11376890583668</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.941719311757772</v>
+        <v>10.81689643728807</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>55.49643912473248</v>
+        <v>48.66639888114459</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-0.5765339043845508</v>
+        <v>0.2930343018557444</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>13.16198534869054</v>
+        <v>6.593918047929012</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>21.17670564424915</v>
+        <v>14.84463095398716</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2.014707552202577</v>
+        <v>-2.689827620751103</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>21.89781929796556</v>
+        <v>15.18221209936099</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.4893757919245</v>
+        <v>24.97190692457711</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4.77011304503506</v>
+        <v>-0.08463560828606731</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.37290425588446</v>
+        <v>26.60989310464272</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>42.18665126972399</v>
+        <v>33.26878062581211</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.56398616439553</v>
+        <v>28.84933173566905</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.54643550233557</v>
+        <v>33.01710434794438</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>46.40493374729432</v>
+        <v>39.92869104867311</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-0.3260413470824943</v>
+        <v>1.167620976973872</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.5199389328021</v>
+        <v>25.49505891880422</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>42.32279903137082</v>
+        <v>42.21670549783965</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>7.79140493590744</v>
+        <v>11.73584554898655</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.07360570076029</v>
+        <v>29.05474215969389</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36.87515010869819</v>
+        <v>39.25911313774083</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1.393315123596452</v>
+        <v>1.615536022300489</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.96552535754194</v>
+        <v>25.38933420712388</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.32675773840438</v>
+        <v>38.57709038375726</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.007688765735651</v>
+        <v>9.901249588114064</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.96359117823172</v>
+        <v>44.66601632715583</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-1.729972774418737</v>
+        <v>-9.812473824015441</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9.361691021779279</v>
+        <v>-4.215637890343164</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.17603713023187</v>
+        <v>11.51554972214265</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-2.300663479488591</v>
+        <v>-8.63926755592383</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.11266328826594</v>
+        <v>8.580479637671655</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.02226029006278</v>
+        <v>24.38249511478816</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-1.559078552123641</v>
+        <v>-8.530065292626595</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.7449282989537</v>
+        <v>18.00771583821141</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.69349816777121</v>
+        <v>31.63128266148026</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.67365766662339</v>
+        <v>18.99105360038544</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.72288608451072</v>
+        <v>22.19297601014544</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.96610985886586</v>
+        <v>34.14269400276822</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1.815017347547457</v>
+        <v>-2.92092339470555</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.85647774593354</v>
+        <v>14.8684405774006</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>43.73936512538604</v>
+        <v>40.41215629643412</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4.943662875115397</v>
+        <v>6.190525758528622</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>24.71872189390291</v>
+        <v>22.64075286023707</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.85711881118619</v>
+        <v>38.46280299031775</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-0.2730525173185256</v>
+        <v>-1.429742502025864</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20.97763263235473</v>
+        <v>21.18470486781068</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.31004849831579</v>
+        <v>36.63537655936746</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3.84343553402088</v>
+        <v>4.927190182039691</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.60856820679802</v>
+        <v>36.86727755941892</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.27285313193004</v>
+        <v>28.92106796781825</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>26.73365808846471</v>
+        <v>19.69388865266703</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.55682033145644</v>
+        <v>32.46794037999314</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>44.99714036342938</v>
+        <v>38.33569890570851</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.7300635858543</v>
+        <v>10.07724432529988</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.03458058067533</v>
+        <v>24.08126662574206</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.13878833518223</v>
+        <v>35.8739395998987</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>11.12181514337623</v>
+        <v>12.6598095247918</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.54639300124427</v>
+        <v>24.49733849405739</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.52129912973406</v>
+        <v>38.9329002295833</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-5.272898176719295</v>
+        <v>-4.100302297053609</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.97616984555518</v>
+        <v>15.5940094725243</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>22.52904210271046</v>
+        <v>26.39433723772166</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-0.6661520371530116</v>
+        <v>2.114706498671531</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.68356668826367</v>
+        <v>33.07413427553375</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>52.01579052571189</v>
+        <v>47.00082186783988</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>31.91592452159765</v>
+        <v>35.87134391466546</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>50.76250089680831</v>
+        <v>52.39855579945205</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>57.26469968561246</v>
+        <v>53.17577800201387</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.665119156813521</v>
+        <v>6.157397147010176</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.60158485193537</v>
+        <v>30.23041113740851</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>43.01128473305991</v>
+        <v>45.15803509766232</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>64.5325710456226</v>
+        <v>56.30588975456315</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>54.44776636374577</v>
+        <v>47.45075669050764</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.58391670826117</v>
+        <v>56.95727730960107</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>69.40036062071546</v>
+        <v>61.12105878647426</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>15.95394573973873</v>
+        <v>19.51337872713313</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61.70093354192919</v>
+        <v>58.07314372270907</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>64.54979656230537</v>
+        <v>62.89106782578632</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>17.35864611780408</v>
+        <v>17.57416313785346</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.51150208291769</v>
+        <v>45.31611256488129</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>47.96711185282138</v>
+        <v>51.72459461561076</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3.230030467507653</v>
+        <v>2.256629439889938</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.22470957470245</v>
+        <v>42.68379308790053</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>51.27982300088379</v>
+        <v>48.78732907107523</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>7.715015444223166</v>
+        <v>13.09996067462172</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>73.79383454411362</v>
+        <v>67.34835780036875</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>79.81398816334094</v>
+        <v>75.6501049181431</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80.50547617743774</v>
+        <v>75.26422250447985</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>87.42183171247251</v>
+        <v>83.84794897544256</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>95.30201628787827</v>
+        <v>87.59478963481362</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>23.93815679538253</v>
+        <v>25.80857322328803</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>82.07369126939186</v>
+        <v>78.04523232376738</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>85.41376586926849</v>
+        <v>80.80484143447688</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>64.95421286598007</v>
+        <v>58.30216147000937</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.95092112450644</v>
+        <v>41.9467407600486</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>57.23841127695142</v>
+        <v>49.44622563491777</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>67.22191585064344</v>
+        <v>59.17314324800221</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>7.616622495543702</v>
+        <v>13.27244329462239</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>56.50510919950904</v>
+        <v>52.34338453930916</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>62.14458094278046</v>
+        <v>60.12699804844591</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>10.64909618362175</v>
+        <v>12.75617319528452</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.35287321384423</v>
+        <v>42.53577707948773</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.47244382998512</v>
+        <v>50.07074166198112</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.5883114158732319</v>
+        <v>1.802170343722516</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>45.52002040542679</v>
+        <v>43.04248509503856</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>51.01692718398598</v>
+        <v>51.88696682487207</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6.163522768990095</v>
+        <v>13.39708814308885</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>73.02899149441417</v>
+        <v>68.43103384449213</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>79.99248269150358</v>
+        <v>80.13765641810404</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>78.69644238511341</v>
+        <v>73.89004659434977</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>85.89518412855274</v>
+        <v>81.67762874913043</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>96.76404433106865</v>
+        <v>91.14718749092205</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>11.60494153527621</v>
+        <v>18.73874210645545</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>80.08103763265851</v>
+        <v>76.20008210817099</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>84.61611108431329</v>
+        <v>79.38604321800415</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>60.02530473783617</v>
+        <v>54.11365228389262</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.84093299135198</v>
+        <v>25.72630257409145</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.4170620819789</v>
+        <v>34.69901209306457</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>51.55412073331629</v>
+        <v>47.37219696040508</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.796278233824093</v>
+        <v>11.71413824007877</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>49.07141873015202</v>
+        <v>45.61281967664679</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>58.05244986934021</v>
+        <v>59.17159817073168</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>7.986094065023682</v>
+        <v>10.11231784836582</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.46727112834954</v>
+        <v>39.2465258035451</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.78024504909808</v>
+        <v>55.03951275998898</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1.089635894450243</v>
+        <v>-0.7789201544136937</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.64365644139703</v>
+        <v>39.09050823396989</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>49.65436831363913</v>
+        <v>54.20765734351676</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.14950944556665</v>
+        <v>9.023786279360365</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>62.38797635302207</v>
+        <v>60.18132264130396</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>79.6475058303682</v>
+        <v>79.55818511773191</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>69.83245201016352</v>
+        <v>65.17601064353369</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>85.20775767873518</v>
+        <v>77.62947025457368</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>93.11350507286048</v>
+        <v>87.61262324169962</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>8.211561915420123</v>
+        <v>15.64987828403463</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>77.64120295344014</v>
+        <v>72.73120298183483</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>84.28340368347793</v>
+        <v>83.58918089342092</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>17.43542558578911</v>
+        <v>12.03130425147381</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>13.94967814802322</v>
+        <v>-7.697015444016369</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>19.4038947737242</v>
+        <v>3.18975245253327</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.411056743499334</v>
+        <v>-6.416534487956575</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>7.88291269973443</v>
+        <v>-18.00696920781731</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10.82320015914152</v>
+        <v>-12.49249768404066</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>9.987519458757699</v>
+        <v>-3.084298042215423</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>14.1892309163027</v>
+        <v>-5.167071906145953</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>17.74968747450903</v>
+        <v>-0.4310900157942896</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>11.86566963980128</v>
+        <v>-13.58640724813428</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>16.40846612751771</v>
+        <v>-7.13183351189998</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>16.36553465044344</v>
+        <v>-6.285410480038848</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.72646166311043</v>
+        <v>9.999470956649773</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>10.25082028437581</v>
+        <v>-3.879782454865349</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>15.59747994211514</v>
+        <v>-5.863280368075074</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.165055147390635</v>
+        <v>12.73962942108609</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19.43055508952004</v>
+        <v>7.310408382557714</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.24355025684211</v>
+        <v>23.21971463068705</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1.375429830664331</v>
+        <v>-1.281555665451474</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>7.042793149985048</v>
+        <v>-4.303529531615684</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>10.68554095557243</v>
+        <v>6.882782728601111</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>5.543186145477826</v>
+        <v>0.582666168816786</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>16.88808037541045</v>
+        <v>7.11880965603266</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15.29187797872241</v>
+        <v>10.94274895732937</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>15.24468959774738</v>
+        <v>-2.709655038960356</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>19.61750344223886</v>
+        <v>2.977672027406474</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>7.6839949770782</v>
+        <v>-4.42890720836094</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15.78899236036558</v>
+        <v>-8.127187199797788</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>18.05207175270219</v>
+        <v>-4.852432979213631</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>12.07531882200553</v>
+        <v>-5.114212057434116</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.63613108149073</v>
+        <v>-0.137124540786175</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.74609553852049</v>
+        <v>1.649803218829572</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.25817895515168</v>
+        <v>9.948037402445458</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.62570414573295</v>
+        <v>19.69544588811164</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>34.59968509348531</v>
+        <v>19.16878428410372</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>23.1121199998948</v>
+        <v>17.63879632674123</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.39010299768405</v>
+        <v>19.97175612987709</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>31.41746678265189</v>
+        <v>10.45092717274638</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>13.47014412787003</v>
+        <v>12.11837452104711</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>26.02362067329693</v>
+        <v>18.52865899787513</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.60120815457531</v>
+        <v>31.81201036453293</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>4.655549909810578</v>
+        <v>4.298925559508572</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.77649861106499</v>
+        <v>15.94915245471311</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30.70151377178676</v>
+        <v>31.25280639184535</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.66605872101437</v>
+        <v>9.760315972631508</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>37.37366456214995</v>
+        <v>33.11465005093029</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.684500890941706</v>
+        <v>-1.442914829099522</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>10.37865122319584</v>
+        <v>-10.4922721614074</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>17.6066455014211</v>
+        <v>-2.447242326689025</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4.968227992096192</v>
+        <v>-12.9209660330487</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>13.75792454515607</v>
+        <v>-13.18591478715273</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>17.87547548443678</v>
+        <v>-5.743195827015906</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>9.648218073650234</v>
+        <v>-11.85966902872554</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>21.88993247816533</v>
+        <v>-3.942665839744212</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27.66032783694711</v>
+        <v>2.449241818060759</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.72550231936836</v>
+        <v>6.281863057225451</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.94283685691344</v>
+        <v>16.1317516454716</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>34.14131757179904</v>
+        <v>16.93654368065775</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.36093942365334</v>
+        <v>-4.607664836797646</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.34702673332162</v>
+        <v>9.278830688539069</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.5895114525259</v>
+        <v>3.447557500935332</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.828370494419985</v>
+        <v>4.628316847949574</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>19.73486732076314</v>
+        <v>10.69470226348824</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.19834685568875</v>
+        <v>28.49133192418005</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1.017497861628542</v>
+        <v>-2.784063310997244</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>11.05561126785419</v>
+        <v>5.579698623296313</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.6628326057098</v>
+        <v>28.85909675357826</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>4.837807072756231</v>
+        <v>1.515021927017038</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>22.85036113763012</v>
+        <v>21.73657079394945</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>8.122483174705621</v>
+        <v>-7.306104570839583</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>8.592400212521888</v>
+        <v>-15.8425696344863</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>16.39032482326868</v>
+        <v>-3.924362700499756</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4.109840417915581</v>
+        <v>-17.53419680576537</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>11.61710475047735</v>
+        <v>-16.73254650174803</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>16.50393981764244</v>
+        <v>-7.554214349372103</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>5.106716376214589</v>
+        <v>-17.61600300936107</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>16.76104288687061</v>
+        <v>-8.32136499517911</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>23.49403487214768</v>
+        <v>0.8513967698220632</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>16.58841692908697</v>
+        <v>-8.131414468906446</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>21.67637113389107</v>
+        <v>-0.04335250584568939</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>22.3378727705848</v>
+        <v>2.683734246689969</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>7.143541856378608</v>
+        <v>-10.07529545636759</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18.42173323031452</v>
+        <v>-2.730553207201112</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>21.5108657602649</v>
+        <v>-3.975147885672815</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>7.239312903711369</v>
+        <v>4.68621929747238</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>17.49361626772892</v>
+        <v>9.481430277132935</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.85031347818486</v>
+        <v>32.12024602258471</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2.619771077748453</v>
+        <v>-2.867565125439587</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>10.68559808243202</v>
+        <v>4.402255063367392</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>27.84507956974127</v>
+        <v>28.48947227967263</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>6.411972008068709</v>
+        <v>1.961055325417146</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>19.9294307523794</v>
+        <v>19.11902535143481</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.05877360389575</v>
+        <v>18.52272984199153</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>17.68071602014738</v>
+        <v>4.086602547876872</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>26.71932528405357</v>
+        <v>23.95478484991535</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>32.54957121644734</v>
+        <v>33.46188299626913</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>9.424945516064568</v>
+        <v>5.954570677410565</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.17904169927421</v>
+        <v>10.75122218515056</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.03228010423567</v>
+        <v>20.59053545465307</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>16.3813991900741</v>
+        <v>17.52898910477673</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.14158600527195</v>
+        <v>17.91616169782314</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.8738626884642</v>
+        <v>28.67726021773002</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1.006612067319917</v>
+        <v>0.3444782440538603</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>7.957600785400626</v>
+        <v>4.615185271874509</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12.32677505854589</v>
+        <v>10.29518905298067</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>6.894343473728696</v>
+        <v>3.976998354236208</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22.21170892634368</v>
+        <v>20.49608334517323</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.64564537215205</v>
+        <v>28.54808346335775</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>20.79608297217704</v>
+        <v>19.19275682171655</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.82036812965863</v>
+        <v>38.82385183765388</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>36.74534296273433</v>
+        <v>43.20649218792069</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.85986105693692</v>
+        <v>13.20948874164447</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.98570078009111</v>
+        <v>23.98254639719484</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.75580858637353</v>
+        <v>28.02961692118872</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>47.30310483555</v>
+        <v>46.63782474903985</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>36.46514363922343</v>
+        <v>35.17659091744772</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>46.68722548641776</v>
+        <v>54.58550263408901</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>54.35399525583118</v>
+        <v>62.52412589981157</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.9296566564826</v>
+        <v>21.63629039789514</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>47.53533749971688</v>
+        <v>52.58076796655006</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>50.14232934346348</v>
+        <v>57.86217484771684</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.88590529958516</v>
+        <v>24.95329646536207</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.6469465904124</v>
+        <v>41.88683456721884</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>39.79182894591798</v>
+        <v>46.81363243727343</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>9.789403626845235</v>
+        <v>12.34698706379267</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.48203659178961</v>
+        <v>37.50391610794573</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.38135618075436</v>
+        <v>41.68900778004409</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>18.22895758851572</v>
+        <v>22.3562275424464</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>55.27115771235607</v>
+        <v>62.9446112040124</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>58.23153893810495</v>
+        <v>67.84379589407121</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>60.46192212710086</v>
+        <v>71.24335319768021</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>67.93203761503639</v>
+        <v>83.8384737629699</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>73.79302548761981</v>
+        <v>90.5606630243237</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>40.59550629875488</v>
+        <v>44.77683888586601</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>67.8272578024593</v>
+        <v>84.6010841800167</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>70.01832586111556</v>
+        <v>80.33825448112806</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>44.29622033227518</v>
+        <v>43.85726755743407</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.42324601838124</v>
+        <v>22.19122986839101</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>36.67284641669819</v>
+        <v>40.89945157790004</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>51.07198668103538</v>
+        <v>56.01386318855045</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.51831000596524</v>
+        <v>11.0235350848405</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>39.9730634165297</v>
+        <v>42.92969784290351</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>48.026597614042</v>
+        <v>53.59146635233781</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>16.99660409814903</v>
+        <v>17.68115285867432</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.05007210962631</v>
+        <v>37.38464332116617</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>37.7895653587455</v>
+        <v>44.70307019245192</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.859212674120226</v>
+        <v>8.996775006848566</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>30.02158136440473</v>
+        <v>35.82163766624456</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>39.47817664931092</v>
+        <v>44.38594632707397</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.16590665422951</v>
+        <v>18.55515765972641</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>48.9402965319606</v>
+        <v>60.72087967269481</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>57.76947779450163</v>
+        <v>70.71830365404095</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>55.02740544804003</v>
+        <v>63.8776731165586</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>64.17706365175128</v>
+        <v>77.89716570014161</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>74.73674000151308</v>
+        <v>91.32760211873605</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.66870274535517</v>
+        <v>34.0879515572752</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>63.87774435840502</v>
+        <v>80.04194988793738</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>69.84763560921165</v>
+        <v>78.3996868077035</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>42.81179950034576</v>
+        <v>44.02027899672031</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.16129032001088</v>
+        <v>5.18112146375687</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.66458849973378</v>
+        <v>22.75235256196381</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.04664987645968</v>
+        <v>40.51089814393647</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.591117698663719</v>
+        <v>7.526080247101724</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.80984652880771</v>
+        <v>32.70046689619474</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>40.85571371663345</v>
+        <v>47.70434202205691</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.39996371842112</v>
+        <v>15.42104199543039</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.8906936257237</v>
+        <v>32.93525886122175</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>40.23902929592372</v>
+        <v>47.87318833518339</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>5.334220657788638</v>
+        <v>5.166218489674016</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.84333584344608</v>
+        <v>29.2011424056271</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.36035178599635</v>
+        <v>42.91735865082875</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>11.69023381409681</v>
+        <v>12.42086871516257</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>44.69963155397961</v>
+        <v>48.89601893397024</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.16566421120712</v>
+        <v>65.911609918083</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>43.13084133936445</v>
+        <v>45.10733517083739</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>57.06451465101487</v>
+        <v>63.66389888191586</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.4173237488064</v>
+        <v>79.55304831948212</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>17.22048407291141</v>
+        <v>23.51633142560426</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>54.3586455965514</v>
+        <v>66.48730408022777</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>62.72568468209664</v>
+        <v>71.70138900578193</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>18.79031782976621</v>
+        <v>16.83392825554365</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.81930155530533</v>
+        <v>18.00703029681798</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.6622232410773</v>
+        <v>22.90219380911812</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.281363444020457</v>
+        <v>-2.04391059357431</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>17.4036963313719</v>
+        <v>7.629562851174676</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.05677544641143</v>
+        <v>8.189253223288285</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>10.53338212364406</v>
+        <v>3.844964968175852</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.3918290534799</v>
+        <v>20.6464429925406</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.48124205458982</v>
+        <v>21.12074104144916</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.10728469460528</v>
+        <v>17.64699651307457</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>35.27901104468014</v>
+        <v>30.56995054106725</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.65228045831309</v>
+        <v>23.43518239283917</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>7.29681626010667</v>
+        <v>-8.977728901049986</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>21.08851463795835</v>
+        <v>16.38415096586724</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.75548659158149</v>
+        <v>8.105149278218093</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>14.07790683349238</v>
+        <v>14.64682408445612</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.23548593605283</v>
+        <v>18.47080898732099</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.81398911219582</v>
+        <v>32.08297691367211</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>4.141238890268149</v>
+        <v>-0.9226574726832517</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>12.11601776857587</v>
+        <v>5.370146497909225</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.09175988655262</v>
+        <v>15.28319784819865</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>7.522804560778319</v>
+        <v>3.042718786593369</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.55738187576069</v>
+        <v>17.32050719184049</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>17.98250201883764</v>
+        <v>18.08242796508341</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.49815020636176</v>
+        <v>26.66668810796067</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>32.30775280023844</v>
+        <v>27.16736320368503</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>8.797019679767988</v>
+        <v>0.9264869215950036</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.77099337189705</v>
+        <v>20.01094059510038</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.52027426846511</v>
+        <v>19.14659603653965</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>12.96840277129004</v>
+        <v>4.050757613565352</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>42.7877634511039</v>
+        <v>29.27937968592617</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.02693252760156</v>
+        <v>27.47068987278605</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>46.56658894630394</v>
+        <v>37.97620259827545</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>54.92969320616998</v>
+        <v>54.7681407211354</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>51.27461251596529</v>
+        <v>46.99179635508418</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>11.00196259067785</v>
+        <v>0.6579874513019881</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>46.66861868263395</v>
+        <v>43.29827904764163</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>44.37105086812659</v>
+        <v>30.95463714685267</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.29078989572061</v>
+        <v>14.26417247974658</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.57176148309428</v>
+        <v>30.59819520718816</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.99550817509158</v>
+        <v>42.07816031553154</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>5.625486791565312</v>
+        <v>3.541605262941175</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.22937730352615</v>
+        <v>25.28414727586915</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.60613750028484</v>
+        <v>38.96691166820691</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.60280523299225</v>
+        <v>11.54211126570512</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>42.72699372212335</v>
+        <v>42.94367833995369</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>13.4829997230807</v>
+        <v>12.001206284474</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>27.64106248395231</v>
+        <v>22.18496862532092</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.73314272902969</v>
+        <v>24.51538178991953</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>9.013545293832355</v>
+        <v>-1.100334292805261</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.69300656178034</v>
+        <v>18.08415833370226</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.31912715138033</v>
+        <v>20.55747810439792</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.62228571261496</v>
+        <v>4.081915866905049</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>40.44939253412514</v>
+        <v>29.17454399917763</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>44.1261045562032</v>
+        <v>31.01735917331983</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>47.26044980552051</v>
+        <v>38.47945140839406</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>55.11104015591845</v>
+        <v>54.18224537045045</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>49.61446309129435</v>
+        <v>47.6825542404018</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>9.786683774828575</v>
+        <v>-8.333302413693751</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>40.38574971175465</v>
+        <v>38.87735800297447</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>38.46535206508174</v>
+        <v>29.46175225827956</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>8.859605303614078</v>
+        <v>9.63868922481036</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>23.90603408582962</v>
+        <v>24.6028665948201</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>30.73949978352727</v>
+        <v>39.61132756555101</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>2.827183981412833</v>
+        <v>-0.40304497915346</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>18.14370543403597</v>
+        <v>17.22374375857899</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.88419153575405</v>
+        <v>37.33397800279014</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.359061839200223</v>
+        <v>7.11032810079034</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.98851316355842</v>
+        <v>34.65610998021383</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>13.10048825034534</v>
+        <v>6.947569444670588</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>24.6721154733693</v>
+        <v>15.69660651837751</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.29810264571291</v>
+        <v>22.35029163014367</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.837188917503067</v>
+        <v>-4.770228720884667</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.51255556724605</v>
+        <v>12.99075917322005</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.86237627883018</v>
+        <v>17.9673077778485</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.75694793664082</v>
+        <v>-1.768088804423979</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.37102371608423</v>
+        <v>22.37976062688224</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>41.33564600180907</v>
+        <v>27.77362463523789</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.91223842785585</v>
+        <v>27.89762935532284</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>45.48939485625883</v>
+        <v>40.30492308693294</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>44.67392726020064</v>
+        <v>36.34744905135586</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>10.22427937226815</v>
+        <v>-9.464266092313835</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>36.90504758892361</v>
+        <v>28.94462633517544</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.77909719967522</v>
+        <v>23.36116611889626</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>10.04946973916374</v>
+        <v>9.510939736355397</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.56347639743872</v>
+        <v>21.71760190992957</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.38787571886627</v>
+        <v>41.19842372387188</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.539283137747351</v>
+        <v>-0.694412782660752</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>16.22568718979614</v>
+        <v>13.95646948616004</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.02989990532444</v>
+        <v>35.10260790656893</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.950703791038976</v>
+        <v>6.19917916900976</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.94099498106008</v>
+        <v>29.18054272509371</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.3591944809872</v>
+        <v>27.77436576594252</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.87671934850041</v>
+        <v>20.45730126139047</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.11934639482288</v>
+        <v>38.19850169950953</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>35.50875472699747</v>
+        <v>44.05493225392466</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.252202228586512</v>
+        <v>-1.454520960358678</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.12059245395806</v>
+        <v>17.55467214307341</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.31032239961667</v>
+        <v>24.75386193261728</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.33348774062436</v>
+        <v>12.76546490104587</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.00430319096671</v>
+        <v>22.05974415016014</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.37799582026746</v>
+        <v>32.59197666795258</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>2.765867866591453</v>
+        <v>-7.861242310287849</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>10.80334685172711</v>
+        <v>5.909881365367482</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16.24377058254469</v>
+        <v>12.69344623345066</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>6.223509023363153</v>
+        <v>-2.47941412497314</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.8080329956254</v>
+        <v>21.25401588722186</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.99507195048831</v>
+        <v>30.51916235888443</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.21715587991106</v>
+        <v>22.12324080236277</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.60637185304542</v>
+        <v>41.99356877632761</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.43467840061135</v>
+        <v>44.06990107109525</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>7.366248014577302</v>
+        <v>-5.769578889672601</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>21.70772237752582</v>
+        <v>19.11995898714122</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>31.00649588267823</v>
+        <v>24.44267166689197</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>50.51333111180008</v>
+        <v>55.45864369340195</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.58645596497615</v>
+        <v>47.39887190278063</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>52.60957817518347</v>
+        <v>65.02333598388321</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>54.96117966322262</v>
+        <v>69.30050847771277</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>12.0880964707075</v>
+        <v>10.75782407099725</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>49.21937738852793</v>
+        <v>55.79999627219416</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>51.9593940802296</v>
+        <v>59.95990930109309</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>19.26749089046669</v>
+        <v>20.00770843113987</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.20117030404339</v>
+        <v>46.0783717393719</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.11675940117811</v>
+        <v>50.33930241905824</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.723882408419005</v>
+        <v>3.73343508829462</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.19334401372208</v>
+        <v>38.67969728270879</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.05859289308194</v>
+        <v>42.65009989884832</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>13.86132462878877</v>
+        <v>14.81390833272847</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>53.86557512198954</v>
+        <v>62.14217191445689</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>57.46931063834849</v>
+        <v>67.27431172463235</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>62.20492759680461</v>
+        <v>68.785899125242</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>65.69321755996673</v>
+        <v>82.35660556971013</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>72.6507994408061</v>
+        <v>86.14267244603708</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>21.32758940275597</v>
+        <v>20.16666655901248</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>61.98718360818704</v>
+        <v>74.39194415534325</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>65.51202327043124</v>
+        <v>71.44167288271154</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>47.97949255361411</v>
+        <v>54.07640560944126</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>36.75621793764769</v>
+        <v>37.96744155974615</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>44.72490811202495</v>
+        <v>54.24481981573497</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>53.74925655957205</v>
+        <v>64.22286156117053</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>6.787144713243407</v>
+        <v>5.877639633721433</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>43.71076104087356</v>
+        <v>49.53992565679333</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>50.60967734943749</v>
+        <v>57.77545072885316</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>12.05713860545811</v>
+        <v>15.20221626902507</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.86347511028828</v>
+        <v>42.71021397594997</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.14548650669321</v>
+        <v>48.77847032812559</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.135446243983221</v>
+        <v>2.574783859479744</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>30.51489294630466</v>
+        <v>37.81574879248095</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>38.28429432995281</v>
+        <v>45.24613476596847</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>9.244228060425897</v>
+        <v>13.51941555782411</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>47.27291140857488</v>
+        <v>61.16008998774287</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>55.55551358164649</v>
+        <v>70.33699706779655</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>56.20348703050897</v>
+        <v>64.601532057843</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>61.81973583634608</v>
+        <v>78.47204673945427</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>72.29909835448014</v>
+        <v>87.67894761993432</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.95106294291853</v>
+        <v>14.98631697028555</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>57.93834409337495</v>
+        <v>72.71820412421326</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>64.61808953880126</v>
+        <v>71.43184016306441</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>46.74519151887134</v>
+        <v>51.34857124278302</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.65492292839586</v>
+        <v>22.89178573050597</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.2520485590597</v>
+        <v>37.71688840184417</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>42.7635541476627</v>
+        <v>50.28566989780459</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.554739072497973</v>
+        <v>5.012162829345179</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.08227757642847</v>
+        <v>40.39966564032436</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>46.61227853564414</v>
+        <v>51.97265835437106</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.02075531456866</v>
+        <v>11.05948796607</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>27.43575763478243</v>
+        <v>35.16561781332412</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.75289965571797</v>
+        <v>49.07736597693044</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>4.703571661533537</v>
+        <v>-3.835678901849697</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>22.85665496150409</v>
+        <v>27.0955359439224</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.67460160463861</v>
+        <v>40.52579194866958</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>7.531505024963334</v>
+        <v>4.255385902250829</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.3021447159811</v>
+        <v>45.27762853676627</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>54.66340863346622</v>
+        <v>62.01649102602504</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>39.81851494792419</v>
+        <v>45.3538616717228</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>53.9489864523731</v>
+        <v>63.51957095284241</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>67.44930537671317</v>
+        <v>74.68849786954057</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.030305438165591</v>
+        <v>6.455104490480096</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>47.70491859805455</v>
+        <v>59.35950856846263</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>60.94262407502131</v>
+        <v>64.74603134301273</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>11.78916491286861</v>
+        <v>10.38826522848846</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>20.7599757151159</v>
+        <v>15.02026369662201</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.93994249605093</v>
+        <v>25.82467549014714</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.6614859198912235</v>
+        <v>-3.581585947701608</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.15613693904522</v>
+        <v>15.14286831524376</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.81194276838401</v>
+        <v>21.97973229542468</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.682685116091072</v>
+        <v>3.342265652515483</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>32.89316424092495</v>
+        <v>32.73195949055327</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>37.52013873851922</v>
+        <v>36.52601013735952</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.28070688642702</v>
+        <v>18.60455933020085</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.61820436306585</v>
+        <v>25.30920759440511</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.08393403864251</v>
+        <v>24.09447324800462</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>4.521054091196259</v>
+        <v>2.560792977390868</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.02075728701008</v>
+        <v>21.3558199523325</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>32.70533962981025</v>
+        <v>36.40597469156793</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.06773027016058</v>
+        <v>15.27429207867148</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.12848526455158</v>
+        <v>21.09091009170032</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.00301011887906</v>
+        <v>30.85681722003491</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.3998784684637791</v>
+        <v>-1.353147368828555</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.12578183124058</v>
+        <v>10.409610763998</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.55354584603641</v>
+        <v>13.24363437392888</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.105531659757165</v>
+        <v>0.1250105819703577</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.42633797419046</v>
+        <v>21.95574056709664</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.09073794188545</v>
+        <v>20.23958070008862</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>34.00805392220646</v>
+        <v>32.92639299476517</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.51078681910542</v>
+        <v>36.30276867411702</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.19716464001619</v>
+        <v>7.311228402775669</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.22721321360752</v>
+        <v>36.04824228254749</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.45176722971835</v>
+        <v>39.26794069052712</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.751022323566307</v>
+        <v>9.985796901912568</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>52.50792248673892</v>
+        <v>48.42462886759095</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>52.74852557218991</v>
+        <v>47.61062121488114</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>53.2105078734135</v>
+        <v>49.93858939060138</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>59.29552219669498</v>
+        <v>59.00877605095814</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>57.54867739962407</v>
+        <v>58.30248891440712</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.14146771984958</v>
+        <v>19.13871405308284</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>58.44228373634058</v>
+        <v>52.67610172007493</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>62.63518409256743</v>
+        <v>59.88168654391296</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.48132747668031</v>
+        <v>17.88733280251286</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.10583137083366</v>
+        <v>35.99832356559378</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.26996607390038</v>
+        <v>40.89222845614934</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.340994902174756</v>
+        <v>4.094092006180272</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.60693356113824</v>
+        <v>31.41170765384494</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.28138895887253</v>
+        <v>36.51362993024066</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.833691455744027</v>
+        <v>10.33414500442491</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>52.25429336693853</v>
+        <v>49.97582918428211</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.351930121534803</v>
+        <v>12.31310661573098</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.52723908406647</v>
+        <v>27.52581917554947</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>31.76272038131836</v>
+        <v>33.05212750920519</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2.937766142733796</v>
+        <v>4.380220505912224</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.47553482537488</v>
+        <v>33.57798034279058</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.24318314083038</v>
+        <v>40.96135413693487</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>8.353933855334585</v>
+        <v>9.603575604284373</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>49.4036922377095</v>
+        <v>48.15499084741021</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>54.14749995561518</v>
+        <v>51.9742905900877</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>58.23179707808048</v>
+        <v>53.3826398454158</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>63.49493963925653</v>
+        <v>61.01611521757182</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>61.38319197255528</v>
+        <v>62.71197300287056</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2.89070011419593</v>
+        <v>3.449237382779135</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>44.61477823481775</v>
+        <v>43.68897419001006</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>50.13194065870787</v>
+        <v>54.75290412544886</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>11.47845560217026</v>
+        <v>14.2132702244888</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.38835839191928</v>
+        <v>31.16454849024431</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.20571553072772</v>
+        <v>39.84981212884784</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.384477194520358</v>
+        <v>2.29987328763567</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.73303774959812</v>
+        <v>24.982948243364</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.93281905329741</v>
+        <v>37.4872230895766</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>7.320234356741377</v>
+        <v>8.458446922145843</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>48.55426152846825</v>
+        <v>43.79390951039916</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>5.281009936517879</v>
+        <v>2.668343796494391</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.66692358518188</v>
+        <v>15.56486038828232</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.88836901590756</v>
+        <v>28.18194827602099</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3.294498086401624</v>
+        <v>-2.600327977531354</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.18137313500688</v>
+        <v>24.18845648469681</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>37.41413899779504</v>
+        <v>36.5906058573924</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>3.502676677194749</v>
+        <v>0.8720436475226379</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.81924261808732</v>
+        <v>37.48948122853845</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>52.02789437854551</v>
+        <v>47.51647506054272</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>45.55284210032238</v>
+        <v>40.74679498693928</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>51.34113108592391</v>
+        <v>46.06019815694926</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>55.9616178457421</v>
+        <v>52.50782510553159</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>0.3681314461830958</v>
+        <v>-3.6808855314565</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.35184130639482</v>
+        <v>27.31510656147498</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>47.48183920253011</v>
+        <v>47.35566317013142</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>8.698239382928808</v>
+        <v>9.291825332461851</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.14607451609221</v>
+        <v>25.17865872043813</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>33.59736377347247</v>
+        <v>39.90828364260607</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>3.080683064454881</v>
+        <v>-0.6596417568171695</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.04456737841818</v>
+        <v>20.84185580312916</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.14903958986239</v>
+        <v>35.1599455961931</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>5.965361022183441</v>
+        <v>4.214318489031605</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.52096986001929</v>
+        <v>36.3399055426291</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.47266408527186</v>
+        <v>25.88285469962008</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.78299265022582</v>
+        <v>21.77939877899563</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.58579763790986</v>
+        <v>37.54526070763249</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>39.37169804083749</v>
+        <v>39.76867131875948</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>6.84763596654642</v>
+        <v>3.769821007400779</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>22.78954106368561</v>
+        <v>20.9965685059118</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.98986706494748</v>
+        <v>28.69738202007537</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>12.2333650524401</v>
+        <v>12.7699751441864</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.25123730065125</v>
+        <v>21.46503070996138</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.10435263130139</v>
+        <v>35.80360980918572</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-2.970741637223046</v>
+        <v>-5.413816038796746</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>9.179861031944387</v>
+        <v>10.24333729288448</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.86292415425036</v>
+        <v>20.14261233665639</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>0.07055288708902552</v>
+        <v>-3.582775034372162</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.11424211857764</v>
+        <v>24.88006570119176</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.00952949460667</v>
+        <v>38.47775743879087</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.3418771036487</v>
+        <v>28.08751651676396</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>45.32985996649985</v>
+        <v>49.13773294388756</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>52.07981113393056</v>
+        <v>48.71774037010508</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>0.8670732622569659</v>
+        <v>-2.839932162182862</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.34983892990515</v>
+        <v>20.81167000905923</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.65946752133496</v>
+        <v>33.75685092586802</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>54.56674085577601</v>
+        <v>54.42949874867054</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.45944359556837</v>
+        <v>52.39980134379962</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>61.82874545659151</v>
+        <v>64.79605930382851</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>61.31467331708645</v>
+        <v>64.79749867122749</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>16.22355026988199</v>
+        <v>18.14515174751045</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>57.69112711516422</v>
+        <v>60.91598067012631</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>57.25232621528332</v>
+        <v>62.03306586947593</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.27717459802819</v>
+        <v>18.94680065115796</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>40.15141972430902</v>
+        <v>44.8521354435743</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.72874324359286</v>
+        <v>51.81083716503335</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.046668164251777</v>
+        <v>2.361995808945196</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.86193200989747</v>
+        <v>40.05252918518499</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>46.21531210654041</v>
+        <v>47.33674147369162</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>7.313700586395914</v>
+        <v>9.497045021351855</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>65.02810721736115</v>
+        <v>63.32258378203554</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>70.38539776457846</v>
+        <v>72.84152468966874</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>74.82870685034608</v>
+        <v>73.16009859068349</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>79.8750052636366</v>
+        <v>84.71898926558319</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>86.58471912267882</v>
+        <v>87.74339783875124</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>18.41469753423552</v>
+        <v>20.90457550229576</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>72.87331613103015</v>
+        <v>74.58575895097991</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>77.08922158796133</v>
+        <v>76.97497608487998</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>57.90772963572476</v>
+        <v>56.27958436317331</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>50.78903219365575</v>
+        <v>45.42541108140665</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>55.54593970110604</v>
+        <v>55.24618460592606</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>61.87925437887863</v>
+        <v>62.49438304935832</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.16271218821893</v>
+        <v>12.77437011788827</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>53.77743475909101</v>
+        <v>54.34978682244945</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>56.48280800123047</v>
+        <v>60.21170906051568</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>10.62471999704693</v>
+        <v>12.98035121359962</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.19761623749886</v>
+        <v>40.78007952037797</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.09733770173648</v>
+        <v>49.85899364455918</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>2.755863548057906</v>
+        <v>1.39778051119178</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>40.28027932172333</v>
+        <v>39.4144664234872</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.69302081315091</v>
+        <v>50.94467348722985</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>5.315139558556439</v>
+        <v>8.715273925986519</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>61.25851701063389</v>
+        <v>62.91400692901758</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>71.05609140973841</v>
+        <v>77.42313902000217</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>72.8458927685685</v>
+        <v>69.5425673942771</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>76.67609003379988</v>
+        <v>80.24726482380339</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>88.04456613443074</v>
+        <v>90.48221433722199</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>8.638551213539596</v>
+        <v>12.54703791576362</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>67.83678154453726</v>
+        <v>70.6034769247465</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>76.32281775103364</v>
+        <v>75.11656053380156</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>53.91660483222884</v>
+        <v>52.43923363074438</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>32.13660398639224</v>
+        <v>28.06403724602328</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>39.47934203690011</v>
+        <v>38.010788108997</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>47.02702535201688</v>
+        <v>48.59685339502334</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>8.567599733661464</v>
+        <v>9.143885016382246</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>46.75350177741473</v>
+        <v>44.39857783779684</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>53.76731117122044</v>
+        <v>56.28696229356019</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>8.470386775023403</v>
+        <v>8.502698366575785</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.5089065461865</v>
+        <v>34.59874609736698</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.57797850870918</v>
+        <v>52.43882776139743</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>0.1646823631326946</v>
+        <v>-3.548019664466647</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.40718048240117</v>
+        <v>31.95596662041573</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.71064229963795</v>
+        <v>49.50036476003449</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>0.5572623816000224</v>
+        <v>1.387592864260832</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.06242660527035</v>
+        <v>50.04604685724745</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>69.14279888707698</v>
+        <v>72.40318166545002</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>53.81927778809833</v>
+        <v>56.4835715715162</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>69.32785123579858</v>
+        <v>71.79266035462948</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>84.26052639481506</v>
+        <v>83.31166966362397</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>3.176526192431815</v>
+        <v>6.374105047929298</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>57.55362150399915</v>
+        <v>61.80088785433431</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>74.47205596936385</v>
+        <v>74.69504767962968</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.75718944524513</v>
+        <v>18.16607553070249</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.52416459304911</v>
+        <v>14.22573106841847</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.68719569247655</v>
+        <v>29.39108135941919</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.24404969253399</v>
+        <v>13.46878469661346</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.08950787282576</v>
+        <v>25.61844336738167</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.18486026764469</v>
+        <v>34.57462247072289</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.9027503042818</v>
+        <v>17.33028955559504</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>39.3143475578609</v>
+        <v>40.46137124152094</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>43.9891036033653</v>
+        <v>47.27358023730861</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.43412622962821</v>
+        <v>19.35152703924548</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.42377742979646</v>
+        <v>22.63547879104111</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.24089803877795</v>
+        <v>22.8790181062259</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.48778780212703</v>
+        <v>20.83472166716835</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>17.62438802556602</v>
+        <v>15.84804638406301</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.63245844273661</v>
+        <v>38.70086896081091</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>15.43572874046758</v>
+        <v>17.94932219894593</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>21.83926625798642</v>
+        <v>15.59493353429596</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.525768430859</v>
+        <v>26.29885116401503</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>19.83652385493958</v>
+        <v>21.32182701884309</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.65739766589173</v>
+        <v>23.45426209693382</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.48972079824056</v>
+        <v>26.57010269820478</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>9.052216461999876</v>
+        <v>7.095840748953776</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>20.09416507474129</v>
+        <v>21.35934838475988</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.87491792833441</v>
+        <v>22.46018688241913</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.20063871931263</v>
+        <v>28.29863010229067</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.05771375405887</v>
+        <v>35.42538442421952</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>14.55212136605116</v>
+        <v>19.70962613699409</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>41.63042938011429</v>
+        <v>43.85110770985881</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>41.6095720710555</v>
+        <v>48.24461531172679</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>15.74807321557509</v>
+        <v>17.64211638811466</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>45.12993206418838</v>
+        <v>51.85767119428751</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>48.62869948880807</v>
+        <v>53.41038137706991</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>52.33373778713076</v>
+        <v>55.07585296763404</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>53.99500005713028</v>
+        <v>61.27993937090986</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>51.17820432280168</v>
+        <v>62.21266944241641</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.0530616833108</v>
+        <v>37.79941227711311</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>54.34092152596089</v>
+        <v>52.01390188164339</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>63.89099740449026</v>
+        <v>64.27477572595097</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>19.49927853184972</v>
+        <v>16.31062851732776</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>27.32220194105875</v>
+        <v>25.0403127615941</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.60960793076959</v>
+        <v>31.06014069379178</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>19.84711985531398</v>
+        <v>23.1203799675901</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>32.26949554607892</v>
+        <v>38.58398979516167</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.86360862389491</v>
+        <v>44.86387431609405</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.13037788792844</v>
+        <v>11.09363823076335</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.43977382191828</v>
+        <v>41.77585051830153</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.80513935235321</v>
+        <v>11.30933608980828</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>21.87631009185873</v>
+        <v>22.97501588591796</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.60780440451909</v>
+        <v>32.41294792225918</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>10.28251801000892</v>
+        <v>13.11726009479842</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>39.08178990764049</v>
+        <v>41.62268281490924</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>40.91273716765032</v>
+        <v>50.49487725404136</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>13.63735210580402</v>
+        <v>12.83590126448659</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.26449190139532</v>
+        <v>50.91054742555176</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>50.95150988816783</v>
+        <v>57.47327962276029</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>54.39728879254646</v>
+        <v>56.47999346539855</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>54.93422875171902</v>
+        <v>62.14909838894678</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>53.33420833498505</v>
+        <v>65.49390578617911</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.60875899169802</v>
+        <v>15.13487760965269</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>42.22945732019025</v>
+        <v>42.97959875474264</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>53.04871979124659</v>
+        <v>59.27774000032546</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>17.28698014715732</v>
+        <v>12.53889809913339</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>27.72968700065209</v>
+        <v>21.49763370040595</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.91347731735828</v>
+        <v>31.40052108605297</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>19.81616933867835</v>
+        <v>20.47638364950217</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.40522957662555</v>
+        <v>32.70001293170458</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.54322814121269</v>
+        <v>46.74273546148552</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>12.00026731316633</v>
+        <v>7.49567347625505</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.34816752981389</v>
+        <v>35.16702134537431</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>9.389051314254296</v>
+        <v>0.2258809607068848</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>14.50341742199162</v>
+        <v>10.64483269337618</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.76921423527743</v>
+        <v>26.20606782547413</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.975771991689673</v>
+        <v>6.045502573605116</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.74416747793034</v>
+        <v>33.90847531612737</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>40.98440864417852</v>
+        <v>46.48712095140689</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>8.204198744412519</v>
+        <v>3.501864324453809</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.33451868875008</v>
+        <v>41.24381044430973</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.36582617042014</v>
+        <v>52.57321515444853</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.11610433153386</v>
+        <v>42.02355367753057</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.73792338097621</v>
+        <v>44.61699720387165</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>47.95565352111436</v>
+        <v>50.28365110665487</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>7.195131057571469</v>
+        <v>3.789686885729282</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>26.66990343182481</v>
+        <v>24.06051231699984</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>48.29250020330203</v>
+        <v>48.62306445367967</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>12.49309805350741</v>
+        <v>8.526560199457041</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>23.05210511679011</v>
+        <v>17.87649803611288</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.11108553095132</v>
+        <v>33.5117888996747</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>19.97423800364429</v>
+        <v>19.45817976844705</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.53736506798534</v>
+        <v>32.95107295732733</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.85419581110074</v>
+        <v>47.89030667067536</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>9.035964551663074</v>
+        <v>6.453773774403324</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.98762019029533</v>
+        <v>32.76493120943053</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.01939486812284</v>
+        <v>25.39900375950238</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>19.22764137288869</v>
+        <v>14.80752986234017</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.32565099131694</v>
+        <v>30.49069417504509</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.16707785380569</v>
+        <v>30.0214326894987</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.05880859984223</v>
+        <v>9.53554958363593</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.03338902786793</v>
+        <v>12.991181494813</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>21.74675467101429</v>
+        <v>24.55293647859716</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.71981899217572</v>
+        <v>19.69666425986469</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.1708947202713</v>
+        <v>21.65120981252155</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.89852946718497</v>
+        <v>33.56770580586135</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>17.85806691271657</v>
+        <v>24.89119171841008</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.63864143258359</v>
+        <v>30.55320184006287</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.48419780179184</v>
+        <v>37.07666568339811</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>10.33431999476907</v>
+        <v>11.30314285279029</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.19433071786764</v>
+        <v>32.85307901131765</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>38.72280486034064</v>
+        <v>42.33143610026057</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.13157258327762</v>
+        <v>31.24033907009065</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>38.6642413920231</v>
+        <v>47.98918806210361</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>43.24497241331355</v>
+        <v>49.40822845232738</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>12.27239308283386</v>
+        <v>15.21948572353579</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>20.92555502031472</v>
+        <v>22.83457633075441</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.95108469854702</v>
+        <v>38.14901800746297</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>38.75181975836653</v>
+        <v>46.78580966328103</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.03040201120761</v>
+        <v>45.18016969679984</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>44.83722670453524</v>
+        <v>56.53607383206632</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>43.97490422675222</v>
+        <v>53.3133508729486</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.90563838472018</v>
+        <v>24.26768269701927</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>43.74486746651458</v>
+        <v>52.59730239564887</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>44.55751619180227</v>
+        <v>57.53329832808444</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.49926184429111</v>
+        <v>22.57280069098962</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>34.05196852436629</v>
+        <v>40.68154941280531</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.31366858007738</v>
+        <v>46.03946335070238</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>23.76635811498797</v>
+        <v>28.20225136298081</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>44.94017719111196</v>
+        <v>53.81116770813356</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>45.10933471081539</v>
+        <v>59.36581773303062</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>14.81960294628839</v>
+        <v>18.10248074779077</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>54.71859590343102</v>
+        <v>64.04103506284258</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>56.72356320601942</v>
+        <v>70.48767208244843</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>64.1017015162119</v>
+        <v>79.91672319690232</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>66.68424819774019</v>
+        <v>84.60952623559444</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>70.42743323936263</v>
+        <v>88.13170153898002</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>32.83241359550197</v>
+        <v>40.97624949665059</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.51287288709257</v>
+        <v>76.98823861208939</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>65.65240930056893</v>
+        <v>83.40989881002953</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>43.20563912406497</v>
+        <v>48.70944960797611</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>35.02034484342319</v>
+        <v>36.93204947630829</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>39.21383867987164</v>
+        <v>46.17635840993698</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>44.2811309938025</v>
+        <v>51.02801294795685</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>19.21065770473456</v>
+        <v>16.73710936810965</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.01981090283049</v>
+        <v>46.07073270618533</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.19690746983429</v>
+        <v>56.10515793346542</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.78017052132847</v>
+        <v>16.77023775758139</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.81770320548016</v>
+        <v>37.89924831171387</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.11795448660509</v>
+        <v>45.22495597549191</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.03932623187511</v>
+        <v>27.26674053329101</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>46.38361510311154</v>
+        <v>54.47164910123142</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>47.04906220519821</v>
+        <v>64.18960721653717</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>14.09534278302117</v>
+        <v>16.47200407099251</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>54.6437594492719</v>
+        <v>63.98179815123348</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>58.79539491834102</v>
+        <v>75.44593105367545</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>63.391138268246</v>
+        <v>74.86633243753384</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>65.08847670175381</v>
+        <v>79.64714251755426</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>73.27176632966626</v>
+        <v>90.79760398664229</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>24.21429530683912</v>
+        <v>30.40831066174777</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>59.19102485270027</v>
+        <v>72.43360090669682</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>65.54874254000505</v>
+        <v>81.35698844611366</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>42.31439537978959</v>
+        <v>49.32535265536737</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>22.47325523804</v>
+        <v>22.00078889822153</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.08772878660552</v>
+        <v>30.47051501396414</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>33.90160099531553</v>
+        <v>39.32895287099353</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.38923693205384</v>
+        <v>12.08733200431469</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.2389430342331</v>
+        <v>36.72391622975768</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>41.12381094419609</v>
+        <v>52.62870274504698</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.36479837267642</v>
+        <v>13.23839315746468</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.17827202854825</v>
+        <v>32.85968827206983</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.89331848823061</v>
+        <v>48.4158630751748</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>21.19136444334951</v>
+        <v>25.31115207197443</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>42.77903180180385</v>
+        <v>50.82702335981197</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>48.8139842664054</v>
+        <v>65.46892399783934</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>10.52756598953205</v>
+        <v>12.36914472801648</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.92474156331246</v>
+        <v>54.47600531736239</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>59.99421531008637</v>
+        <v>73.04277049809126</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>53.97657087576403</v>
+        <v>61.29054729688735</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>59.63068657686864</v>
+        <v>70.21480400305694</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>72.80967646024941</v>
+        <v>84.95392861469</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.11256650535499</v>
+        <v>21.87426240512515</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>50.48695136482685</v>
+        <v>60.97649247552781</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>63.69015134794658</v>
+        <v>78.31112765349448</v>
       </c>
     </row>
   </sheetData>
